--- a/data/instiz_인티포털.xlsx
+++ b/data/instiz_인티포털.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="727">
   <si>
     <t>제목</t>
   </si>
@@ -34,220 +34,2167 @@
     <t>추천수</t>
   </si>
   <si>
-    <t>나중에는 아버지보다 더 유명해질거 같은 이정후</t>
-  </si>
-  <si>
-    <t>영국언론 데일리메일에 나온 한국 연예인</t>
-  </si>
-  <si>
-    <t>개그계가 힘들어진 이유</t>
-  </si>
-  <si>
-    <t>슈퍼스타 이정후의 9회 2사상황 역전타</t>
-  </si>
-  <si>
-    <t>일본 오키나와 수중화산 폭발로 댄 해변</t>
-  </si>
-  <si>
-    <t>브이앱 하는 오마이걸 아린.gif</t>
-  </si>
-  <si>
-    <t>4만원에 여친한테 정떨어지면 내가 이상한건가?</t>
-  </si>
-  <si>
-    <t>호스로 물마시는 코끼리</t>
-  </si>
-  <si>
-    <t>포르투갈 리스본 짤들</t>
-  </si>
-  <si>
-    <t>지상파 최초 [프리스타일-Y완전체Live] _211015</t>
-  </si>
-  <si>
-    <t>임시완이 공개한 연애횟수.jpg</t>
-  </si>
-  <si>
-    <t>손웅정옹 에세이에 언급된 '그 사진'에 대한 비하인드.jpg</t>
-  </si>
-  <si>
-    <t>오늘자 한문철티비 레전드</t>
-  </si>
-  <si>
-    <t>스테이씨 윤세은 '색안경' 직캠 교차편집.twt</t>
-  </si>
-  <si>
-    <t>서울 뷔페 3대장</t>
-  </si>
-  <si>
-    <t>사고치는 고양이.jpg</t>
-  </si>
-  <si>
-    <t>영국 데일리메일 홈피에서 발견된 한류...jpg</t>
-  </si>
-  <si>
-    <t>LEC바이탈리티 영입 루머</t>
-  </si>
-  <si>
-    <t>삼성 핸드폰 테스트 엔지니어도 어쩔 수 없는 취향</t>
+    <t>생일파티한 한소희 목걸이 귀걸이 브랜드.. 대박 예쁨</t>
+  </si>
+  <si>
+    <t>"새끼 길고양이 얼굴을 토치로 불질러”...경찰, 수사 착수</t>
+  </si>
+  <si>
+    <t>화려수수 조합으로 데뷔 첫 화보 찍은 여돌</t>
+  </si>
+  <si>
+    <t>붐 담당 일진.jpg</t>
+  </si>
+  <si>
+    <t>젤다의 전설 안해본 사람들은 잘 모르는 것 jpg</t>
+  </si>
+  <si>
+    <t>황당해진 대만 상황</t>
+  </si>
+  <si>
+    <t>정상수에게 직접듣는 킬링벌스 소감 및 카운팅스타</t>
+  </si>
+  <si>
+    <t>신서유기 연말굿즈.jpg</t>
+  </si>
+  <si>
+    <t>편의점 성추행 벌금 100만원</t>
+  </si>
+  <si>
+    <t>붐이 홈쇼핑 못 나오는 이유.JPG</t>
+  </si>
+  <si>
+    <t>필력 미친 홈플러스더클럽 인스타그램 게시물.jpg</t>
+  </si>
+  <si>
+    <t>냄새에 정신줄 놓은 고양이들 영상 모음</t>
+  </si>
+  <si>
+    <t>레전드 충김볶 레시피에 이은 박나래 해장주스 레시피</t>
+  </si>
+  <si>
+    <t>[충격] 이재명 수행실장 한준호 前 아나 "영부인 출산해야 국격 높아져"...</t>
+  </si>
+  <si>
+    <t>한국인으로 이루어진 남자아이돌 그룹</t>
+  </si>
+  <si>
+    <t>판) 십몇년 전 입양보낸 아이를 찾는 것... 너무 이기적일까요</t>
+  </si>
+  <si>
+    <t>추억의 전략 시뮬레이션 게임.jpgif</t>
+  </si>
+  <si>
+    <t>그동안 자료 공개를 막는 협박에 시달렸다 박동희 대표 기자</t>
+  </si>
+  <si>
+    <t>이센스 인생곡</t>
+  </si>
+  <si>
+    <t>라면의 면발이 노란색인 이유</t>
+  </si>
+  <si>
+    <t>해리포터 팬들이 뽑은 시리즈 최악의 영화</t>
+  </si>
+  <si>
+    <t>섹시를 잘못 이해하고 있는 남돌</t>
+  </si>
+  <si>
+    <t>윾쾌한 식당 아지매.jpg</t>
+  </si>
+  <si>
+    <t>시대를 앞서갔던 20년전 게임</t>
+  </si>
+  <si>
+    <t>사과티비 수위 ㄹㅇ 실화냐 ㄷㄷ...</t>
+  </si>
+  <si>
+    <t>지난주 구내식당 생선 메뉴</t>
+  </si>
+  <si>
+    <t>우동이 짜다</t>
+  </si>
+  <si>
+    <t>난 이 음료수들 눈감고 마시면 다 구별 가능하다 vs 아니다</t>
+  </si>
+  <si>
+    <t>한문철아님) 형사전문변호사에게 보복운전한 운전자</t>
+  </si>
+  <si>
+    <t>신곡 낸 에이브릴 라빈</t>
+  </si>
+  <si>
+    <t>논두렁에 꼬라박는 오토바이.gif</t>
+  </si>
+  <si>
+    <t>미국의 로켓 발사 기술 근황.gif</t>
+  </si>
+  <si>
+    <t>여돌의 새로운 청순계보 이을 것 같은 방과후설렘 참가자</t>
+  </si>
+  <si>
+    <t>어제 일어난 하이마트 돌진 사고 전말</t>
+  </si>
+  <si>
+    <t>[EP.13] 어제자 스테픈 커리.GIF</t>
+  </si>
+  <si>
+    <t>육룡이나르샤 - 척사광 윤랑 gif</t>
+  </si>
+  <si>
+    <t>성과급, 인센티브 퇴직금 꿀팁</t>
+  </si>
+  <si>
+    <t>현실적인 캡틴 아메리카</t>
+  </si>
+  <si>
+    <t>대면공연이 신기한 에스파 윈터</t>
+  </si>
+  <si>
+    <t>청담역의 위엄.jpg</t>
+  </si>
+  <si>
+    <t>드라마 고독한미식가 스키야키 먹방</t>
+  </si>
+  <si>
+    <t>피가 되고 살이 되는 현실 인생 팁</t>
+  </si>
+  <si>
+    <t>꿀잼실험</t>
+  </si>
+  <si>
+    <t>집돌이 and 밖순이 결혼은 파국인가요?</t>
+  </si>
+  <si>
+    <t>시레기 말리는 중인 음식점</t>
+  </si>
+  <si>
+    <t>흔한 시골 국수집 풍경</t>
+  </si>
+  <si>
+    <t>45층에서 의자를 던진 여자.gif</t>
+  </si>
+  <si>
+    <t>사람들이 스파이더맨을 좋아하는 이유를 잘 보여준다는 영화 장면.jpg</t>
+  </si>
+  <si>
+    <t>한편의 수필같은 정상수 인생벌스</t>
+  </si>
+  <si>
+    <t>19세기 러시아의 달 덕후 화가</t>
+  </si>
+  <si>
+    <t>군대가면 총만 쏜다는 미필들 봐라</t>
+  </si>
+  <si>
+    <t>의외로 국내 판타지 소설 입문 작품으로 많이 꼽히는 소설</t>
+  </si>
+  <si>
+    <t>日 언론"오징어게임 방영된 모든 나라에서 대히트를 기록한 이유"일본 반응</t>
+  </si>
+  <si>
+    <t>노빠꾸 러시아 근황</t>
+  </si>
+  <si>
+    <t>아빠한테 배틀넷 아이디 걸렸다 저런</t>
+  </si>
+  <si>
+    <t>요즘 머하나 궁금한 아티스트</t>
+  </si>
+  <si>
+    <t>몽골 최초 외교장관</t>
+  </si>
+  <si>
+    <t>'생수병 사건' 인사 불만 등으로 동료 3인 콕 집어 범행</t>
+  </si>
+  <si>
+    <t>프로필 사진으로 리즈 찍은 뮤지컬 배우</t>
+  </si>
+  <si>
+    <t>[속보] 정부 "30세 미만, 모더나 대신 화이자 코로나19 백신 권고”</t>
+  </si>
+  <si>
+    <t>요즘 유치원생 노래실력(이승철 - 잊었니 소향 ver)</t>
+  </si>
+  <si>
+    <t>앙버터빵 급발진</t>
+  </si>
+  <si>
+    <t>차은우 아닌척 수업 듣는 차은우</t>
+  </si>
+  <si>
+    <t>안철수 "대입 수시 폐지, 사법고시 부활시킨다"</t>
+  </si>
+  <si>
+    <t>조선족이 한국에 불만인점</t>
+  </si>
+  <si>
+    <t>유튜브 스타로 떡상하고 있는 정상수.JPG</t>
+  </si>
+  <si>
+    <t>유전자 이상 때문에 귀가 4개인 고양이</t>
+  </si>
+  <si>
+    <t>큐브 아이돌 2022 시즌그리팅 출시 공지</t>
+  </si>
+  <si>
+    <t>[단독] "판사님, 시x 진짜" 욕설한 한서희, 필로폰 투약 징역 '1년 ..</t>
+  </si>
+  <si>
+    <t>지방 사람들이 처음 서울 왔을때 의외로 가장 놀란다는 것</t>
+  </si>
+  <si>
+    <t>애기들한테 똥 닦는 법 알려주시는 유치원 선생님</t>
+  </si>
+  <si>
+    <t>짐 옮기는거 도와주는 리트리버들</t>
+  </si>
+  <si>
+    <t>방탄소년단, 오늘 미국 출국…LA 콘서트→시상식서 팬들 만난다</t>
+  </si>
+  <si>
+    <t>'한겨레 광고 철회' 서울시, 올해 예정된 광고 0건</t>
+  </si>
+  <si>
+    <t>UAE "한국산 방공 미사일 '천궁' 구매 의향…4조원 규모”(종합)</t>
+  </si>
+  <si>
+    <t>2년만에 콘서트 &amp; 시상식으로 미국 가는 방탄소년단 공항사진</t>
+  </si>
+  <si>
+    <t>여친이 화장실갈때 노트북을 덮고 간 이유...jpg</t>
+  </si>
+  <si>
+    <t>올림픽 트젠선수 늘어날까…IOC "남성호르몬 수치 안 따지겠다"</t>
+  </si>
+  <si>
+    <t>의외로 운전중에 박으면 ㅈ 되는 것들</t>
+  </si>
+  <si>
+    <t>콜라로 만든 솜사탕</t>
+  </si>
+  <si>
+    <t>스파이더맨 노웨이홈 2차예고편</t>
+  </si>
+  <si>
+    <t>알고보면 정말 착한 친구들</t>
+  </si>
+  <si>
+    <t>대륙의 원룸청소</t>
+  </si>
+  <si>
+    <t>"적군이 병사들에게 6kg 단검을 보급하고있다고?"</t>
+  </si>
+  <si>
+    <t>서울 한번도 안 가봤는데 이렇게 생긴거 맞나요?</t>
+  </si>
+  <si>
+    <t>90년대 원탑 영화 여배우</t>
+  </si>
+  <si>
+    <t>넘어진 람보르기니</t>
+  </si>
+  <si>
+    <t>한류 때문에 생긴 편견</t>
+  </si>
+  <si>
+    <t>논란중이라는 초등학교 국어 문제.jpg</t>
+  </si>
+  <si>
+    <t>여자 키 146cm의 슬픔.jpg</t>
+  </si>
+  <si>
+    <t>박성웅, 유지태 피지컬.gif</t>
+  </si>
+  <si>
+    <t>비트코인으로 술사먹는 황현희</t>
+  </si>
+  <si>
+    <t>요즘 애들 월급별 자동차</t>
+  </si>
+  <si>
+    <t>배달 시켰는데 졸지에 저팔계 돼버림.jpg</t>
+  </si>
+  <si>
+    <t>국민 세금으로 조선족 이미지 인식 개선 시키는 나라</t>
+  </si>
+  <si>
+    <t>김옥빈 전남친 얘기 들은 신동엽의 반응 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>나이먹고 결혼식장 가면서 가장 변한것.txt</t>
+  </si>
+  <si>
+    <t>아빠의 만행에, 절규하는 딸</t>
+  </si>
+  <si>
+    <t>콩나물국밥집의 무료 애기밥...한국인의 정.jpg</t>
+  </si>
+  <si>
+    <t>영화 남한산성을 보고 어리둥절한 중국인들</t>
+  </si>
+  <si>
+    <t>"하데스! 어찌 생자들의 일에 나서는가?"</t>
+  </si>
+  <si>
+    <t>부스터샷 간격 3~4개월로 단축 검토…18일 계획 발표</t>
+  </si>
+  <si>
+    <t>'한국어 기원' 논문에 흥분한 中누리꾼들.."역시 우주의 중심은 중국"</t>
+  </si>
+  <si>
+    <t>오늘 우리팀 신입 지각했는데.blind</t>
+  </si>
+  <si>
+    <t>진짜 어린이들은 못 따라잡는다..내가 어쩔티비 하는동안..twt</t>
+  </si>
+  <si>
+    <t>실력파 보이밴드 원위, 신곡 '별' 개인 콘셉트 포토 공개</t>
+  </si>
+  <si>
+    <t>드라마 선덕여왕 세계관 최고의 천재 gif</t>
+  </si>
+  <si>
+    <t>한국 정부는 난민들이 못 견디고 떠나게 만들어요”</t>
+  </si>
+  <si>
+    <t>개그맨 황현희 근황..jpg</t>
+  </si>
+  <si>
+    <t>자신을 잡으러 출동한 형사와의 대화 .JPG</t>
+  </si>
+  <si>
+    <t>한국 런칭하는 고든램지 햄버거 실물</t>
+  </si>
+  <si>
+    <t>철인3종 국내 여성 1위</t>
+  </si>
+  <si>
+    <t>이번주 pd수첩 예고(feat 쿠펑)</t>
+  </si>
+  <si>
+    <t>이재영 그리스서 귀국…검진 후 왼쪽 무릎 수술·재활 예정.gisa</t>
+  </si>
+  <si>
+    <t>21세기 드라마라는게 믿기지 않는.. 일본 새드라마 (주연: 아라시 니노미..</t>
+  </si>
+  <si>
+    <t>염치없는친구 손절</t>
+  </si>
+  <si>
+    <t>스파이더맨 예고편에서 ptsd를 불러온 장면</t>
+  </si>
+  <si>
+    <t>다이아몬드 세척</t>
+  </si>
+  <si>
+    <t>흑화된 사회복지공무원</t>
+  </si>
+  <si>
+    <t>누나 둘 등쌀에 남매타투 맞춘 막내 남동생.jpg</t>
+  </si>
+  <si>
+    <t>테슬라 대량매도한 머스크, 샌더스 조롱하며"주식 더 팔까?"</t>
+  </si>
+  <si>
+    <t>무인카페서 담배 피우며 난장판으로 만들고 도망간 5명의 남성</t>
+  </si>
+  <si>
+    <t>엑스원 해체 당시 경력직 멤버들이 했던 생각들</t>
+  </si>
+  <si>
+    <t>mbti 신뢰도 증가</t>
+  </si>
+  <si>
+    <t>방탄소년단 오늘(17일) LA 출국, AMA 대상후보→스타디움 콘서트 개최..</t>
+  </si>
+  <si>
+    <t>술도녀 정은지&amp;한선화 길거리 싸움 씬 직캠</t>
+  </si>
+  <si>
+    <t>황순현 NC 전 대표이사"방역당국이 잘못했다고 생각"</t>
+  </si>
+  <si>
+    <t>로키야 머리에 김붙었다</t>
+  </si>
+  <si>
+    <t>서공예 만년 1등이였던 남돌이 추는 제시 'Cold Blooded'</t>
+  </si>
+  <si>
+    <t>어제자 확진자 수 3187명</t>
+  </si>
+  <si>
+    <t>연합뉴스, 네이버/다음카카오 뉴스란에서 퇴출... '언론 탄압인가'</t>
+  </si>
+  <si>
+    <t>경연이 아니라 공연을 하고 있는 어제자 풍류대장 역대급 무대들</t>
+  </si>
+  <si>
+    <t>알바한지 한 달 짼데 사장님이랑 첫 카톡</t>
+  </si>
+  <si>
+    <t>소갈비 버거.jpg</t>
+  </si>
+  <si>
+    <t>속보) 페이커 FA</t>
+  </si>
+  <si>
+    <t>내일 골때녀 결방</t>
+  </si>
+  <si>
+    <t>세서미 스트리트에 한국 캐릭터 추가</t>
+  </si>
+  <si>
+    <t>사과가 3개있는데 2개 더 사면 몇개임? .jpg</t>
+  </si>
+  <si>
+    <t>우리 엄마 특징.real</t>
+  </si>
+  <si>
+    <t>90년생은 공감하는 추억의 장난감.JPG</t>
+  </si>
+  <si>
+    <t>에이팩스 레전드 코스프레 한 디시인.jpg</t>
+  </si>
+  <si>
+    <t>26년만에 밝혀진 직장 상사의 정체.jpg</t>
+  </si>
+  <si>
+    <t>기안84가 말하는 최고의 컵라면.JPG</t>
+  </si>
+  <si>
+    <t>시험공부하는 공대생</t>
+  </si>
+  <si>
+    <t>"다 내쫓고 쑥대밭"…담배 나무라자 들이닥친 중학생들.news</t>
+  </si>
+  <si>
+    <t>공대생 부부의 솔루션.jpg</t>
+  </si>
+  <si>
+    <t>헬스장 민폐유형</t>
+  </si>
+  <si>
+    <t>일본의원룸</t>
+  </si>
+  <si>
+    <t>중국인에게 빌드업 시전.jpeg</t>
+  </si>
+  <si>
+    <t>SS501 노래중에 숨겨진 명곡.JPG</t>
+  </si>
+  <si>
+    <t>수능 당일 레전드 사진.JPG</t>
+  </si>
+  <si>
+    <t>뭔가 어색한 호크아이 드라마</t>
+  </si>
+  <si>
+    <t>혐주의) 홍대골목에서 발견된 저주인형</t>
+  </si>
+  <si>
+    <t>[단독] 엉덩이 살갗 까지고 3도 화상 신생아 울린 의료사고</t>
+  </si>
+  <si>
+    <t>내년 콩의 날.jpg</t>
+  </si>
+  <si>
+    <t>4수생 정준하가 알려주는 시험문제 찍기 팁.gif</t>
+  </si>
+  <si>
+    <t>최근 심각하다는 백신 부작용.JPG</t>
+  </si>
+  <si>
+    <t>진짜 당황스러운 세븐틴 팬덤 상태</t>
+  </si>
+  <si>
+    <t>???: 님 왤케 잘함?? 어디섭이에요?</t>
+  </si>
+  <si>
+    <t>서점에서 불법인데 의외로 많이하는거.JPG</t>
+  </si>
+  <si>
+    <t>[단독] '이건희 컬렉션' 작품에 의문의 서명.. 미술계 술렁</t>
+  </si>
+  <si>
+    <t>김동현이 공무원준비를 포기한 이유</t>
+  </si>
+  <si>
+    <t>임용준비생 눈물쏟은 사연</t>
+  </si>
+  <si>
+    <t>DRX 쏭 , 보리 FA</t>
+  </si>
+  <si>
+    <t>나 아이유로 자기세뇌 했는데 효과는 굉장해따ㅎ</t>
+  </si>
+  <si>
+    <t>악마의 탈을 쓴 부모</t>
+  </si>
+  <si>
+    <t>20대 여성은 청년 아닌듯…이·윤, 남성 표심잡기 매몰</t>
+  </si>
+  <si>
+    <t>교수님이 미소녀 목소리였으면 좋겠다는 대학생</t>
+  </si>
+  <si>
+    <t>유재석이 듣고 방송에서 개빡친 일화</t>
+  </si>
+  <si>
+    <t>회사가 너무 기계적이라 퇴사함.jpg</t>
+  </si>
+  <si>
+    <t>레전드 카톡 착각남.jpg</t>
+  </si>
+  <si>
+    <t>Post Malone and The Weeknd - One Right No..</t>
+  </si>
+  <si>
+    <t>켜진 컴퓨터의 램을 빼봤다.jpg</t>
+  </si>
+  <si>
+    <t>근래 본 여자아이돌 단발 투탑</t>
+  </si>
+  <si>
+    <t>10년도 더 전에 유행하고 요즘은 안보이는 하교 길거리 음식.jpg</t>
+  </si>
+  <si>
+    <t>화성인 바이러스 초딩남 근황</t>
+  </si>
+  <si>
+    <t>상큼하게 무대하는 핑크악동 트와이스.jpgif</t>
+  </si>
+  <si>
+    <t>현재 서울 서초구 근황</t>
+  </si>
+  <si>
+    <t>스파이더맨 노웨이홈 포스터</t>
+  </si>
+  <si>
+    <t>골병들거같은 놀이기구</t>
+  </si>
+  <si>
+    <t>남자가 남자번호 땀</t>
+  </si>
+  <si>
+    <t>외국인들이 놀라는 k양심 실험.JPG</t>
+  </si>
+  <si>
+    <t>음식 그릇 이렇게 내놨다고 배달기사랑 싸움.JPG</t>
+  </si>
+  <si>
+    <t>2000년대 중반 숨겨진 발라드 명곡.JPG</t>
+  </si>
+  <si>
+    <t>주방 자동화 .gif</t>
+  </si>
+  <si>
+    <t>오징어 게임의 세계적인 인기... 그리고 넷플릭스와 우리나라 방송사의 차이..</t>
+  </si>
+  <si>
+    <t>60m 높이에서 멈춘 롤러코스터</t>
+  </si>
+  <si>
+    <t>PC요소가 추가된 와우 근황</t>
+  </si>
+  <si>
+    <t>작가가 잡아준 컨셉을 활용 못하는 배우들...jpg</t>
+  </si>
+  <si>
+    <t>사장이 주문 취소해서 화난 사람.JPG</t>
+  </si>
+  <si>
+    <t>누눈나난</t>
+  </si>
+  <si>
+    <t>MANSAE</t>
+  </si>
+  <si>
+    <t>버가버가뷰</t>
+  </si>
+  <si>
+    <t>윤정한 아내</t>
+  </si>
+  <si>
+    <t>몹시호시</t>
+  </si>
+  <si>
+    <t>알케이</t>
+  </si>
+  <si>
+    <t>큐랑둥이</t>
+  </si>
+  <si>
+    <t>Twenty_Four</t>
+  </si>
+  <si>
+    <t>~~</t>
+  </si>
+  <si>
+    <t>션국이네 메르</t>
+  </si>
+  <si>
+    <t>나천재</t>
+  </si>
+  <si>
+    <t>야들아해장하</t>
+  </si>
+  <si>
+    <t>햅뿌</t>
+  </si>
+  <si>
+    <t>강쥐강아쥐</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>김용국 아내</t>
+  </si>
+  <si>
+    <t>사랑을먹고자</t>
+  </si>
+  <si>
+    <t>토끼네</t>
+  </si>
+  <si>
+    <t>세븐틴 비니</t>
+  </si>
+  <si>
+    <t>몽몽댕</t>
+  </si>
+  <si>
+    <t>류준열 강다니</t>
+  </si>
+  <si>
+    <t>sweetly</t>
+  </si>
+  <si>
+    <t>초코틴틴세븐</t>
+  </si>
+  <si>
+    <t>다시 태어날</t>
+  </si>
+  <si>
+    <t>김상연</t>
+  </si>
+  <si>
+    <t>패딩조끼</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>데이비드썸원</t>
+  </si>
+  <si>
+    <t>더보이즈 상</t>
+  </si>
+  <si>
+    <t>즐겨즐겨</t>
+  </si>
+  <si>
+    <t>벤츄리</t>
+  </si>
+  <si>
+    <t>김규년</t>
+  </si>
+  <si>
+    <t>Vitro</t>
+  </si>
+  <si>
+    <t>오이카와 토비</t>
+  </si>
+  <si>
+    <t>중 천러</t>
+  </si>
+  <si>
+    <t>BGRU</t>
+  </si>
+  <si>
+    <t>천러러러</t>
+  </si>
+  <si>
+    <t>쿵쾅맨</t>
+  </si>
+  <si>
+    <t>따릉해요</t>
+  </si>
+  <si>
+    <t>아이디할게너</t>
+  </si>
+  <si>
+    <t>송희진</t>
+  </si>
+  <si>
+    <t>용시대박</t>
+  </si>
+  <si>
+    <t>윤세원</t>
+  </si>
+  <si>
+    <t>김성규내꺼`ワ</t>
+  </si>
+  <si>
+    <t>djekxn</t>
+  </si>
+  <si>
+    <t>할리뱅입니더</t>
+  </si>
+  <si>
+    <t>'''</t>
+  </si>
+  <si>
+    <t>맠맠잉</t>
+  </si>
+  <si>
+    <t>멍멍개</t>
+  </si>
+  <si>
+    <t>소고기 육전</t>
+  </si>
+  <si>
+    <t>無地태</t>
+  </si>
+  <si>
+    <t>사라나</t>
+  </si>
+  <si>
+    <t>solio</t>
+  </si>
+  <si>
+    <t>널 사랑해 영</t>
+  </si>
+  <si>
+    <t>닐라닐라</t>
+  </si>
+  <si>
+    <t>초코B</t>
+  </si>
+  <si>
+    <t>아야나미</t>
   </si>
   <si>
     <t>유기현 (25)</t>
   </si>
   <si>
+    <t>행복한왕만두</t>
+  </si>
+  <si>
+    <t>바닐라코</t>
+  </si>
+  <si>
+    <t>토토얌</t>
+  </si>
+  <si>
+    <t>슈슈슈슈슈슈</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>방탄전용날개</t>
+  </si>
+  <si>
+    <t>오징어게임 일</t>
+  </si>
+  <si>
+    <t>쌈자리즈</t>
+  </si>
+  <si>
+    <t>영국닭집</t>
+  </si>
+  <si>
+    <t>Side to Side</t>
+  </si>
+  <si>
+    <t>남준이는왜이</t>
+  </si>
+  <si>
+    <t>오동잎한잎</t>
+  </si>
+  <si>
+    <t>307559_return</t>
+  </si>
+  <si>
+    <t>풀썬이동혁</t>
+  </si>
+  <si>
+    <t>헤에에이~</t>
+  </si>
+  <si>
+    <t>게임을시작하</t>
+  </si>
+  <si>
+    <t>NCT 지 성</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>던던둔둔</t>
+  </si>
+  <si>
+    <t>wjjdkkdkrk</t>
+  </si>
+  <si>
+    <t>푸른미소</t>
+  </si>
+  <si>
+    <t>어니부깅</t>
+  </si>
+  <si>
+    <t>세븐틴 원 +</t>
+  </si>
+  <si>
+    <t>참섭</t>
+  </si>
+  <si>
+    <t>이리저리요리</t>
+  </si>
+  <si>
+    <t>키토제닉</t>
+  </si>
+  <si>
+    <t>311342_return</t>
+  </si>
+  <si>
+    <t>에어리어 스타</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>쇼콘!23</t>
+  </si>
+  <si>
+    <t>311869_return</t>
+  </si>
+  <si>
+    <t>임팩트FBI</t>
+  </si>
+  <si>
+    <t>Wannable(워너</t>
+  </si>
+  <si>
+    <t>다시한번말씀</t>
+  </si>
+  <si>
+    <t>거미의해안</t>
+  </si>
+  <si>
+    <t>JOSHUA95</t>
+  </si>
+  <si>
+    <t>바보같은그대</t>
+  </si>
+  <si>
+    <t>이진기(30)</t>
+  </si>
+  <si>
+    <t>11541</t>
+  </si>
+  <si>
+    <t>더보이즈 이주</t>
+  </si>
+  <si>
+    <t>보라차라떼</t>
+  </si>
+  <si>
+    <t>보이프렌드 민</t>
+  </si>
+  <si>
+    <t>.서로가 서로</t>
+  </si>
+  <si>
+    <t>뇌잘린</t>
+  </si>
+  <si>
+    <t>남준선배</t>
+  </si>
+  <si>
+    <t>한 편의 너</t>
+  </si>
+  <si>
+    <t>더보이즈 김영</t>
+  </si>
+  <si>
+    <t>호롤로롤롤</t>
+  </si>
+  <si>
+    <t>우물밖 여고</t>
+  </si>
+  <si>
+    <t>218023_return</t>
+  </si>
+  <si>
+    <t>마유</t>
+  </si>
+  <si>
+    <t>에자키카루</t>
+  </si>
+  <si>
+    <t>위례신다도시</t>
+  </si>
+  <si>
+    <t>신짱구,</t>
+  </si>
+  <si>
+    <t>950107</t>
+  </si>
+  <si>
+    <t>WANNA ONE 하</t>
+  </si>
+  <si>
+    <t>싯떼루네`ワ</t>
+  </si>
+  <si>
+    <t>자두야♡♡</t>
+  </si>
+  <si>
+    <t>비비의주인</t>
+  </si>
+  <si>
+    <t>최민호(26)</t>
+  </si>
+  <si>
     <t>에자키히카루</t>
   </si>
   <si>
-    <t>옹뇸뇸뇸</t>
-  </si>
-  <si>
-    <t>오이카와 토비</t>
-  </si>
-  <si>
-    <t>싯떼루네`ワ</t>
-  </si>
-  <si>
-    <t>아이오아이 김</t>
-  </si>
-  <si>
-    <t>다시 태어날</t>
-  </si>
-  <si>
-    <t>.서로가 서로</t>
-  </si>
-  <si>
-    <t>멍ㅇ멍이 소리</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t>다시한번말씀</t>
-  </si>
-  <si>
-    <t>패딩조끼</t>
-  </si>
-  <si>
-    <t>이진기(30)</t>
-  </si>
-  <si>
-    <t>녹차말차킬러</t>
-  </si>
-  <si>
-    <t>헤에에이~</t>
-  </si>
-  <si>
-    <t>최민호(26)</t>
-  </si>
-  <si>
-    <t>남준선배</t>
-  </si>
-  <si>
-    <t>1:07</t>
-  </si>
-  <si>
-    <t>1:01</t>
-  </si>
-  <si>
-    <t>0:56</t>
-  </si>
-  <si>
-    <t>0:49</t>
-  </si>
-  <si>
-    <t>0:48</t>
-  </si>
-  <si>
-    <t>0:47</t>
-  </si>
-  <si>
-    <t>0:39</t>
-  </si>
-  <si>
-    <t>0:38</t>
-  </si>
-  <si>
-    <t>0:37</t>
-  </si>
-  <si>
-    <t>0:36</t>
-  </si>
-  <si>
-    <t>0:35</t>
-  </si>
-  <si>
-    <t>0:34</t>
-  </si>
-  <si>
-    <t>0:27</t>
+    <t>최승처</t>
+  </si>
+  <si>
+    <t>몹시섹시</t>
+  </si>
+  <si>
+    <t>배진영(a.k.a발</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>17:48</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:31</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>17:29</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>17:22</t>
+  </si>
+  <si>
+    <t>17:19</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>17:11</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>17:06</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>16:58</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>16:28</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>16:23</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:18</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:13</t>
+  </si>
+  <si>
+    <t>16:08</t>
+  </si>
+  <si>
+    <t>16:06</t>
+  </si>
+  <si>
+    <t>15:59</t>
+  </si>
+  <si>
+    <t>15:54</t>
+  </si>
+  <si>
+    <t>15:53</t>
+  </si>
+  <si>
+    <t>15:47</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>15:44</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:23</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>15:17</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>15:08</t>
+  </si>
+  <si>
+    <t>15:04</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>14:55</t>
+  </si>
+  <si>
+    <t>14:53</t>
+  </si>
+  <si>
+    <t>14:44</t>
+  </si>
+  <si>
+    <t>14:42</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t>14:28</t>
+  </si>
+  <si>
+    <t>14:19</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>14:09</t>
+  </si>
+  <si>
+    <t>14:07</t>
+  </si>
+  <si>
+    <t>14:06</t>
+  </si>
+  <si>
+    <t>14:03</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>13:44</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>13:39</t>
+  </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>13:03</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>12:36</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>12:32</t>
+  </si>
+  <si>
+    <t>12:31</t>
+  </si>
+  <si>
+    <t>12:28</t>
+  </si>
+  <si>
+    <t>12:27</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>11:36</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>11:21</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>10:51</t>
+  </si>
+  <si>
+    <t>10:49</t>
+  </si>
+  <si>
+    <t>10:48</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>10:28</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>10:09</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>9:59</t>
+  </si>
+  <si>
+    <t>9:58</t>
+  </si>
+  <si>
+    <t>9:45</t>
+  </si>
+  <si>
+    <t>9:39</t>
+  </si>
+  <si>
+    <t>9:36</t>
+  </si>
+  <si>
+    <t>9:26</t>
+  </si>
+  <si>
+    <t>9:24</t>
+  </si>
+  <si>
+    <t>9:13</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>8:58</t>
+  </si>
+  <si>
+    <t>8:57</t>
+  </si>
+  <si>
+    <t>8:47</t>
+  </si>
+  <si>
+    <t>8:34</t>
+  </si>
+  <si>
+    <t>8:25</t>
+  </si>
+  <si>
+    <t>8:15</t>
+  </si>
+  <si>
+    <t>8:13</t>
+  </si>
+  <si>
+    <t>8:02</t>
+  </si>
+  <si>
+    <t>7:31</t>
+  </si>
+  <si>
+    <t>7:26</t>
+  </si>
+  <si>
+    <t>7:25</t>
+  </si>
+  <si>
+    <t>7:16</t>
+  </si>
+  <si>
+    <t>7:03</t>
+  </si>
+  <si>
+    <t>6:49</t>
+  </si>
+  <si>
+    <t>6:44</t>
+  </si>
+  <si>
+    <t>6:32</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>5:58</t>
+  </si>
+  <si>
+    <t>5:56</t>
+  </si>
+  <si>
+    <t>5:55</t>
+  </si>
+  <si>
+    <t>5:54</t>
+  </si>
+  <si>
+    <t>5:26</t>
+  </si>
+  <si>
+    <t>4:27</t>
+  </si>
+  <si>
+    <t>4:25</t>
+  </si>
+  <si>
+    <t>4:24</t>
+  </si>
+  <si>
+    <t>4:23</t>
+  </si>
+  <si>
+    <t>4:16</t>
+  </si>
+  <si>
+    <t>4:15</t>
+  </si>
+  <si>
+    <t>4:01</t>
+  </si>
+  <si>
+    <t>3:55</t>
+  </si>
+  <si>
+    <t>3:54</t>
+  </si>
+  <si>
+    <t>3:47</t>
+  </si>
+  <si>
+    <t>3:42</t>
+  </si>
+  <si>
+    <t>3:40</t>
+  </si>
+  <si>
+    <t>2:54</t>
+  </si>
+  <si>
+    <t>2:53</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>2671</t>
+  </si>
+  <si>
+    <t>3379</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>6283</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>5299</t>
+  </si>
+  <si>
+    <t>5520</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>2720</t>
+  </si>
+  <si>
+    <t>14658</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>4536</t>
+  </si>
+  <si>
+    <t>13048</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>3731</t>
+  </si>
+  <si>
+    <t>3073</t>
+  </si>
+  <si>
+    <t>16093</t>
+  </si>
+  <si>
+    <t>10275</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>14135</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>11427</t>
+  </si>
+  <si>
+    <t>9857</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>7009</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>6955</t>
+  </si>
+  <si>
+    <t>3479</t>
+  </si>
+  <si>
+    <t>10923</t>
+  </si>
+  <si>
+    <t>13589</t>
+  </si>
+  <si>
+    <t>3372</t>
+  </si>
+  <si>
+    <t>3460</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>3371</t>
+  </si>
+  <si>
+    <t>8788</t>
+  </si>
+  <si>
+    <t>28961</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>18800</t>
+  </si>
+  <si>
+    <t>16543</t>
+  </si>
+  <si>
+    <t>22174</t>
+  </si>
+  <si>
+    <t>22894</t>
+  </si>
+  <si>
+    <t>4199</t>
+  </si>
+  <si>
+    <t>16328</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>25306</t>
+  </si>
+  <si>
+    <t>3850</t>
+  </si>
+  <si>
+    <t>11432</t>
+  </si>
+  <si>
+    <t>11745</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>4103</t>
+  </si>
+  <si>
+    <t>32098</t>
+  </si>
+  <si>
+    <t>9018</t>
+  </si>
+  <si>
+    <t>4720</t>
+  </si>
+  <si>
+    <t>4441</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>2943</t>
+  </si>
+  <si>
+    <t>4534</t>
+  </si>
+  <si>
+    <t>3081</t>
+  </si>
+  <si>
+    <t>6128</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>3277</t>
+  </si>
+  <si>
+    <t>12997</t>
+  </si>
+  <si>
+    <t>17575</t>
+  </si>
+  <si>
+    <t>5995</t>
+  </si>
+  <si>
+    <t>4472</t>
+  </si>
+  <si>
+    <t>11224</t>
+  </si>
+  <si>
+    <t>21639</t>
+  </si>
+  <si>
+    <t>25193</t>
+  </si>
+  <si>
+    <t>3233</t>
+  </si>
+  <si>
+    <t>18838</t>
+  </si>
+  <si>
+    <t>10825</t>
+  </si>
+  <si>
+    <t>6906</t>
+  </si>
+  <si>
+    <t>38916</t>
+  </si>
+  <si>
+    <t>14894</t>
+  </si>
+  <si>
+    <t>4065</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>33093</t>
+  </si>
+  <si>
+    <t>24655</t>
+  </si>
+  <si>
+    <t>20270</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>6019</t>
+  </si>
+  <si>
+    <t>40490</t>
+  </si>
+  <si>
+    <t>19330</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>26943</t>
+  </si>
+  <si>
+    <t>4204</t>
+  </si>
+  <si>
+    <t>2984</t>
+  </si>
+  <si>
+    <t>5814</t>
+  </si>
+  <si>
+    <t>14487</t>
+  </si>
+  <si>
+    <t>13195</t>
+  </si>
+  <si>
+    <t>21346</t>
+  </si>
+  <si>
+    <t>9157</t>
+  </si>
+  <si>
+    <t>8454</t>
+  </si>
+  <si>
+    <t>36469</t>
+  </si>
+  <si>
+    <t>19181</t>
+  </si>
+  <si>
+    <t>63520</t>
+  </si>
+  <si>
+    <t>12906</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>4237</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>5409</t>
+  </si>
+  <si>
+    <t>4862</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>17158</t>
+  </si>
+  <si>
+    <t>4961</t>
+  </si>
+  <si>
+    <t>7343</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>9433</t>
+  </si>
+  <si>
+    <t>59114</t>
+  </si>
+  <si>
+    <t>5741</t>
+  </si>
+  <si>
+    <t>4349</t>
+  </si>
+  <si>
+    <t>2439</t>
+  </si>
+  <si>
+    <t>25981</t>
+  </si>
+  <si>
+    <t>25007</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>6114</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>51672</t>
+  </si>
+  <si>
+    <t>6827</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>39703</t>
+  </si>
+  <si>
+    <t>6164</t>
+  </si>
+  <si>
+    <t>104357</t>
+  </si>
+  <si>
+    <t>33238</t>
+  </si>
+  <si>
+    <t>2238</t>
+  </si>
+  <si>
+    <t>7513</t>
+  </si>
+  <si>
+    <t>31765</t>
+  </si>
+  <si>
+    <t>68576</t>
+  </si>
+  <si>
+    <t>4618</t>
+  </si>
+  <si>
+    <t>36385</t>
+  </si>
+  <si>
+    <t>27821</t>
+  </si>
+  <si>
+    <t>25272</t>
+  </si>
+  <si>
+    <t>6421</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>71459</t>
+  </si>
+  <si>
+    <t>5939</t>
+  </si>
+  <si>
+    <t>7392</t>
+  </si>
+  <si>
+    <t>4553</t>
+  </si>
+  <si>
+    <t>42199</t>
+  </si>
+  <si>
+    <t>99207</t>
+  </si>
+  <si>
+    <t>65438</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11605</t>
+  </si>
+  <si>
+    <t>11209</t>
+  </si>
+  <si>
+    <t>21418</t>
+  </si>
+  <si>
+    <t>19382</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>120108</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>4892</t>
+  </si>
+  <si>
+    <t>13235</t>
+  </si>
+  <si>
+    <t>5931</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>3154</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>24568</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>437</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>5917</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1877</t>
-  </si>
-  <si>
-    <t>1580</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4014</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -605,7 +2552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,19 +2586,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>481</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -662,19 +2609,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="F3" t="s">
+        <v>668</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -685,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>483</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -708,19 +2655,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
+        <v>669</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -731,19 +2678,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>670</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -754,19 +2701,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="F7" t="s">
+        <v>669</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -777,19 +2724,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
+        <v>487</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -800,19 +2747,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -823,19 +2770,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -846,19 +2793,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="F11" t="s">
+        <v>670</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -869,19 +2816,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>491</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>669</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -892,19 +2839,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>492</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -915,19 +2862,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>493</v>
+      </c>
+      <c r="F14" t="s">
+        <v>669</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -938,19 +2885,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="F15" t="s">
+        <v>671</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -961,19 +2908,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -984,19 +2931,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>672</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1007,19 +2954,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
+        <v>497</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1030,19 +2977,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>498</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1053,19 +3000,3952 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" t="s">
+        <v>673</v>
+      </c>
+      <c r="G21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>674</v>
+      </c>
+      <c r="G22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" t="s">
+        <v>504</v>
+      </c>
+      <c r="F26" t="s">
+        <v>675</v>
+      </c>
+      <c r="G26" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" t="s">
+        <v>505</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>507</v>
+      </c>
+      <c r="F29" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" t="s">
+        <v>508</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" t="s">
+        <v>509</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" t="s">
+        <v>511</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" t="s">
+        <v>512</v>
+      </c>
+      <c r="F34" t="s">
+        <v>487</v>
+      </c>
+      <c r="G34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" t="s">
+        <v>513</v>
+      </c>
+      <c r="F35" t="s">
+        <v>676</v>
+      </c>
+      <c r="G35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" t="s">
+        <v>514</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" t="s">
+        <v>515</v>
+      </c>
+      <c r="F38" t="s">
+        <v>670</v>
+      </c>
+      <c r="G38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E40" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40" t="s">
+        <v>677</v>
+      </c>
+      <c r="G40" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" t="s">
+        <v>518</v>
+      </c>
+      <c r="F41" t="s">
+        <v>678</v>
+      </c>
+      <c r="G41" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" t="s">
+        <v>519</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" t="s">
+        <v>520</v>
+      </c>
+      <c r="F43" t="s">
+        <v>679</v>
+      </c>
+      <c r="G43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G44" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" t="s">
+        <v>522</v>
+      </c>
+      <c r="F45" t="s">
+        <v>680</v>
+      </c>
+      <c r="G45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" t="s">
+        <v>523</v>
+      </c>
+      <c r="F46" t="s">
+        <v>672</v>
+      </c>
+      <c r="G46" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" t="s">
+        <v>524</v>
+      </c>
+      <c r="F47" t="s">
+        <v>670</v>
+      </c>
+      <c r="G47" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G48" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" t="s">
+        <v>526</v>
+      </c>
+      <c r="F49" t="s">
+        <v>673</v>
+      </c>
+      <c r="G49" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" t="s">
+        <v>527</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" t="s">
+        <v>528</v>
+      </c>
+      <c r="F51" t="s">
+        <v>682</v>
+      </c>
+      <c r="G51" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>359</v>
+      </c>
+      <c r="E52" t="s">
+        <v>529</v>
+      </c>
+      <c r="F52" t="s">
+        <v>670</v>
+      </c>
+      <c r="G52" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E53" t="s">
+        <v>530</v>
+      </c>
+      <c r="F53" t="s">
+        <v>683</v>
+      </c>
+      <c r="G53" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" t="s">
+        <v>531</v>
+      </c>
+      <c r="F54" t="s">
+        <v>684</v>
+      </c>
+      <c r="G54" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" t="s">
+        <v>532</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" t="s">
+        <v>533</v>
+      </c>
+      <c r="F56" t="s">
+        <v>669</v>
+      </c>
+      <c r="G56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" t="s">
+        <v>364</v>
+      </c>
+      <c r="E57" t="s">
+        <v>534</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>365</v>
+      </c>
+      <c r="E58" t="s">
+        <v>535</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>366</v>
+      </c>
+      <c r="E59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" t="s">
+        <v>537</v>
+      </c>
+      <c r="F60" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>538</v>
+      </c>
+      <c r="F61" t="s">
+        <v>685</v>
+      </c>
+      <c r="G61" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" t="s">
+        <v>539</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E63" t="s">
+        <v>540</v>
+      </c>
+      <c r="F63" t="s">
+        <v>686</v>
+      </c>
+      <c r="G63" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64" t="s">
+        <v>541</v>
+      </c>
+      <c r="F64" t="s">
+        <v>661</v>
+      </c>
+      <c r="G64" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" t="s">
+        <v>542</v>
+      </c>
+      <c r="F65" t="s">
+        <v>687</v>
+      </c>
+      <c r="G65" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s">
+        <v>373</v>
+      </c>
+      <c r="E66" t="s">
+        <v>543</v>
+      </c>
+      <c r="F66" t="s">
+        <v>688</v>
+      </c>
+      <c r="G66" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>374</v>
+      </c>
+      <c r="E67" t="s">
+        <v>544</v>
+      </c>
+      <c r="F67" t="s">
+        <v>669</v>
+      </c>
+      <c r="G67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" t="s">
+        <v>545</v>
+      </c>
+      <c r="F68" t="s">
+        <v>689</v>
+      </c>
+      <c r="G68" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>376</v>
+      </c>
+      <c r="E69" t="s">
+        <v>546</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
-        <v>55</v>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>377</v>
+      </c>
+      <c r="E70" t="s">
+        <v>547</v>
+      </c>
+      <c r="F70" t="s">
+        <v>690</v>
+      </c>
+      <c r="G70" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" t="s">
+        <v>378</v>
+      </c>
+      <c r="E71" t="s">
+        <v>548</v>
+      </c>
+      <c r="F71" t="s">
+        <v>669</v>
+      </c>
+      <c r="G71" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" t="s">
+        <v>379</v>
+      </c>
+      <c r="E72" t="s">
+        <v>549</v>
+      </c>
+      <c r="F72" t="s">
+        <v>673</v>
+      </c>
+      <c r="G72" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E73" t="s">
+        <v>550</v>
+      </c>
+      <c r="F73" t="s">
+        <v>691</v>
+      </c>
+      <c r="G73" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" t="s">
+        <v>381</v>
+      </c>
+      <c r="E74" t="s">
+        <v>551</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>382</v>
+      </c>
+      <c r="E75" t="s">
+        <v>552</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76" t="s">
+        <v>553</v>
+      </c>
+      <c r="F76" t="s">
+        <v>668</v>
+      </c>
+      <c r="G76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>384</v>
+      </c>
+      <c r="E77" t="s">
+        <v>554</v>
+      </c>
+      <c r="F77" t="s">
+        <v>671</v>
+      </c>
+      <c r="G77" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" t="s">
+        <v>385</v>
+      </c>
+      <c r="E78" t="s">
+        <v>555</v>
+      </c>
+      <c r="F78" t="s">
+        <v>691</v>
+      </c>
+      <c r="G78" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" t="s">
+        <v>556</v>
+      </c>
+      <c r="F79" t="s">
+        <v>692</v>
+      </c>
+      <c r="G79" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" t="s">
+        <v>387</v>
+      </c>
+      <c r="E80" t="s">
+        <v>557</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" t="s">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>558</v>
+      </c>
+      <c r="F81" t="s">
+        <v>668</v>
+      </c>
+      <c r="G81" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>389</v>
+      </c>
+      <c r="E82" t="s">
+        <v>559</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" t="s">
+        <v>560</v>
+      </c>
+      <c r="F83" t="s">
+        <v>668</v>
+      </c>
+      <c r="G83" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" t="s">
+        <v>391</v>
+      </c>
+      <c r="E84" t="s">
+        <v>561</v>
+      </c>
+      <c r="F84" t="s">
+        <v>668</v>
+      </c>
+      <c r="G84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>392</v>
+      </c>
+      <c r="E85" t="s">
+        <v>562</v>
+      </c>
+      <c r="F85" t="s">
+        <v>669</v>
+      </c>
+      <c r="G85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" t="s">
+        <v>393</v>
+      </c>
+      <c r="E86" t="s">
+        <v>563</v>
+      </c>
+      <c r="F86" t="s">
+        <v>671</v>
+      </c>
+      <c r="G86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" t="s">
+        <v>394</v>
+      </c>
+      <c r="E87" t="s">
+        <v>564</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" t="s">
+        <v>565</v>
+      </c>
+      <c r="F88" t="s">
+        <v>669</v>
+      </c>
+      <c r="G88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" t="s">
+        <v>395</v>
+      </c>
+      <c r="E89" t="s">
+        <v>566</v>
+      </c>
+      <c r="F89" t="s">
+        <v>673</v>
+      </c>
+      <c r="G89" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" t="s">
+        <v>567</v>
+      </c>
+      <c r="F90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G90" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" t="s">
+        <v>568</v>
+      </c>
+      <c r="F91" t="s">
+        <v>669</v>
+      </c>
+      <c r="G91" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" t="s">
+        <v>397</v>
+      </c>
+      <c r="E92" t="s">
+        <v>569</v>
+      </c>
+      <c r="F92" t="s">
+        <v>669</v>
+      </c>
+      <c r="G92" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" t="s">
+        <v>398</v>
+      </c>
+      <c r="E93" t="s">
+        <v>570</v>
+      </c>
+      <c r="F93" t="s">
+        <v>694</v>
+      </c>
+      <c r="G93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" t="s">
+        <v>399</v>
+      </c>
+      <c r="E94" t="s">
+        <v>571</v>
+      </c>
+      <c r="F94" t="s">
+        <v>675</v>
+      </c>
+      <c r="G94" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" t="s">
+        <v>399</v>
+      </c>
+      <c r="E95" t="s">
+        <v>572</v>
+      </c>
+      <c r="F95" t="s">
+        <v>691</v>
+      </c>
+      <c r="G95" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" t="s">
+        <v>573</v>
+      </c>
+      <c r="F96" t="s">
+        <v>668</v>
+      </c>
+      <c r="G96" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" t="s">
+        <v>574</v>
+      </c>
+      <c r="F97" t="s">
+        <v>695</v>
+      </c>
+      <c r="G97" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" t="s">
+        <v>402</v>
+      </c>
+      <c r="E98" t="s">
+        <v>575</v>
+      </c>
+      <c r="F98" t="s">
+        <v>694</v>
+      </c>
+      <c r="G98" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" t="s">
+        <v>403</v>
+      </c>
+      <c r="E99" t="s">
+        <v>576</v>
+      </c>
+      <c r="F99" t="s">
+        <v>670</v>
+      </c>
+      <c r="G99" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" t="s">
+        <v>577</v>
+      </c>
+      <c r="F100" t="s">
+        <v>696</v>
+      </c>
+      <c r="G100" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>264</v>
+      </c>
+      <c r="D101" t="s">
+        <v>405</v>
+      </c>
+      <c r="E101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101" t="s">
+        <v>697</v>
+      </c>
+      <c r="G101" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" t="s">
+        <v>579</v>
+      </c>
+      <c r="F102" t="s">
+        <v>678</v>
+      </c>
+      <c r="G102" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" t="s">
+        <v>407</v>
+      </c>
+      <c r="E103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103" t="s">
+        <v>668</v>
+      </c>
+      <c r="G103" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>408</v>
+      </c>
+      <c r="E104" t="s">
+        <v>581</v>
+      </c>
+      <c r="F104" t="s">
+        <v>698</v>
+      </c>
+      <c r="G104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" t="s">
+        <v>409</v>
+      </c>
+      <c r="E105" t="s">
+        <v>582</v>
+      </c>
+      <c r="F105" t="s">
+        <v>699</v>
+      </c>
+      <c r="G105" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" t="s">
+        <v>583</v>
+      </c>
+      <c r="F106" t="s">
+        <v>693</v>
+      </c>
+      <c r="G106" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" t="s">
+        <v>410</v>
+      </c>
+      <c r="E107" t="s">
+        <v>584</v>
+      </c>
+      <c r="F107" t="s">
+        <v>669</v>
+      </c>
+      <c r="G107" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>279</v>
+      </c>
+      <c r="D108" t="s">
+        <v>411</v>
+      </c>
+      <c r="E108" t="s">
+        <v>585</v>
+      </c>
+      <c r="F108" t="s">
+        <v>668</v>
+      </c>
+      <c r="G108" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" t="s">
+        <v>586</v>
+      </c>
+      <c r="F109" t="s">
+        <v>700</v>
+      </c>
+      <c r="G109" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" t="s">
+        <v>587</v>
+      </c>
+      <c r="F110" t="s">
+        <v>673</v>
+      </c>
+      <c r="G110" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" t="s">
+        <v>414</v>
+      </c>
+      <c r="E111" t="s">
+        <v>588</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" t="s">
+        <v>414</v>
+      </c>
+      <c r="E112" t="s">
+        <v>589</v>
+      </c>
+      <c r="F112" t="s">
+        <v>701</v>
+      </c>
+      <c r="G112" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" t="s">
+        <v>415</v>
+      </c>
+      <c r="E113" t="s">
+        <v>590</v>
+      </c>
+      <c r="F113" t="s">
+        <v>694</v>
+      </c>
+      <c r="G113" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>284</v>
+      </c>
+      <c r="D114" t="s">
+        <v>415</v>
+      </c>
+      <c r="E114" t="s">
+        <v>591</v>
+      </c>
+      <c r="F114" t="s">
+        <v>668</v>
+      </c>
+      <c r="G114" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>285</v>
+      </c>
+      <c r="D115" t="s">
+        <v>416</v>
+      </c>
+      <c r="E115" t="s">
+        <v>592</v>
+      </c>
+      <c r="F115" t="s">
+        <v>668</v>
+      </c>
+      <c r="G115" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" t="s">
+        <v>417</v>
+      </c>
+      <c r="E116" t="s">
+        <v>593</v>
+      </c>
+      <c r="F116" t="s">
+        <v>702</v>
+      </c>
+      <c r="G116" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117" t="s">
+        <v>594</v>
+      </c>
+      <c r="F117" t="s">
+        <v>703</v>
+      </c>
+      <c r="G117" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" t="s">
+        <v>419</v>
+      </c>
+      <c r="E118" t="s">
+        <v>595</v>
+      </c>
+      <c r="F118" t="s">
+        <v>693</v>
+      </c>
+      <c r="G118" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" t="s">
+        <v>420</v>
+      </c>
+      <c r="E119" t="s">
+        <v>596</v>
+      </c>
+      <c r="F119" t="s">
+        <v>682</v>
+      </c>
+      <c r="G119" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" t="s">
+        <v>597</v>
+      </c>
+      <c r="F120" t="s">
+        <v>670</v>
+      </c>
+      <c r="G120" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" t="s">
+        <v>422</v>
+      </c>
+      <c r="E121" t="s">
+        <v>598</v>
+      </c>
+      <c r="F121" t="s">
+        <v>704</v>
+      </c>
+      <c r="G121" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" t="s">
+        <v>580</v>
+      </c>
+      <c r="F122" t="s">
+        <v>669</v>
+      </c>
+      <c r="G122" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" t="s">
+        <v>599</v>
+      </c>
+      <c r="F123" t="s">
+        <v>689</v>
+      </c>
+      <c r="G123" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
+        <v>425</v>
+      </c>
+      <c r="E124" t="s">
+        <v>600</v>
+      </c>
+      <c r="F124" t="s">
+        <v>705</v>
+      </c>
+      <c r="G124" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" t="s">
+        <v>426</v>
+      </c>
+      <c r="E125" t="s">
+        <v>601</v>
+      </c>
+      <c r="F125" t="s">
+        <v>673</v>
+      </c>
+      <c r="G125" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" t="s">
+        <v>427</v>
+      </c>
+      <c r="E126" t="s">
+        <v>602</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" t="s">
+        <v>428</v>
+      </c>
+      <c r="E127" t="s">
+        <v>603</v>
+      </c>
+      <c r="F127" t="s">
+        <v>668</v>
+      </c>
+      <c r="G127" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" t="s">
+        <v>429</v>
+      </c>
+      <c r="E128" t="s">
+        <v>604</v>
+      </c>
+      <c r="F128" t="s">
+        <v>669</v>
+      </c>
+      <c r="G128" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>291</v>
+      </c>
+      <c r="D129" t="s">
+        <v>429</v>
+      </c>
+      <c r="E129" t="s">
+        <v>605</v>
+      </c>
+      <c r="F129" t="s">
+        <v>668</v>
+      </c>
+      <c r="G129" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>278</v>
+      </c>
+      <c r="D130" t="s">
+        <v>430</v>
+      </c>
+      <c r="E130" t="s">
+        <v>606</v>
+      </c>
+      <c r="F130" t="s">
+        <v>694</v>
+      </c>
+      <c r="G130" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" t="s">
+        <v>431</v>
+      </c>
+      <c r="E131" t="s">
+        <v>607</v>
+      </c>
+      <c r="F131" t="s">
+        <v>670</v>
+      </c>
+      <c r="G131" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" t="s">
+        <v>432</v>
+      </c>
+      <c r="E132" t="s">
+        <v>608</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>290</v>
+      </c>
+      <c r="D133" t="s">
+        <v>433</v>
+      </c>
+      <c r="E133" t="s">
+        <v>609</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" t="s">
+        <v>434</v>
+      </c>
+      <c r="E134" t="s">
+        <v>610</v>
+      </c>
+      <c r="F134" t="s">
+        <v>682</v>
+      </c>
+      <c r="G134" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" t="s">
+        <v>435</v>
+      </c>
+      <c r="E135" t="s">
+        <v>611</v>
+      </c>
+      <c r="F135" t="s">
+        <v>670</v>
+      </c>
+      <c r="G135" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" t="s">
+        <v>436</v>
+      </c>
+      <c r="E136" t="s">
+        <v>612</v>
+      </c>
+      <c r="F136" t="s">
+        <v>673</v>
+      </c>
+      <c r="G136" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>296</v>
+      </c>
+      <c r="D137" t="s">
+        <v>437</v>
+      </c>
+      <c r="E137" t="s">
+        <v>613</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" t="s">
+        <v>437</v>
+      </c>
+      <c r="E138" t="s">
+        <v>614</v>
+      </c>
+      <c r="F138" t="s">
+        <v>649</v>
+      </c>
+      <c r="G138" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" t="s">
+        <v>438</v>
+      </c>
+      <c r="E139" t="s">
+        <v>615</v>
+      </c>
+      <c r="F139" t="s">
+        <v>706</v>
+      </c>
+      <c r="G139" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>298</v>
+      </c>
+      <c r="D140" t="s">
+        <v>438</v>
+      </c>
+      <c r="E140" t="s">
+        <v>616</v>
+      </c>
+      <c r="F140" t="s">
+        <v>670</v>
+      </c>
+      <c r="G140" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E141" t="s">
+        <v>617</v>
+      </c>
+      <c r="F141" t="s">
+        <v>670</v>
+      </c>
+      <c r="G141" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>300</v>
+      </c>
+      <c r="D142" t="s">
+        <v>439</v>
+      </c>
+      <c r="E142" t="s">
+        <v>618</v>
+      </c>
+      <c r="F142" t="s">
+        <v>669</v>
+      </c>
+      <c r="G142" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" t="s">
+        <v>440</v>
+      </c>
+      <c r="E143" t="s">
+        <v>619</v>
+      </c>
+      <c r="F143" t="s">
+        <v>707</v>
+      </c>
+      <c r="G143" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>301</v>
+      </c>
+      <c r="D144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E144" t="s">
+        <v>620</v>
+      </c>
+      <c r="F144" t="s">
+        <v>681</v>
+      </c>
+      <c r="G144" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>287</v>
+      </c>
+      <c r="D145" t="s">
+        <v>441</v>
+      </c>
+      <c r="E145" t="s">
+        <v>621</v>
+      </c>
+      <c r="F145" t="s">
+        <v>669</v>
+      </c>
+      <c r="G145" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>302</v>
+      </c>
+      <c r="D146" t="s">
+        <v>442</v>
+      </c>
+      <c r="E146" t="s">
+        <v>622</v>
+      </c>
+      <c r="F146" t="s">
+        <v>670</v>
+      </c>
+      <c r="G146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>303</v>
+      </c>
+      <c r="D147" t="s">
+        <v>443</v>
+      </c>
+      <c r="E147" t="s">
+        <v>623</v>
+      </c>
+      <c r="F147" t="s">
+        <v>669</v>
+      </c>
+      <c r="G147" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>444</v>
+      </c>
+      <c r="E148" t="s">
+        <v>624</v>
+      </c>
+      <c r="F148" t="s">
+        <v>669</v>
+      </c>
+      <c r="G148" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>282</v>
+      </c>
+      <c r="D149" t="s">
+        <v>445</v>
+      </c>
+      <c r="E149" t="s">
+        <v>625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>708</v>
+      </c>
+      <c r="G149" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" t="s">
+        <v>626</v>
+      </c>
+      <c r="F150" t="s">
+        <v>669</v>
+      </c>
+      <c r="G150" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>263</v>
+      </c>
+      <c r="D151" t="s">
+        <v>446</v>
+      </c>
+      <c r="E151" t="s">
+        <v>627</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>305</v>
+      </c>
+      <c r="D152" t="s">
+        <v>447</v>
+      </c>
+      <c r="E152" t="s">
+        <v>628</v>
+      </c>
+      <c r="F152" t="s">
+        <v>709</v>
+      </c>
+      <c r="G152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>298</v>
+      </c>
+      <c r="D153" t="s">
+        <v>447</v>
+      </c>
+      <c r="E153" t="s">
+        <v>629</v>
+      </c>
+      <c r="F153" t="s">
+        <v>487</v>
+      </c>
+      <c r="G153" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>236</v>
+      </c>
+      <c r="D154" t="s">
+        <v>448</v>
+      </c>
+      <c r="E154" t="s">
+        <v>630</v>
+      </c>
+      <c r="F154" t="s">
+        <v>710</v>
+      </c>
+      <c r="G154" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>251</v>
+      </c>
+      <c r="D155" t="s">
+        <v>449</v>
+      </c>
+      <c r="E155" t="s">
+        <v>631</v>
+      </c>
+      <c r="F155" t="s">
+        <v>711</v>
+      </c>
+      <c r="G155" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" t="s">
+        <v>449</v>
+      </c>
+      <c r="E156" t="s">
+        <v>632</v>
+      </c>
+      <c r="F156" t="s">
+        <v>668</v>
+      </c>
+      <c r="G156" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" t="s">
+        <v>450</v>
+      </c>
+      <c r="E157" t="s">
+        <v>633</v>
+      </c>
+      <c r="F157" t="s">
+        <v>694</v>
+      </c>
+      <c r="G157" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
+        <v>306</v>
+      </c>
+      <c r="D158" t="s">
+        <v>451</v>
+      </c>
+      <c r="E158" t="s">
+        <v>634</v>
+      </c>
+      <c r="F158" t="s">
+        <v>703</v>
+      </c>
+      <c r="G158" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>307</v>
+      </c>
+      <c r="D159" t="s">
+        <v>452</v>
+      </c>
+      <c r="E159" t="s">
+        <v>635</v>
+      </c>
+      <c r="F159" t="s">
+        <v>712</v>
+      </c>
+      <c r="G159" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160" t="s">
+        <v>453</v>
+      </c>
+      <c r="E160" t="s">
+        <v>636</v>
+      </c>
+      <c r="F160" t="s">
+        <v>669</v>
+      </c>
+      <c r="G160" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>308</v>
+      </c>
+      <c r="D161" t="s">
+        <v>454</v>
+      </c>
+      <c r="E161" t="s">
+        <v>637</v>
+      </c>
+      <c r="F161" t="s">
+        <v>677</v>
+      </c>
+      <c r="G161" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>303</v>
+      </c>
+      <c r="D162" t="s">
+        <v>455</v>
+      </c>
+      <c r="E162" t="s">
+        <v>638</v>
+      </c>
+      <c r="F162" t="s">
+        <v>487</v>
+      </c>
+      <c r="G162" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" t="s">
+        <v>456</v>
+      </c>
+      <c r="E163" t="s">
+        <v>639</v>
+      </c>
+      <c r="F163" t="s">
+        <v>674</v>
+      </c>
+      <c r="G163" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>301</v>
+      </c>
+      <c r="D164" t="s">
+        <v>457</v>
+      </c>
+      <c r="E164" t="s">
+        <v>640</v>
+      </c>
+      <c r="F164" t="s">
+        <v>668</v>
+      </c>
+      <c r="G164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" t="s">
+        <v>457</v>
+      </c>
+      <c r="E165" t="s">
+        <v>641</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>458</v>
+      </c>
+      <c r="E166" t="s">
+        <v>642</v>
+      </c>
+      <c r="F166" t="s">
+        <v>713</v>
+      </c>
+      <c r="G166" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>310</v>
+      </c>
+      <c r="D167" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167" t="s">
+        <v>643</v>
+      </c>
+      <c r="F167" t="s">
+        <v>669</v>
+      </c>
+      <c r="G167" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168" t="s">
+        <v>311</v>
+      </c>
+      <c r="D168" t="s">
+        <v>460</v>
+      </c>
+      <c r="E168" t="s">
+        <v>644</v>
+      </c>
+      <c r="F168" t="s">
+        <v>714</v>
+      </c>
+      <c r="G168" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>461</v>
+      </c>
+      <c r="E169" t="s">
+        <v>645</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" t="s">
+        <v>312</v>
+      </c>
+      <c r="D170" t="s">
+        <v>462</v>
+      </c>
+      <c r="E170" t="s">
+        <v>646</v>
+      </c>
+      <c r="F170" t="s">
+        <v>707</v>
+      </c>
+      <c r="G170" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" t="s">
+        <v>463</v>
+      </c>
+      <c r="E171" t="s">
+        <v>647</v>
+      </c>
+      <c r="F171" t="s">
+        <v>715</v>
+      </c>
+      <c r="G171" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" t="s">
+        <v>464</v>
+      </c>
+      <c r="E172" t="s">
+        <v>648</v>
+      </c>
+      <c r="F172" t="s">
+        <v>716</v>
+      </c>
+      <c r="G172" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" t="s">
+        <v>269</v>
+      </c>
+      <c r="D173" t="s">
+        <v>465</v>
+      </c>
+      <c r="E173" t="s">
+        <v>649</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" t="s">
+        <v>466</v>
+      </c>
+      <c r="E174" t="s">
+        <v>650</v>
+      </c>
+      <c r="F174" t="s">
+        <v>670</v>
+      </c>
+      <c r="G174" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>280</v>
+      </c>
+      <c r="D175" t="s">
+        <v>467</v>
+      </c>
+      <c r="E175" t="s">
+        <v>651</v>
+      </c>
+      <c r="F175" t="s">
+        <v>670</v>
+      </c>
+      <c r="G175" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>314</v>
+      </c>
+      <c r="D176" t="s">
+        <v>468</v>
+      </c>
+      <c r="E176" t="s">
+        <v>652</v>
+      </c>
+      <c r="F176" t="s">
+        <v>684</v>
+      </c>
+      <c r="G176" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" t="s">
+        <v>289</v>
+      </c>
+      <c r="D177" t="s">
+        <v>469</v>
+      </c>
+      <c r="E177" t="s">
+        <v>653</v>
+      </c>
+      <c r="F177" t="s">
+        <v>714</v>
+      </c>
+      <c r="G177" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" t="s">
+        <v>315</v>
+      </c>
+      <c r="D178" t="s">
+        <v>470</v>
+      </c>
+      <c r="E178" t="s">
+        <v>654</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" t="s">
+        <v>220</v>
+      </c>
+      <c r="D179" t="s">
+        <v>471</v>
+      </c>
+      <c r="E179" t="s">
+        <v>655</v>
+      </c>
+      <c r="F179" t="s">
+        <v>717</v>
+      </c>
+      <c r="G179" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D180" t="s">
+        <v>472</v>
+      </c>
+      <c r="E180" t="s">
+        <v>656</v>
+      </c>
+      <c r="F180" t="s">
+        <v>669</v>
+      </c>
+      <c r="G180" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" t="s">
+        <v>316</v>
+      </c>
+      <c r="D181" t="s">
+        <v>473</v>
+      </c>
+      <c r="E181" t="s">
+        <v>657</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" t="s">
+        <v>277</v>
+      </c>
+      <c r="D182" t="s">
+        <v>473</v>
+      </c>
+      <c r="E182" t="s">
+        <v>658</v>
+      </c>
+      <c r="F182" t="s">
+        <v>669</v>
+      </c>
+      <c r="G182" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" t="s">
+        <v>303</v>
+      </c>
+      <c r="D183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E183" t="s">
+        <v>659</v>
+      </c>
+      <c r="F183" t="s">
+        <v>678</v>
+      </c>
+      <c r="G183" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184" t="s">
+        <v>316</v>
+      </c>
+      <c r="D184" t="s">
+        <v>474</v>
+      </c>
+      <c r="E184" t="s">
+        <v>660</v>
+      </c>
+      <c r="F184" t="s">
+        <v>694</v>
+      </c>
+      <c r="G184" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>317</v>
+      </c>
+      <c r="D185" t="s">
+        <v>475</v>
+      </c>
+      <c r="E185" t="s">
+        <v>661</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" t="s">
+        <v>476</v>
+      </c>
+      <c r="E186" t="s">
+        <v>662</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s">
+        <v>300</v>
+      </c>
+      <c r="D187" t="s">
+        <v>477</v>
+      </c>
+      <c r="E187" t="s">
+        <v>663</v>
+      </c>
+      <c r="F187" t="s">
+        <v>670</v>
+      </c>
+      <c r="G187" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188" t="s">
+        <v>298</v>
+      </c>
+      <c r="D188" t="s">
+        <v>477</v>
+      </c>
+      <c r="E188" t="s">
+        <v>664</v>
+      </c>
+      <c r="F188" t="s">
+        <v>669</v>
+      </c>
+      <c r="G188" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>312</v>
+      </c>
+      <c r="D189" t="s">
+        <v>478</v>
+      </c>
+      <c r="E189" t="s">
+        <v>665</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" t="s">
+        <v>312</v>
+      </c>
+      <c r="D190" t="s">
+        <v>479</v>
+      </c>
+      <c r="E190" t="s">
+        <v>666</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191" t="s">
+        <v>232</v>
+      </c>
+      <c r="D191" t="s">
+        <v>480</v>
+      </c>
+      <c r="E191" t="s">
+        <v>667</v>
+      </c>
+      <c r="F191" t="s">
+        <v>686</v>
+      </c>
+      <c r="G191" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/data/instiz_인티포털.xlsx
+++ b/data/instiz_인티포털.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="576">
   <si>
     <t>제목</t>
   </si>
@@ -34,6 +34,417 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>졸업안시켜준 교수 죽인 대학원생</t>
+  </si>
+  <si>
+    <t>배달음식에 이물질이 나왔을때 대처법.JPG</t>
+  </si>
+  <si>
+    <t>열라면 누가 맛있다 그랬니? .JPG</t>
+  </si>
+  <si>
+    <t>19세 이상만</t>
+  </si>
+  <si>
+    <t>노웨이홈 삼파이더맨 출연이 99퍼인 이유.jpg</t>
+  </si>
+  <si>
+    <t>위스키를 제대로 마시는법.gif</t>
+  </si>
+  <si>
+    <t>이름은 모르는데 익숙한 새 .jpg</t>
+  </si>
+  <si>
+    <t>스파이더맨 예고편에서 뭔가 이상한 MJ 구해주는 장면</t>
+  </si>
+  <si>
+    <t>노가다 아이스크림 심부름</t>
+  </si>
+  <si>
+    <t>여성의 생물학적 노산 기준 나이.jpg</t>
+  </si>
+  <si>
+    <t>3스파이더맨 확정짤(수정)</t>
+  </si>
+  <si>
+    <t>대한민국남자 평균 비주얼 가능하다vs어서오고</t>
+  </si>
+  <si>
+    <t>외국인들한테 인기 많은 한식.JPG</t>
+  </si>
+  <si>
+    <t>아파트 도서관에서 아이들 보며 4시간 바지 내린 '그놈'…징역 9개월 실형..</t>
+  </si>
+  <si>
+    <t>나쁜 묘사를 듣고 어떤 직업인지 맞추기.jpg</t>
+  </si>
+  <si>
+    <t>LG에서 출시한 역대급 매출이였다는 폰.JPG</t>
+  </si>
+  <si>
+    <t>2021 로스트메모리즈</t>
+  </si>
+  <si>
+    <t>카더가든이 재해석해서 부른 크라잉넛의 명동콜링</t>
+  </si>
+  <si>
+    <t>미국 3대 시상식 AMAs 시상식에서 BTS가 할 무대</t>
+  </si>
+  <si>
+    <t>생면부지 남성 가슴 만진 여성, '강제추행죄' 벌금 100만원</t>
+  </si>
+  <si>
+    <t>뭐 추억의 소드가 왔다고?</t>
+  </si>
+  <si>
+    <t>나가긴 귀찮고 주인은 반가운 댕댕</t>
+  </si>
+  <si>
+    <t>빠니보틀 : 곽튜브 성공의 1할은 내 덕이다</t>
+  </si>
+  <si>
+    <t>발렌시아가 행사에 참석한 한소희, 모니카, 더보이즈 주연</t>
+  </si>
+  <si>
+    <t>쓰니 기준 우리나라에서 화보 가장 잘찍는 남자배우</t>
+  </si>
+  <si>
+    <t>굴삭기 고인물</t>
+  </si>
+  <si>
+    <t>아이슬란드 파그라달스퍄들 화산폭발</t>
+  </si>
+  <si>
+    <t>귀여운 새끼멍뭉이</t>
+  </si>
+  <si>
+    <t>34살 먹고 첫 직장 생김...내 썰 좀 들어주라</t>
+  </si>
+  <si>
+    <t>무스펙 서울대생의 취업후기 및 준비과정</t>
+  </si>
+  <si>
+    <t>다이어트 위해 소식 시작한 매직박 오늘 점심 식단.jpg</t>
+  </si>
+  <si>
+    <t>영화 많이 본</t>
+  </si>
+  <si>
+    <t>가을,겨울에 흔히 볼 수있는 공대생 패션</t>
+  </si>
+  <si>
+    <t>야외야스로 몸살앓는 천혜의 경관....news</t>
+  </si>
+  <si>
+    <t>개발자인줄 알았던 내가 눈떠보니 디자이너.jpg</t>
+  </si>
+  <si>
+    <t>롤 중계할 때 클템어 해석ㅋㅋㅋ.jpg</t>
+  </si>
+  <si>
+    <t>옛날 메이플스토리 추억의 희귀템들 - 2</t>
+  </si>
+  <si>
+    <t>남편이 저 모르게 또 어린이집을 안보냈네요.jpgif</t>
+  </si>
+  <si>
+    <t>스파이더맨 예고 내려갔었던 이유.gif</t>
+  </si>
+  <si>
+    <t>연합뉴스 근황.jpg</t>
+  </si>
+  <si>
+    <t>요즘 해외 영화 수입 열심히 하는 소지섭</t>
+  </si>
+  <si>
+    <t>바람핀 친엄마 vs 새엄마</t>
+  </si>
+  <si>
+    <t>'무단 이탈→복귀'한 IBK 조송화</t>
+  </si>
+  <si>
+    <t>벌새를 닮은 귀여운 벌레</t>
+  </si>
+  <si>
+    <t>닥터 옥토퍼스는 머리가 띵했을듯</t>
+  </si>
+  <si>
+    <t>군대 선임이 비빔면 미지근하다고 다시 해오래.eta</t>
+  </si>
+  <si>
+    <t>전소민도 한수 접고 가는 민경훈 예능력</t>
+  </si>
+  <si>
+    <t>지능이 높을수록 성욕이 강하다.jpg</t>
+  </si>
+  <si>
+    <t>초봉 6500만원·휴가 기간 무제한…그래도 '노는 직원' 없는 비결</t>
+  </si>
+  <si>
+    <t>곧 룰루 0티어 만들어줄 픽스 버그</t>
+  </si>
+  <si>
+    <t>만델라 효과 모음.jpg</t>
+  </si>
+  <si>
+    <t>김재우 근황.jpg</t>
+  </si>
+  <si>
+    <t>프랑스 대박별 한국학&amp;한국어 전공 경쟁률 현황 ㄷㄷㄷ jpg</t>
+  </si>
+  <si>
+    <t>조용히 시장 평가가 올라가고 있는 1인</t>
+  </si>
+  <si>
+    <t>타짜의 야바위 기술을 일반인이 캐치 할 수 있을까???</t>
+  </si>
+  <si>
+    <t>유튜브에서 킬링타임용으로 역주행중인 애니.JPG</t>
+  </si>
+  <si>
+    <t>실시간 T1 상황</t>
+  </si>
+  <si>
+    <t>약쟁이 검거 완료</t>
+  </si>
+  <si>
+    <t>사람들이 은근 모르는 레드벨벳 명곡</t>
+  </si>
+  <si>
+    <t>데스노트가 디씨유저에게 갔다면</t>
+  </si>
+  <si>
+    <t>헌신짝돼서 차였는데 결혼한뒤 연락 온 전남친</t>
+  </si>
+  <si>
+    <t>여친이랑 모텔 옴</t>
+  </si>
+  <si>
+    <t>스파이더맨 노웨이홈 쿠키 유출 논란...jpg</t>
+  </si>
+  <si>
+    <t>현재 매탈남 유튜브 상황.JPG</t>
+  </si>
+  <si>
+    <t>[서울] 상습 체납자 만296명 공개...서울시 체납 1위는 중국인</t>
+  </si>
+  <si>
+    <t>일본 편의점 2년차 알바생 후기</t>
+  </si>
+  <si>
+    <t>일본에서 av배우 인식</t>
+  </si>
+  <si>
+    <t>탕수육 부먹</t>
+  </si>
+  <si>
+    <t>먹고싶은걸 먹으면 수명이 줄어드는 병...jpg</t>
+  </si>
+  <si>
+    <t>공대생이 체크남방만 입는다는 편견을 버려달라는 사람. jpg</t>
+  </si>
+  <si>
+    <t>집에서 나갈땐 다리가 6개인데, 돌아올땐 2개인 것은?</t>
+  </si>
+  <si>
+    <t>(혐오주의) 윤서인 "안중근은 대한민국 군인과 아무런 상관이 없다"</t>
+  </si>
+  <si>
+    <t>미친 다 어렵네</t>
+  </si>
+  <si>
+    <t>서장훈이 말하는 찐 남사친과 위장 남사친.jpg</t>
+  </si>
+  <si>
+    <t>과장이 지각한 신입을 불러 지적했는데</t>
+  </si>
+  <si>
+    <t>넥슨 최악의 업데이트 원탑은?.jpg</t>
+  </si>
+  <si>
+    <t>대기업 14년 후기.jpg</t>
+  </si>
+  <si>
+    <t>아기들을 버리고 가는 엄마.jpg</t>
+  </si>
+  <si>
+    <t>틴더 어플 쓴다고 온갖 악플 받은 여자유튜버.jpg</t>
+  </si>
+  <si>
+    <t>넷플릭스 지옥 imdb 평가.....jpg</t>
+  </si>
+  <si>
+    <t>요즘 청소년 희망직업 1위 공무원 아님</t>
+  </si>
+  <si>
+    <t>강아지 산책중 동네 다른 강아지 목줄이 풀려있어서 깜짝 놀랐는데</t>
+  </si>
+  <si>
+    <t>식물갤의 전투력 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>섹시한 톰포드 신제품.jpg</t>
+  </si>
+  <si>
+    <t>1억에 대한 인식</t>
+  </si>
+  <si>
+    <t>세상에서 가장 신기한 도형</t>
+  </si>
+  <si>
+    <t>'김종국 약물' 주장한 유튜버, 전과 기록</t>
+  </si>
+  <si>
+    <t>한때 유행하더니 요즘 아무도 안입는 옷</t>
+  </si>
+  <si>
+    <t>무도 장면중 너무 웃겼던 장면</t>
+  </si>
+  <si>
+    <t>여자친구가 순수아리아인 혈통.JPG</t>
+  </si>
+  <si>
+    <t>자위대 식사.jpg</t>
+  </si>
+  <si>
+    <t>中, 가상사설망(VPN) 단속 강화…역대 최고 강력 규제</t>
+  </si>
+  <si>
+    <t>서로 좋아하면 섹스하는 세상</t>
+  </si>
+  <si>
+    <t>다꾸는 코르셋+유아퇴행 하는 행위이다</t>
+  </si>
+  <si>
+    <t>식물갤의 품격</t>
+  </si>
+  <si>
+    <t>하성운 6번째 미니앨범 'Electrified : Urban Nostalg..</t>
+  </si>
+  <si>
+    <t>현재 논란중인 편의점 옷 안에 손 넣고 강제 추행 사건</t>
+  </si>
+  <si>
+    <t>[영화] 킹스맨 : 퍼스트 에이전트 국내 12월 22일 개봉 확정</t>
+  </si>
+  <si>
+    <t>킅갤) 창원 카페에 도란 출몰</t>
+  </si>
+  <si>
+    <t>기안84 동물학대 논란</t>
+  </si>
+  <si>
+    <t>일제시절 일본도 놀라게한 매국노</t>
+  </si>
+  <si>
+    <t>내일 수능 세상에서 가장 요란하게 보는 아이돌</t>
+  </si>
+  <si>
+    <t>연우 vs 조이 vs 쯔위.gif</t>
+  </si>
+  <si>
+    <t>메밀소바 먹다 죽을 뻔한 사람.jpg</t>
+  </si>
+  <si>
+    <t>평생 생선구이를 제공받을 수 있다면?</t>
+  </si>
+  <si>
+    <t>올리브영 핸드크림 판매순</t>
+  </si>
+  <si>
+    <t>90년대생 이상만 안다는 책</t>
+  </si>
+  <si>
+    <t>메이플스토리에서 가장 희귀하고 인기가 많은 데미지 스킨</t>
+  </si>
+  <si>
+    <t>요즘 학생들은 못 믿는 시간표</t>
+  </si>
+  <si>
+    <t>수능 앞두고 도시락 예행 연습중이신 수험생 어머님들.jpg</t>
+  </si>
+  <si>
+    <t>데뷔 첫 음방 1위 해냈다…원어스, '쇼! 챔피언' 정상 '눈물 소감'</t>
+  </si>
+  <si>
+    <t>여대생 두명 음주운전 ㅈ됐다</t>
+  </si>
+  <si>
+    <t>형 여기 남자 알바중 제일 잘생겼어요</t>
+  </si>
+  <si>
+    <t>10대들이 뽑은 호불호 음식 1위.jpg</t>
+  </si>
+  <si>
+    <t>한시간의 접전끝에</t>
+  </si>
+  <si>
+    <t>회사 구내식당에 제철 생선이 나온다길래 부리나케 갔더니</t>
+  </si>
+  <si>
+    <t>신혼부부 젓가락 방향 논란</t>
+  </si>
+  <si>
+    <t>아들 컴퓨터를 무참히 박살낸 디시인의 아버지</t>
+  </si>
+  <si>
+    <t>여자친구가 있는데 여사친 만나는거 오바임?</t>
+  </si>
+  <si>
+    <t>대학동기 손절한 이유</t>
+  </si>
+  <si>
+    <t>뚱냥이의 비애</t>
+  </si>
+  <si>
+    <t>요즘애들키가 네덜란드수준으로 큰 이유</t>
+  </si>
+  <si>
+    <t>다이어트 카페 아웃풋 투탑.jpg</t>
+  </si>
+  <si>
+    <t>2000년대 초반 인기 폭발이였던 소개팅 예능.JPG</t>
+  </si>
+  <si>
+    <t>서로 아싸화법 쓰는 레드벨벳 슬기 웬디.jpg</t>
+  </si>
+  <si>
+    <t>중학생들이 복도에서 담배피고 오줌까지 싸서 주의줬더니 다음날 식당에 벌어진..</t>
+  </si>
+  <si>
+    <t>전성기 시절 잘 나갔던 과자 원탑.JPG</t>
+  </si>
+  <si>
+    <t>투신하러 아파트 올라갔다더니..여고생 집 '주거 침입'</t>
+  </si>
+  <si>
+    <t>비주얼 살벌한 개구리 음식을 먹은 여돌의 반응.jpg</t>
+  </si>
+  <si>
+    <t>자담치킨4000원 할인받자!!</t>
+  </si>
+  <si>
+    <t>정준하가 말하는 무도 멤버들 예능 순위 (ft.찐경규)</t>
+  </si>
+  <si>
+    <t>팀장한테 퇴사권유받은 직원</t>
+  </si>
+  <si>
+    <t>겨울간식 칼로리</t>
+  </si>
+  <si>
+    <t>거대한 고양이</t>
+  </si>
+  <si>
+    <t>치즈케이크에 로고찍기</t>
+  </si>
+  <si>
+    <t>영화 흥행 후 판매량 70배 떡상했다는 앨범</t>
+  </si>
+  <si>
+    <t>경찰,'윤석열 처가 양평 공흥지구 특혜' 의혹 정식 수사 전환</t>
+  </si>
+  <si>
     <t>생일파티한 한소희 목걸이 귀걸이 브랜드.. 대박 예쁨</t>
   </si>
   <si>
@@ -52,9 +463,6 @@
     <t>황당해진 대만 상황</t>
   </si>
   <si>
-    <t>정상수에게 직접듣는 킬링벌스 소감 및 카운팅스타</t>
-  </si>
-  <si>
     <t>신서유기 연말굿즈.jpg</t>
   </si>
   <si>
@@ -73,7 +481,7 @@
     <t>레전드 충김볶 레시피에 이은 박나래 해장주스 레시피</t>
   </si>
   <si>
-    <t>[충격] 이재명 수행실장 한준호 前 아나 "영부인 출산해야 국격 높아져"...</t>
+    <t>[충격] 이재명 수행실장 한준호 前 아나 '영부인 출산 국격 여부' 논란 ..</t>
   </si>
   <si>
     <t>한국인으로 이루어진 남자아이돌 그룹</t>
@@ -82,15 +490,6 @@
     <t>판) 십몇년 전 입양보낸 아이를 찾는 것... 너무 이기적일까요</t>
   </si>
   <si>
-    <t>추억의 전략 시뮬레이션 게임.jpgif</t>
-  </si>
-  <si>
-    <t>그동안 자료 공개를 막는 협박에 시달렸다 박동희 대표 기자</t>
-  </si>
-  <si>
-    <t>이센스 인생곡</t>
-  </si>
-  <si>
     <t>라면의 면발이 노란색인 이유</t>
   </si>
   <si>
@@ -100,33 +499,15 @@
     <t>섹시를 잘못 이해하고 있는 남돌</t>
   </si>
   <si>
-    <t>윾쾌한 식당 아지매.jpg</t>
-  </si>
-  <si>
     <t>시대를 앞서갔던 20년전 게임</t>
   </si>
   <si>
     <t>사과티비 수위 ㄹㅇ 실화냐 ㄷㄷ...</t>
   </si>
   <si>
-    <t>지난주 구내식당 생선 메뉴</t>
-  </si>
-  <si>
-    <t>우동이 짜다</t>
-  </si>
-  <si>
     <t>난 이 음료수들 눈감고 마시면 다 구별 가능하다 vs 아니다</t>
   </si>
   <si>
-    <t>한문철아님) 형사전문변호사에게 보복운전한 운전자</t>
-  </si>
-  <si>
-    <t>신곡 낸 에이브릴 라빈</t>
-  </si>
-  <si>
-    <t>논두렁에 꼬라박는 오토바이.gif</t>
-  </si>
-  <si>
     <t>미국의 로켓 발사 기술 근황.gif</t>
   </si>
   <si>
@@ -136,27 +517,15 @@
     <t>어제 일어난 하이마트 돌진 사고 전말</t>
   </si>
   <si>
-    <t>[EP.13] 어제자 스테픈 커리.GIF</t>
-  </si>
-  <si>
-    <t>육룡이나르샤 - 척사광 윤랑 gif</t>
-  </si>
-  <si>
     <t>성과급, 인센티브 퇴직금 꿀팁</t>
   </si>
   <si>
-    <t>현실적인 캡틴 아메리카</t>
-  </si>
-  <si>
     <t>대면공연이 신기한 에스파 윈터</t>
   </si>
   <si>
     <t>청담역의 위엄.jpg</t>
   </si>
   <si>
-    <t>드라마 고독한미식가 스키야키 먹방</t>
-  </si>
-  <si>
     <t>피가 되고 살이 되는 현실 인생 팁</t>
   </si>
   <si>
@@ -178,9 +547,6 @@
     <t>사람들이 스파이더맨을 좋아하는 이유를 잘 보여준다는 영화 장면.jpg</t>
   </si>
   <si>
-    <t>한편의 수필같은 정상수 인생벌스</t>
-  </si>
-  <si>
     <t>19세기 러시아의 달 덕후 화가</t>
   </si>
   <si>
@@ -193,30 +559,15 @@
     <t>日 언론"오징어게임 방영된 모든 나라에서 대히트를 기록한 이유"일본 반응</t>
   </si>
   <si>
-    <t>노빠꾸 러시아 근황</t>
-  </si>
-  <si>
     <t>아빠한테 배틀넷 아이디 걸렸다 저런</t>
   </si>
   <si>
-    <t>요즘 머하나 궁금한 아티스트</t>
-  </si>
-  <si>
-    <t>몽골 최초 외교장관</t>
-  </si>
-  <si>
-    <t>'생수병 사건' 인사 불만 등으로 동료 3인 콕 집어 범행</t>
-  </si>
-  <si>
     <t>프로필 사진으로 리즈 찍은 뮤지컬 배우</t>
   </si>
   <si>
     <t>[속보] 정부 "30세 미만, 모더나 대신 화이자 코로나19 백신 권고”</t>
   </si>
   <si>
-    <t>요즘 유치원생 노래실력(이승철 - 잊었니 소향 ver)</t>
-  </si>
-  <si>
     <t>앙버터빵 급발진</t>
   </si>
   <si>
@@ -253,387 +604,300 @@
     <t>방탄소년단, 오늘 미국 출국…LA 콘서트→시상식서 팬들 만난다</t>
   </si>
   <si>
-    <t>'한겨레 광고 철회' 서울시, 올해 예정된 광고 0건</t>
-  </si>
-  <si>
-    <t>UAE "한국산 방공 미사일 '천궁' 구매 의향…4조원 규모”(종합)</t>
-  </si>
-  <si>
-    <t>2년만에 콘서트 &amp; 시상식으로 미국 가는 방탄소년단 공항사진</t>
-  </si>
-  <si>
-    <t>여친이 화장실갈때 노트북을 덮고 간 이유...jpg</t>
-  </si>
-  <si>
-    <t>올림픽 트젠선수 늘어날까…IOC "남성호르몬 수치 안 따지겠다"</t>
-  </si>
-  <si>
-    <t>의외로 운전중에 박으면 ㅈ 되는 것들</t>
-  </si>
-  <si>
-    <t>콜라로 만든 솜사탕</t>
-  </si>
-  <si>
-    <t>스파이더맨 노웨이홈 2차예고편</t>
-  </si>
-  <si>
-    <t>알고보면 정말 착한 친구들</t>
-  </si>
-  <si>
-    <t>대륙의 원룸청소</t>
-  </si>
-  <si>
-    <t>"적군이 병사들에게 6kg 단검을 보급하고있다고?"</t>
-  </si>
-  <si>
-    <t>서울 한번도 안 가봤는데 이렇게 생긴거 맞나요?</t>
-  </si>
-  <si>
-    <t>90년대 원탑 영화 여배우</t>
-  </si>
-  <si>
-    <t>넘어진 람보르기니</t>
-  </si>
-  <si>
-    <t>한류 때문에 생긴 편견</t>
-  </si>
-  <si>
-    <t>논란중이라는 초등학교 국어 문제.jpg</t>
-  </si>
-  <si>
-    <t>여자 키 146cm의 슬픔.jpg</t>
-  </si>
-  <si>
-    <t>박성웅, 유지태 피지컬.gif</t>
-  </si>
-  <si>
-    <t>비트코인으로 술사먹는 황현희</t>
-  </si>
-  <si>
-    <t>요즘 애들 월급별 자동차</t>
-  </si>
-  <si>
-    <t>배달 시켰는데 졸지에 저팔계 돼버림.jpg</t>
-  </si>
-  <si>
-    <t>국민 세금으로 조선족 이미지 인식 개선 시키는 나라</t>
-  </si>
-  <si>
-    <t>김옥빈 전남친 얘기 들은 신동엽의 반응 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>나이먹고 결혼식장 가면서 가장 변한것.txt</t>
-  </si>
-  <si>
-    <t>아빠의 만행에, 절규하는 딸</t>
-  </si>
-  <si>
-    <t>콩나물국밥집의 무료 애기밥...한국인의 정.jpg</t>
-  </si>
-  <si>
-    <t>영화 남한산성을 보고 어리둥절한 중국인들</t>
-  </si>
-  <si>
-    <t>"하데스! 어찌 생자들의 일에 나서는가?"</t>
-  </si>
-  <si>
-    <t>부스터샷 간격 3~4개월로 단축 검토…18일 계획 발표</t>
-  </si>
-  <si>
-    <t>'한국어 기원' 논문에 흥분한 中누리꾼들.."역시 우주의 중심은 중국"</t>
-  </si>
-  <si>
-    <t>오늘 우리팀 신입 지각했는데.blind</t>
-  </si>
-  <si>
-    <t>진짜 어린이들은 못 따라잡는다..내가 어쩔티비 하는동안..twt</t>
-  </si>
-  <si>
-    <t>실력파 보이밴드 원위, 신곡 '별' 개인 콘셉트 포토 공개</t>
-  </si>
-  <si>
-    <t>드라마 선덕여왕 세계관 최고의 천재 gif</t>
-  </si>
-  <si>
-    <t>한국 정부는 난민들이 못 견디고 떠나게 만들어요”</t>
-  </si>
-  <si>
-    <t>개그맨 황현희 근황..jpg</t>
-  </si>
-  <si>
-    <t>자신을 잡으러 출동한 형사와의 대화 .JPG</t>
-  </si>
-  <si>
-    <t>한국 런칭하는 고든램지 햄버거 실물</t>
-  </si>
-  <si>
-    <t>철인3종 국내 여성 1위</t>
-  </si>
-  <si>
-    <t>이번주 pd수첩 예고(feat 쿠펑)</t>
-  </si>
-  <si>
-    <t>이재영 그리스서 귀국…검진 후 왼쪽 무릎 수술·재활 예정.gisa</t>
-  </si>
-  <si>
-    <t>21세기 드라마라는게 믿기지 않는.. 일본 새드라마 (주연: 아라시 니노미..</t>
-  </si>
-  <si>
-    <t>염치없는친구 손절</t>
-  </si>
-  <si>
-    <t>스파이더맨 예고편에서 ptsd를 불러온 장면</t>
-  </si>
-  <si>
-    <t>다이아몬드 세척</t>
-  </si>
-  <si>
-    <t>흑화된 사회복지공무원</t>
-  </si>
-  <si>
-    <t>누나 둘 등쌀에 남매타투 맞춘 막내 남동생.jpg</t>
-  </si>
-  <si>
-    <t>테슬라 대량매도한 머스크, 샌더스 조롱하며"주식 더 팔까?"</t>
-  </si>
-  <si>
-    <t>무인카페서 담배 피우며 난장판으로 만들고 도망간 5명의 남성</t>
-  </si>
-  <si>
-    <t>엑스원 해체 당시 경력직 멤버들이 했던 생각들</t>
-  </si>
-  <si>
-    <t>mbti 신뢰도 증가</t>
-  </si>
-  <si>
-    <t>방탄소년단 오늘(17일) LA 출국, AMA 대상후보→스타디움 콘서트 개최..</t>
-  </si>
-  <si>
-    <t>술도녀 정은지&amp;한선화 길거리 싸움 씬 직캠</t>
-  </si>
-  <si>
-    <t>황순현 NC 전 대표이사"방역당국이 잘못했다고 생각"</t>
-  </si>
-  <si>
-    <t>로키야 머리에 김붙었다</t>
-  </si>
-  <si>
-    <t>서공예 만년 1등이였던 남돌이 추는 제시 'Cold Blooded'</t>
-  </si>
-  <si>
-    <t>어제자 확진자 수 3187명</t>
-  </si>
-  <si>
-    <t>연합뉴스, 네이버/다음카카오 뉴스란에서 퇴출... '언론 탄압인가'</t>
-  </si>
-  <si>
-    <t>경연이 아니라 공연을 하고 있는 어제자 풍류대장 역대급 무대들</t>
-  </si>
-  <si>
-    <t>알바한지 한 달 짼데 사장님이랑 첫 카톡</t>
-  </si>
-  <si>
-    <t>소갈비 버거.jpg</t>
-  </si>
-  <si>
-    <t>속보) 페이커 FA</t>
-  </si>
-  <si>
-    <t>내일 골때녀 결방</t>
-  </si>
-  <si>
-    <t>세서미 스트리트에 한국 캐릭터 추가</t>
-  </si>
-  <si>
-    <t>사과가 3개있는데 2개 더 사면 몇개임? .jpg</t>
-  </si>
-  <si>
-    <t>우리 엄마 특징.real</t>
-  </si>
-  <si>
-    <t>90년생은 공감하는 추억의 장난감.JPG</t>
-  </si>
-  <si>
-    <t>에이팩스 레전드 코스프레 한 디시인.jpg</t>
-  </si>
-  <si>
-    <t>26년만에 밝혀진 직장 상사의 정체.jpg</t>
-  </si>
-  <si>
-    <t>기안84가 말하는 최고의 컵라면.JPG</t>
-  </si>
-  <si>
-    <t>시험공부하는 공대생</t>
-  </si>
-  <si>
-    <t>"다 내쫓고 쑥대밭"…담배 나무라자 들이닥친 중학생들.news</t>
-  </si>
-  <si>
-    <t>공대생 부부의 솔루션.jpg</t>
-  </si>
-  <si>
-    <t>헬스장 민폐유형</t>
-  </si>
-  <si>
-    <t>일본의원룸</t>
-  </si>
-  <si>
-    <t>중국인에게 빌드업 시전.jpeg</t>
-  </si>
-  <si>
-    <t>SS501 노래중에 숨겨진 명곡.JPG</t>
-  </si>
-  <si>
-    <t>수능 당일 레전드 사진.JPG</t>
-  </si>
-  <si>
-    <t>뭔가 어색한 호크아이 드라마</t>
-  </si>
-  <si>
-    <t>혐주의) 홍대골목에서 발견된 저주인형</t>
-  </si>
-  <si>
-    <t>[단독] 엉덩이 살갗 까지고 3도 화상 신생아 울린 의료사고</t>
-  </si>
-  <si>
-    <t>내년 콩의 날.jpg</t>
-  </si>
-  <si>
-    <t>4수생 정준하가 알려주는 시험문제 찍기 팁.gif</t>
-  </si>
-  <si>
-    <t>최근 심각하다는 백신 부작용.JPG</t>
-  </si>
-  <si>
-    <t>진짜 당황스러운 세븐틴 팬덤 상태</t>
-  </si>
-  <si>
-    <t>???: 님 왤케 잘함?? 어디섭이에요?</t>
-  </si>
-  <si>
-    <t>서점에서 불법인데 의외로 많이하는거.JPG</t>
-  </si>
-  <si>
-    <t>[단독] '이건희 컬렉션' 작품에 의문의 서명.. 미술계 술렁</t>
-  </si>
-  <si>
-    <t>김동현이 공무원준비를 포기한 이유</t>
-  </si>
-  <si>
-    <t>임용준비생 눈물쏟은 사연</t>
-  </si>
-  <si>
-    <t>DRX 쏭 , 보리 FA</t>
-  </si>
-  <si>
-    <t>나 아이유로 자기세뇌 했는데 효과는 굉장해따ㅎ</t>
-  </si>
-  <si>
-    <t>악마의 탈을 쓴 부모</t>
-  </si>
-  <si>
-    <t>20대 여성은 청년 아닌듯…이·윤, 남성 표심잡기 매몰</t>
-  </si>
-  <si>
-    <t>교수님이 미소녀 목소리였으면 좋겠다는 대학생</t>
-  </si>
-  <si>
-    <t>유재석이 듣고 방송에서 개빡친 일화</t>
-  </si>
-  <si>
-    <t>회사가 너무 기계적이라 퇴사함.jpg</t>
-  </si>
-  <si>
-    <t>레전드 카톡 착각남.jpg</t>
-  </si>
-  <si>
-    <t>Post Malone and The Weeknd - One Right No..</t>
-  </si>
-  <si>
-    <t>켜진 컴퓨터의 램을 빼봤다.jpg</t>
-  </si>
-  <si>
-    <t>근래 본 여자아이돌 단발 투탑</t>
-  </si>
-  <si>
-    <t>10년도 더 전에 유행하고 요즘은 안보이는 하교 길거리 음식.jpg</t>
-  </si>
-  <si>
-    <t>화성인 바이러스 초딩남 근황</t>
-  </si>
-  <si>
-    <t>상큼하게 무대하는 핑크악동 트와이스.jpgif</t>
-  </si>
-  <si>
-    <t>현재 서울 서초구 근황</t>
-  </si>
-  <si>
-    <t>스파이더맨 노웨이홈 포스터</t>
-  </si>
-  <si>
-    <t>골병들거같은 놀이기구</t>
-  </si>
-  <si>
-    <t>남자가 남자번호 땀</t>
-  </si>
-  <si>
-    <t>외국인들이 놀라는 k양심 실험.JPG</t>
-  </si>
-  <si>
-    <t>음식 그릇 이렇게 내놨다고 배달기사랑 싸움.JPG</t>
-  </si>
-  <si>
-    <t>2000년대 중반 숨겨진 발라드 명곡.JPG</t>
-  </si>
-  <si>
-    <t>주방 자동화 .gif</t>
-  </si>
-  <si>
-    <t>오징어 게임의 세계적인 인기... 그리고 넷플릭스와 우리나라 방송사의 차이..</t>
-  </si>
-  <si>
-    <t>60m 높이에서 멈춘 롤러코스터</t>
-  </si>
-  <si>
-    <t>PC요소가 추가된 와우 근황</t>
-  </si>
-  <si>
-    <t>작가가 잡아준 컨셉을 활용 못하는 배우들...jpg</t>
-  </si>
-  <si>
-    <t>사장이 주문 취소해서 화난 사람.JPG</t>
+    <t>남준이는왜이</t>
+  </si>
+  <si>
+    <t>♡김태형♡</t>
+  </si>
+  <si>
+    <t>Wannable(워너</t>
+  </si>
+  <si>
+    <t>방탄소년단★</t>
+  </si>
+  <si>
+    <t>뇌잘린</t>
+  </si>
+  <si>
+    <t>임팩트FBI</t>
+  </si>
+  <si>
+    <t>Jeddd</t>
+  </si>
+  <si>
+    <t>시어머니블루</t>
+  </si>
+  <si>
+    <t>오징어게임 일</t>
+  </si>
+  <si>
+    <t>멍ㅇ멍이 소리</t>
+  </si>
+  <si>
+    <t>비비의주인</t>
+  </si>
+  <si>
+    <t>無地태</t>
+  </si>
+  <si>
+    <t>김낑깡</t>
+  </si>
+  <si>
+    <t>옹뇸뇸뇸</t>
+  </si>
+  <si>
+    <t>싯떼루네`ワ</t>
+  </si>
+  <si>
+    <t>Vitro</t>
+  </si>
+  <si>
+    <t>행복한왕만두</t>
+  </si>
+  <si>
+    <t>용시대박</t>
+  </si>
+  <si>
+    <t>세븐틴 원 +</t>
+  </si>
+  <si>
+    <t>데이비드썸원</t>
+  </si>
+  <si>
+    <t>헤에에이~</t>
+  </si>
+  <si>
+    <t>지수</t>
+  </si>
+  <si>
+    <t>Busu031</t>
+  </si>
+  <si>
+    <t>한 편의 너</t>
+  </si>
+  <si>
+    <t>에자키카루</t>
+  </si>
+  <si>
+    <t>아야나미</t>
+  </si>
+  <si>
+    <t>다시 태어날</t>
+  </si>
+  <si>
+    <t>에자키히카루</t>
+  </si>
+  <si>
+    <t>언행일치</t>
+  </si>
+  <si>
+    <t>세정언니링</t>
+  </si>
+  <si>
+    <t>토끼네</t>
+  </si>
+  <si>
+    <t>따온</t>
+  </si>
+  <si>
+    <t>'''</t>
+  </si>
+  <si>
+    <t>그녀의이름은</t>
+  </si>
+  <si>
+    <t>세상에 잘생긴</t>
+  </si>
+  <si>
+    <t>송희진</t>
+  </si>
+  <si>
+    <t>청량섹시 김태</t>
+  </si>
+  <si>
+    <t>김상연</t>
+  </si>
+  <si>
+    <t>311869_return</t>
+  </si>
+  <si>
+    <t>위례신다도시</t>
+  </si>
+  <si>
+    <t>원 + 원</t>
+  </si>
+  <si>
+    <t>펄스</t>
+  </si>
+  <si>
+    <t>알케이</t>
+  </si>
+  <si>
+    <t>널 사랑해 영</t>
+  </si>
+  <si>
+    <t>WANNA ONE 하</t>
+  </si>
+  <si>
+    <t>ㄷH학수학능력</t>
+  </si>
+  <si>
+    <t>311342_return</t>
+  </si>
+  <si>
+    <t>까까까</t>
+  </si>
+  <si>
+    <t>게임을시작하</t>
   </si>
   <si>
     <t>누눈나난</t>
   </si>
   <si>
+    <t>디귿</t>
+  </si>
+  <si>
+    <t>키토제닉</t>
+  </si>
+  <si>
+    <t>qksxks ghtjr</t>
+  </si>
+  <si>
+    <t>미니온즈</t>
+  </si>
+  <si>
+    <t>다니엘_린데</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>션국이네 메르</t>
+  </si>
+  <si>
+    <t>천러러러</t>
+  </si>
+  <si>
+    <t>윤정한 아내</t>
+  </si>
+  <si>
+    <t>캐리와 장난감</t>
+  </si>
+  <si>
+    <t>S.COUPS.</t>
+  </si>
+  <si>
+    <t>해르반창식</t>
+  </si>
+  <si>
+    <t>방탄전용날개</t>
+  </si>
+  <si>
+    <t>영은수</t>
+  </si>
+  <si>
+    <t>할리뱅입니더</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>더보이즈 상</t>
+  </si>
+  <si>
+    <t>몹시호시</t>
+  </si>
+  <si>
+    <t>JOSHUA95</t>
+  </si>
+  <si>
+    <t>꿍치따치</t>
+  </si>
+  <si>
+    <t>보이프렌드 민</t>
+  </si>
+  <si>
+    <t>던던둔둔</t>
+  </si>
+  <si>
+    <t>깐부</t>
+  </si>
+  <si>
+    <t>성우야♡</t>
+  </si>
+  <si>
+    <t>이진기(30)</t>
+  </si>
+  <si>
+    <t>베리베리 연</t>
+  </si>
+  <si>
+    <t>더보이즈 김영</t>
+  </si>
+  <si>
+    <t>세기말</t>
+  </si>
+  <si>
+    <t>Side to Side</t>
+  </si>
+  <si>
+    <t>307559_return</t>
+  </si>
+  <si>
+    <t>solio</t>
+  </si>
+  <si>
+    <t>맠맠잉</t>
+  </si>
+  <si>
+    <t>이리저리요리</t>
+  </si>
+  <si>
+    <t>bongsunha22</t>
+  </si>
+  <si>
+    <t>마카롱꿀떡</t>
+  </si>
+  <si>
+    <t>유기현 (25)</t>
+  </si>
+  <si>
+    <t>백챠</t>
+  </si>
+  <si>
+    <t>사랑을먹고자</t>
+  </si>
+  <si>
+    <t>별빛쏟아지는</t>
+  </si>
+  <si>
+    <t>슈슈슈슈슈슈</t>
+  </si>
+  <si>
+    <t>kang7561</t>
+  </si>
+  <si>
+    <t>스트로베리문</t>
+  </si>
+  <si>
+    <t>태 리</t>
+  </si>
+  <si>
+    <t>토토얌</t>
+  </si>
+  <si>
     <t>MANSAE</t>
   </si>
   <si>
     <t>버가버가뷰</t>
   </si>
   <si>
-    <t>윤정한 아내</t>
-  </si>
-  <si>
-    <t>몹시호시</t>
-  </si>
-  <si>
-    <t>알케이</t>
-  </si>
-  <si>
-    <t>큐랑둥이</t>
-  </si>
-  <si>
     <t>Twenty_Four</t>
   </si>
   <si>
     <t>~~</t>
   </si>
   <si>
-    <t>션국이네 메르</t>
-  </si>
-  <si>
     <t>나천재</t>
   </si>
   <si>
@@ -649,60 +913,21 @@
     <t>겟</t>
   </si>
   <si>
-    <t>김용국 아내</t>
-  </si>
-  <si>
-    <t>사랑을먹고자</t>
-  </si>
-  <si>
-    <t>토끼네</t>
-  </si>
-  <si>
     <t>세븐틴 비니</t>
   </si>
   <si>
     <t>몽몽댕</t>
   </si>
   <si>
-    <t>류준열 강다니</t>
-  </si>
-  <si>
     <t>sweetly</t>
   </si>
   <si>
-    <t>초코틴틴세븐</t>
-  </si>
-  <si>
-    <t>다시 태어날</t>
-  </si>
-  <si>
-    <t>김상연</t>
-  </si>
-  <si>
-    <t>패딩조끼</t>
-  </si>
-  <si>
-    <t>She</t>
-  </si>
-  <si>
-    <t>데이비드썸원</t>
-  </si>
-  <si>
-    <t>더보이즈 상</t>
-  </si>
-  <si>
     <t>즐겨즐겨</t>
   </si>
   <si>
     <t>벤츄리</t>
   </si>
   <si>
-    <t>김규년</t>
-  </si>
-  <si>
-    <t>Vitro</t>
-  </si>
-  <si>
     <t>오이카와 토비</t>
   </si>
   <si>
@@ -712,9 +937,6 @@
     <t>BGRU</t>
   </si>
   <si>
-    <t>천러러러</t>
-  </si>
-  <si>
     <t>쿵쾅맨</t>
   </si>
   <si>
@@ -724,1477 +946,802 @@
     <t>아이디할게너</t>
   </si>
   <si>
-    <t>송희진</t>
-  </si>
-  <si>
-    <t>용시대박</t>
-  </si>
-  <si>
     <t>윤세원</t>
   </si>
   <si>
     <t>김성규내꺼`ワ</t>
   </si>
   <si>
+    <t>멍멍개</t>
+  </si>
+  <si>
+    <t>소고기 육전</t>
+  </si>
+  <si>
+    <t>사라나</t>
+  </si>
+  <si>
+    <t>닐라닐라</t>
+  </si>
+  <si>
+    <t>초코B</t>
+  </si>
+  <si>
     <t>djekxn</t>
   </si>
   <si>
-    <t>할리뱅입니더</t>
-  </si>
-  <si>
-    <t>'''</t>
-  </si>
-  <si>
-    <t>맠맠잉</t>
-  </si>
-  <si>
-    <t>멍멍개</t>
-  </si>
-  <si>
-    <t>소고기 육전</t>
-  </si>
-  <si>
-    <t>無地태</t>
-  </si>
-  <si>
-    <t>사라나</t>
-  </si>
-  <si>
-    <t>solio</t>
-  </si>
-  <si>
-    <t>널 사랑해 영</t>
-  </si>
-  <si>
-    <t>닐라닐라</t>
-  </si>
-  <si>
-    <t>초코B</t>
-  </si>
-  <si>
-    <t>아야나미</t>
-  </si>
-  <si>
-    <t>유기현 (25)</t>
-  </si>
-  <si>
-    <t>행복한왕만두</t>
-  </si>
-  <si>
-    <t>바닐라코</t>
-  </si>
-  <si>
-    <t>토토얌</t>
-  </si>
-  <si>
-    <t>슈슈슈슈슈슈</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>방탄전용날개</t>
-  </si>
-  <si>
-    <t>오징어게임 일</t>
-  </si>
-  <si>
-    <t>쌈자리즈</t>
-  </si>
-  <si>
-    <t>영국닭집</t>
-  </si>
-  <si>
-    <t>Side to Side</t>
-  </si>
-  <si>
-    <t>남준이는왜이</t>
-  </si>
-  <si>
-    <t>오동잎한잎</t>
-  </si>
-  <si>
-    <t>307559_return</t>
-  </si>
-  <si>
-    <t>풀썬이동혁</t>
-  </si>
-  <si>
-    <t>헤에에이~</t>
-  </si>
-  <si>
-    <t>게임을시작하</t>
-  </si>
-  <si>
-    <t>NCT 지 성</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>던던둔둔</t>
-  </si>
-  <si>
-    <t>wjjdkkdkrk</t>
-  </si>
-  <si>
-    <t>푸른미소</t>
-  </si>
-  <si>
-    <t>어니부깅</t>
-  </si>
-  <si>
-    <t>세븐틴 원 +</t>
-  </si>
-  <si>
-    <t>참섭</t>
-  </si>
-  <si>
-    <t>이리저리요리</t>
-  </si>
-  <si>
-    <t>키토제닉</t>
-  </si>
-  <si>
-    <t>311342_return</t>
-  </si>
-  <si>
-    <t>에어리어 스타</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t>쇼콘!23</t>
-  </si>
-  <si>
-    <t>311869_return</t>
-  </si>
-  <si>
-    <t>임팩트FBI</t>
-  </si>
-  <si>
-    <t>Wannable(워너</t>
-  </si>
-  <si>
-    <t>다시한번말씀</t>
-  </si>
-  <si>
-    <t>거미의해안</t>
-  </si>
-  <si>
-    <t>JOSHUA95</t>
-  </si>
-  <si>
-    <t>바보같은그대</t>
-  </si>
-  <si>
-    <t>이진기(30)</t>
-  </si>
-  <si>
-    <t>11541</t>
-  </si>
-  <si>
-    <t>더보이즈 이주</t>
-  </si>
-  <si>
-    <t>보라차라떼</t>
-  </si>
-  <si>
-    <t>보이프렌드 민</t>
-  </si>
-  <si>
-    <t>.서로가 서로</t>
-  </si>
-  <si>
-    <t>뇌잘린</t>
-  </si>
-  <si>
-    <t>남준선배</t>
-  </si>
-  <si>
-    <t>한 편의 너</t>
-  </si>
-  <si>
-    <t>더보이즈 김영</t>
-  </si>
-  <si>
-    <t>호롤로롤롤</t>
-  </si>
-  <si>
-    <t>우물밖 여고</t>
-  </si>
-  <si>
-    <t>218023_return</t>
-  </si>
-  <si>
-    <t>마유</t>
-  </si>
-  <si>
-    <t>에자키카루</t>
-  </si>
-  <si>
-    <t>위례신다도시</t>
-  </si>
-  <si>
-    <t>신짱구,</t>
-  </si>
-  <si>
-    <t>950107</t>
-  </si>
-  <si>
-    <t>WANNA ONE 하</t>
-  </si>
-  <si>
-    <t>싯떼루네`ワ</t>
-  </si>
-  <si>
-    <t>자두야♡♡</t>
-  </si>
-  <si>
-    <t>비비의주인</t>
-  </si>
-  <si>
-    <t>최민호(26)</t>
-  </si>
-  <si>
-    <t>에자키히카루</t>
-  </si>
-  <si>
-    <t>최승처</t>
-  </si>
-  <si>
-    <t>몹시섹시</t>
-  </si>
-  <si>
-    <t>배진영(a.k.a발</t>
-  </si>
-  <si>
-    <t>17:59</t>
-  </si>
-  <si>
-    <t>17:56</t>
-  </si>
-  <si>
-    <t>17:55</t>
-  </si>
-  <si>
-    <t>17:51</t>
-  </si>
-  <si>
-    <t>17:48</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>17:41</t>
-  </si>
-  <si>
-    <t>17:31</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>17:29</t>
-  </si>
-  <si>
-    <t>17:25</t>
-  </si>
-  <si>
-    <t>17:22</t>
-  </si>
-  <si>
-    <t>17:19</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>17:14</t>
-  </si>
-  <si>
-    <t>17:11</t>
-  </si>
-  <si>
-    <t>17:08</t>
-  </si>
-  <si>
-    <t>17:06</t>
-  </si>
-  <si>
-    <t>17:04</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>16:58</t>
-  </si>
-  <si>
-    <t>16:56</t>
-  </si>
-  <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>16:47</t>
-  </si>
-  <si>
-    <t>16:43</t>
-  </si>
-  <si>
-    <t>16:41</t>
-  </si>
-  <si>
-    <t>16:34</t>
-  </si>
-  <si>
-    <t>16:31</t>
-  </si>
-  <si>
-    <t>16:28</t>
-  </si>
-  <si>
-    <t>16:24</t>
-  </si>
-  <si>
-    <t>16:23</t>
-  </si>
-  <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t>16:18</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>16:13</t>
-  </si>
-  <si>
-    <t>16:08</t>
-  </si>
-  <si>
-    <t>16:06</t>
-  </si>
-  <si>
-    <t>15:59</t>
-  </si>
-  <si>
-    <t>15:54</t>
-  </si>
-  <si>
-    <t>15:53</t>
-  </si>
-  <si>
-    <t>15:47</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>15:44</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>15:39</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>15:23</t>
-  </si>
-  <si>
-    <t>15:20</t>
-  </si>
-  <si>
-    <t>15:17</t>
-  </si>
-  <si>
-    <t>15:13</t>
-  </si>
-  <si>
-    <t>15:12</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>15:08</t>
-  </si>
-  <si>
-    <t>15:04</t>
-  </si>
-  <si>
-    <t>15:02</t>
-  </si>
-  <si>
-    <t>14:57</t>
-  </si>
-  <si>
-    <t>14:55</t>
-  </si>
-  <si>
-    <t>14:53</t>
-  </si>
-  <si>
-    <t>14:44</t>
-  </si>
-  <si>
-    <t>14:42</t>
-  </si>
-  <si>
-    <t>14:36</t>
-  </si>
-  <si>
-    <t>14:34</t>
-  </si>
-  <si>
-    <t>14:28</t>
-  </si>
-  <si>
-    <t>14:19</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>14:09</t>
-  </si>
-  <si>
-    <t>14:07</t>
-  </si>
-  <si>
-    <t>14:06</t>
-  </si>
-  <si>
-    <t>14:03</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>13:59</t>
-  </si>
-  <si>
-    <t>13:53</t>
-  </si>
-  <si>
-    <t>13:52</t>
-  </si>
-  <si>
-    <t>13:47</t>
-  </si>
-  <si>
-    <t>13:44</t>
-  </si>
-  <si>
-    <t>13:43</t>
-  </si>
-  <si>
-    <t>13:39</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>13:23</t>
-  </si>
-  <si>
-    <t>13:22</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>13:03</t>
-  </si>
-  <si>
-    <t>12:48</t>
-  </si>
-  <si>
-    <t>12:47</t>
-  </si>
-  <si>
-    <t>12:40</t>
-  </si>
-  <si>
-    <t>12:36</t>
-  </si>
-  <si>
-    <t>12:33</t>
-  </si>
-  <si>
-    <t>12:32</t>
-  </si>
-  <si>
-    <t>12:31</t>
-  </si>
-  <si>
-    <t>12:28</t>
-  </si>
-  <si>
-    <t>12:27</t>
-  </si>
-  <si>
-    <t>12:12</t>
-  </si>
-  <si>
-    <t>12:07</t>
-  </si>
-  <si>
-    <t>12:06</t>
-  </si>
-  <si>
-    <t>12:02</t>
-  </si>
-  <si>
-    <t>11:59</t>
-  </si>
-  <si>
-    <t>11:58</t>
-  </si>
-  <si>
-    <t>11:48</t>
-  </si>
-  <si>
-    <t>11:36</t>
-  </si>
-  <si>
-    <t>11:33</t>
-  </si>
-  <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>11:22</t>
-  </si>
-  <si>
-    <t>11:21</t>
-  </si>
-  <si>
-    <t>11:17</t>
-  </si>
-  <si>
-    <t>11:16</t>
-  </si>
-  <si>
-    <t>11:09</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>10:51</t>
-  </si>
-  <si>
-    <t>10:49</t>
-  </si>
-  <si>
-    <t>10:48</t>
-  </si>
-  <si>
-    <t>10:47</t>
-  </si>
-  <si>
-    <t>10:28</t>
-  </si>
-  <si>
-    <t>10:23</t>
-  </si>
-  <si>
-    <t>10:21</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>10:09</t>
-  </si>
-  <si>
-    <t>10:05</t>
-  </si>
-  <si>
-    <t>9:59</t>
-  </si>
-  <si>
-    <t>9:58</t>
-  </si>
-  <si>
-    <t>9:45</t>
-  </si>
-  <si>
-    <t>9:39</t>
-  </si>
-  <si>
-    <t>9:36</t>
-  </si>
-  <si>
-    <t>9:26</t>
-  </si>
-  <si>
-    <t>9:24</t>
-  </si>
-  <si>
-    <t>9:13</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>8:58</t>
-  </si>
-  <si>
-    <t>8:57</t>
-  </si>
-  <si>
-    <t>8:47</t>
-  </si>
-  <si>
-    <t>8:34</t>
-  </si>
-  <si>
-    <t>8:25</t>
-  </si>
-  <si>
-    <t>8:15</t>
-  </si>
-  <si>
-    <t>8:13</t>
-  </si>
-  <si>
-    <t>8:02</t>
-  </si>
-  <si>
-    <t>7:31</t>
-  </si>
-  <si>
-    <t>7:26</t>
-  </si>
-  <si>
-    <t>7:25</t>
-  </si>
-  <si>
-    <t>7:16</t>
-  </si>
-  <si>
-    <t>7:03</t>
-  </si>
-  <si>
-    <t>6:49</t>
-  </si>
-  <si>
-    <t>6:44</t>
-  </si>
-  <si>
-    <t>6:32</t>
-  </si>
-  <si>
-    <t>6:00</t>
-  </si>
-  <si>
-    <t>5:58</t>
-  </si>
-  <si>
-    <t>5:56</t>
-  </si>
-  <si>
-    <t>5:55</t>
-  </si>
-  <si>
-    <t>5:54</t>
-  </si>
-  <si>
-    <t>5:26</t>
-  </si>
-  <si>
-    <t>4:27</t>
-  </si>
-  <si>
-    <t>4:25</t>
-  </si>
-  <si>
-    <t>4:24</t>
-  </si>
-  <si>
-    <t>4:23</t>
-  </si>
-  <si>
-    <t>4:16</t>
-  </si>
-  <si>
-    <t>4:15</t>
-  </si>
-  <si>
-    <t>4:01</t>
-  </si>
-  <si>
-    <t>3:55</t>
-  </si>
-  <si>
-    <t>3:54</t>
-  </si>
-  <si>
-    <t>3:47</t>
-  </si>
-  <si>
-    <t>3:42</t>
-  </si>
-  <si>
-    <t>3:40</t>
-  </si>
-  <si>
-    <t>2:54</t>
-  </si>
-  <si>
-    <t>2:53</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>952</t>
+    <t>2021.11.18 01:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:04</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 00:08</t>
+  </si>
+  <si>
+    <t>2021.11.17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>3959</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>3559</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>2446</t>
+  </si>
+  <si>
+    <t>5872</t>
+  </si>
+  <si>
+    <t>7107</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>7303</t>
+  </si>
+  <si>
+    <t>9584</t>
+  </si>
+  <si>
+    <t>4637</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>2855</t>
+  </si>
+  <si>
+    <t>2691</t>
+  </si>
+  <si>
+    <t>11188</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>6668</t>
+  </si>
+  <si>
+    <t>5289</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>3431</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>3667</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>11649</t>
+  </si>
+  <si>
+    <t>15489</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>2438</t>
+  </si>
+  <si>
+    <t>12186</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>15038</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>17260</t>
+  </si>
+  <si>
+    <t>13335</t>
+  </si>
+  <si>
+    <t>2870</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>8201</t>
+  </si>
+  <si>
+    <t>15507</t>
+  </si>
+  <si>
+    <t>12642</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>17534</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>2521</t>
+  </si>
+  <si>
+    <t>25176</t>
+  </si>
+  <si>
+    <t>7662</t>
+  </si>
+  <si>
+    <t>15261</t>
+  </si>
+  <si>
+    <t>7390</t>
+  </si>
+  <si>
+    <t>27513</t>
+  </si>
+  <si>
+    <t>10580</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>5740</t>
+  </si>
+  <si>
+    <t>4167</t>
+  </si>
+  <si>
+    <t>25666</t>
+  </si>
+  <si>
+    <t>43956</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>35715</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>6618</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>4362</t>
+  </si>
+  <si>
+    <t>43733</t>
+  </si>
+  <si>
+    <t>14549</t>
+  </si>
+  <si>
+    <t>26889</t>
+  </si>
+  <si>
+    <t>2492</t>
+  </si>
+  <si>
+    <t>2692</t>
+  </si>
+  <si>
+    <t>3302</t>
+  </si>
+  <si>
+    <t>53948</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>4824</t>
+  </si>
+  <si>
+    <t>33754</t>
+  </si>
+  <si>
+    <t>17335</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>58945</t>
+  </si>
+  <si>
+    <t>3514</t>
+  </si>
+  <si>
+    <t>42999</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>21238</t>
+  </si>
+  <si>
+    <t>59973</t>
+  </si>
+  <si>
+    <t>9033</t>
+  </si>
+  <si>
+    <t>5263</t>
+  </si>
+  <si>
+    <t>4072</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>4862</t>
+  </si>
+  <si>
+    <t>41264</t>
+  </si>
+  <si>
+    <t>9049</t>
+  </si>
+  <si>
+    <t>28545</t>
+  </si>
+  <si>
+    <t>9588</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3640</t>
+  </si>
+  <si>
+    <t>3577</t>
+  </si>
+  <si>
+    <t>2195</t>
+  </si>
+  <si>
+    <t>2570</t>
+  </si>
+  <si>
+    <t>25706</t>
+  </si>
+  <si>
+    <t>4351</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>19777</t>
+  </si>
+  <si>
+    <t>29756</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>37150</t>
+  </si>
+  <si>
+    <t>4850</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>11647</t>
+  </si>
+  <si>
+    <t>9986</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>10505</t>
+  </si>
+  <si>
+    <t>4435</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>4154</t>
+  </si>
+  <si>
+    <t>6535</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>18595</t>
+  </si>
+  <si>
+    <t>9137</t>
+  </si>
+  <si>
+    <t>11756</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>52531</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>26730</t>
+  </si>
+  <si>
+    <t>4340</t>
+  </si>
+  <si>
+    <t>32426</t>
+  </si>
+  <si>
+    <t>14240</t>
+  </si>
+  <si>
+    <t>44826</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>19113</t>
+  </si>
+  <si>
+    <t>11803</t>
+  </si>
+  <si>
+    <t>5181</t>
+  </si>
+  <si>
+    <t>16431</t>
+  </si>
+  <si>
+    <t>8136</t>
+  </si>
+  <si>
+    <t>8103</t>
+  </si>
+  <si>
+    <t>3968</t>
+  </si>
+  <si>
+    <t>14225</t>
+  </si>
+  <si>
+    <t>16657</t>
+  </si>
+  <si>
+    <t>3593</t>
+  </si>
+  <si>
+    <t>9619</t>
+  </si>
+  <si>
+    <t>91213</t>
+  </si>
+  <si>
+    <t>30068</t>
+  </si>
+  <si>
+    <t>22190</t>
+  </si>
+  <si>
+    <t>54818</t>
+  </si>
+  <si>
+    <t>83783</t>
+  </si>
+  <si>
+    <t>4419</t>
+  </si>
+  <si>
+    <t>20222</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>35177</t>
+  </si>
+  <si>
+    <t>4014</t>
+  </si>
+  <si>
+    <t>12932</t>
+  </si>
+  <si>
+    <t>13238</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>2671</t>
-  </si>
-  <si>
-    <t>3379</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>6283</t>
-  </si>
-  <si>
-    <t>1165</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>5299</t>
-  </si>
-  <si>
-    <t>5520</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>2089</t>
-  </si>
-  <si>
-    <t>2720</t>
-  </si>
-  <si>
-    <t>14658</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>4536</t>
-  </si>
-  <si>
-    <t>13048</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>3731</t>
-  </si>
-  <si>
-    <t>3073</t>
-  </si>
-  <si>
-    <t>16093</t>
-  </si>
-  <si>
-    <t>10275</t>
-  </si>
-  <si>
-    <t>1861</t>
-  </si>
-  <si>
-    <t>14135</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>11427</t>
-  </si>
-  <si>
-    <t>9857</t>
-  </si>
-  <si>
-    <t>4527</t>
-  </si>
-  <si>
-    <t>13416</t>
-  </si>
-  <si>
-    <t>7009</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>6955</t>
-  </si>
-  <si>
-    <t>3479</t>
-  </si>
-  <si>
-    <t>10923</t>
-  </si>
-  <si>
-    <t>13589</t>
-  </si>
-  <si>
-    <t>3372</t>
-  </si>
-  <si>
-    <t>3460</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>3371</t>
-  </si>
-  <si>
-    <t>8788</t>
-  </si>
-  <si>
-    <t>28961</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>18800</t>
-  </si>
-  <si>
-    <t>16543</t>
-  </si>
-  <si>
-    <t>22174</t>
-  </si>
-  <si>
-    <t>22894</t>
-  </si>
-  <si>
-    <t>4199</t>
-  </si>
-  <si>
-    <t>16328</t>
-  </si>
-  <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>25306</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>11432</t>
-  </si>
-  <si>
-    <t>11745</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>4103</t>
-  </si>
-  <si>
-    <t>32098</t>
-  </si>
-  <si>
-    <t>9018</t>
-  </si>
-  <si>
-    <t>4720</t>
-  </si>
-  <si>
-    <t>4441</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>2943</t>
-  </si>
-  <si>
-    <t>4534</t>
-  </si>
-  <si>
-    <t>3081</t>
-  </si>
-  <si>
-    <t>6128</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>3277</t>
-  </si>
-  <si>
-    <t>12997</t>
-  </si>
-  <si>
-    <t>17575</t>
-  </si>
-  <si>
-    <t>5995</t>
-  </si>
-  <si>
-    <t>4472</t>
-  </si>
-  <si>
-    <t>11224</t>
-  </si>
-  <si>
-    <t>21639</t>
-  </si>
-  <si>
-    <t>25193</t>
-  </si>
-  <si>
-    <t>3233</t>
-  </si>
-  <si>
-    <t>18838</t>
-  </si>
-  <si>
-    <t>10825</t>
-  </si>
-  <si>
-    <t>6906</t>
-  </si>
-  <si>
-    <t>38916</t>
-  </si>
-  <si>
-    <t>14894</t>
-  </si>
-  <si>
-    <t>4065</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>33093</t>
-  </si>
-  <si>
-    <t>24655</t>
-  </si>
-  <si>
-    <t>20270</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>6019</t>
-  </si>
-  <si>
-    <t>40490</t>
-  </si>
-  <si>
-    <t>19330</t>
-  </si>
-  <si>
-    <t>3095</t>
-  </si>
-  <si>
-    <t>26943</t>
-  </si>
-  <si>
-    <t>4204</t>
-  </si>
-  <si>
-    <t>2984</t>
-  </si>
-  <si>
-    <t>5814</t>
-  </si>
-  <si>
-    <t>14487</t>
-  </si>
-  <si>
-    <t>13195</t>
-  </si>
-  <si>
-    <t>21346</t>
-  </si>
-  <si>
-    <t>9157</t>
-  </si>
-  <si>
-    <t>8454</t>
-  </si>
-  <si>
-    <t>36469</t>
-  </si>
-  <si>
-    <t>19181</t>
-  </si>
-  <si>
-    <t>63520</t>
-  </si>
-  <si>
-    <t>12906</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>4237</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>5409</t>
-  </si>
-  <si>
-    <t>4862</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>17158</t>
-  </si>
-  <si>
-    <t>4961</t>
-  </si>
-  <si>
-    <t>7343</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>9433</t>
-  </si>
-  <si>
-    <t>59114</t>
-  </si>
-  <si>
-    <t>5741</t>
-  </si>
-  <si>
-    <t>4349</t>
-  </si>
-  <si>
-    <t>2439</t>
-  </si>
-  <si>
-    <t>25981</t>
-  </si>
-  <si>
-    <t>25007</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>6114</t>
-  </si>
-  <si>
-    <t>4130</t>
-  </si>
-  <si>
-    <t>51672</t>
-  </si>
-  <si>
-    <t>6827</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>39703</t>
-  </si>
-  <si>
-    <t>6164</t>
-  </si>
-  <si>
-    <t>104357</t>
-  </si>
-  <si>
-    <t>33238</t>
-  </si>
-  <si>
-    <t>2238</t>
-  </si>
-  <si>
-    <t>7513</t>
-  </si>
-  <si>
-    <t>31765</t>
-  </si>
-  <si>
-    <t>68576</t>
-  </si>
-  <si>
-    <t>4618</t>
-  </si>
-  <si>
-    <t>36385</t>
-  </si>
-  <si>
-    <t>27821</t>
-  </si>
-  <si>
-    <t>25272</t>
-  </si>
-  <si>
-    <t>6421</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>71459</t>
-  </si>
-  <si>
-    <t>5939</t>
-  </si>
-  <si>
-    <t>7392</t>
-  </si>
-  <si>
-    <t>4553</t>
-  </si>
-  <si>
-    <t>42199</t>
-  </si>
-  <si>
-    <t>99207</t>
-  </si>
-  <si>
-    <t>65438</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>11605</t>
-  </si>
-  <si>
-    <t>11209</t>
-  </si>
-  <si>
-    <t>21418</t>
-  </si>
-  <si>
-    <t>19382</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>120108</t>
-  </si>
-  <si>
-    <t>1289</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>4892</t>
-  </si>
-  <si>
-    <t>13235</t>
-  </si>
-  <si>
-    <t>5931</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>3154</t>
-  </si>
-  <si>
-    <t>1549</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>2467</t>
-  </si>
-  <si>
-    <t>24568</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
 </sst>
 </file>
@@ -2592,13 +2139,13 @@
         <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2612,16 +2159,16 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F3" t="s">
-        <v>668</v>
+        <v>335</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2638,13 +2185,13 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>483</v>
+        <v>336</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2661,13 +2208,13 @@
         <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" t="s">
-        <v>669</v>
+        <v>337</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2684,13 +2231,13 @@
         <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>485</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
-        <v>670</v>
+        <v>521</v>
       </c>
       <c r="G6" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2704,16 +2251,16 @@
         <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" t="s">
-        <v>669</v>
+        <v>339</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2727,16 +2274,16 @@
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>340</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2750,16 +2297,16 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>341</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2770,19 +2317,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2793,19 +2340,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>490</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>670</v>
+        <v>522</v>
       </c>
       <c r="G11" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2816,19 +2363,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>491</v>
-      </c>
-      <c r="F12" t="s">
-        <v>669</v>
+        <v>344</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2839,19 +2386,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" t="s">
-        <v>492</v>
+        <v>345</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2865,16 +2412,16 @@
         <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
-        <v>493</v>
-      </c>
-      <c r="F14" t="s">
-        <v>669</v>
+        <v>346</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2888,16 +2435,16 @@
         <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
-      </c>
-      <c r="F15" t="s">
-        <v>671</v>
+        <v>347</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2914,13 +2461,13 @@
         <v>327</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>348</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2934,16 +2481,16 @@
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" t="s">
-        <v>496</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
-        <v>672</v>
+        <v>521</v>
       </c>
       <c r="G17" t="s">
-        <v>670</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2954,19 +2501,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>350</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2977,19 +2524,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="F19" t="s">
+        <v>334</v>
       </c>
       <c r="G19" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3000,19 +2547,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="F20" t="s">
+        <v>523</v>
       </c>
       <c r="G20" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3023,19 +2570,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F21" t="s">
-        <v>673</v>
+        <v>353</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3049,16 +2596,16 @@
         <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>674</v>
+        <v>354</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>671</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3072,16 +2619,16 @@
         <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E23" t="s">
-        <v>501</v>
+        <v>355</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3095,16 +2642,16 @@
         <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
-        <v>502</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
+        <v>524</v>
       </c>
       <c r="G24" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3118,16 +2665,16 @@
         <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
-        <v>503</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="F25" t="s">
+        <v>525</v>
       </c>
       <c r="G25" t="s">
-        <v>669</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3138,19 +2685,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>358</v>
       </c>
       <c r="F26" t="s">
-        <v>675</v>
+        <v>526</v>
       </c>
       <c r="G26" t="s">
-        <v>719</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3161,19 +2708,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>505</v>
+        <v>359</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3184,19 +2731,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>360</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3207,19 +2754,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E29" t="s">
-        <v>507</v>
+        <v>361</v>
       </c>
       <c r="F29" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G29" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3233,16 +2780,16 @@
         <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E30" t="s">
-        <v>508</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="F30" t="s">
+        <v>527</v>
       </c>
       <c r="G30" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3253,19 +2800,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>509</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="F31" t="s">
+        <v>528</v>
       </c>
       <c r="G31" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3276,19 +2823,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E32" t="s">
-        <v>510</v>
+        <v>364</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3299,19 +2846,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E33" t="s">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3322,19 +2869,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E34" t="s">
-        <v>512</v>
-      </c>
-      <c r="F34" t="s">
-        <v>487</v>
+        <v>366</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3345,19 +2892,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D35" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E35" t="s">
-        <v>513</v>
+        <v>367</v>
       </c>
       <c r="F35" t="s">
-        <v>676</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>720</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3368,19 +2915,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+        <v>368</v>
+      </c>
+      <c r="F36" t="s">
+        <v>529</v>
       </c>
       <c r="G36" t="s">
-        <v>718</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3391,19 +2938,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E37" t="s">
-        <v>514</v>
+        <v>350</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3414,19 +2961,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E38" t="s">
-        <v>515</v>
-      </c>
-      <c r="F38" t="s">
-        <v>670</v>
+        <v>369</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3437,19 +2984,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E39" t="s">
-        <v>516</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="F39" t="s">
+        <v>530</v>
       </c>
       <c r="G39" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3460,19 +3007,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E40" t="s">
-        <v>517</v>
+        <v>371</v>
       </c>
       <c r="F40" t="s">
-        <v>677</v>
+        <v>521</v>
       </c>
       <c r="G40" t="s">
-        <v>682</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3483,19 +3030,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E41" t="s">
-        <v>518</v>
-      </c>
-      <c r="F41" t="s">
-        <v>678</v>
+        <v>372</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3506,19 +3053,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E42" t="s">
-        <v>519</v>
+        <v>373</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3529,19 +3076,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="E43" t="s">
-        <v>520</v>
-      </c>
-      <c r="F43" t="s">
-        <v>679</v>
+        <v>374</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3552,19 +3099,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E44" t="s">
-        <v>521</v>
-      </c>
-      <c r="F44" t="s">
-        <v>669</v>
+        <v>375</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3575,19 +3122,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E45" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
       <c r="F45" t="s">
-        <v>680</v>
+        <v>334</v>
       </c>
       <c r="G45" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3598,19 +3145,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s">
-        <v>523</v>
-      </c>
-      <c r="F46" t="s">
-        <v>672</v>
+        <v>377</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3621,19 +3168,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s">
-        <v>524</v>
-      </c>
-      <c r="F47" t="s">
-        <v>670</v>
+        <v>378</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3644,19 +3191,19 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="E48" t="s">
-        <v>525</v>
-      </c>
-      <c r="F48" t="s">
-        <v>681</v>
+        <v>379</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>720</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3667,19 +3214,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E49" t="s">
-        <v>526</v>
+        <v>380</v>
       </c>
       <c r="F49" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
       <c r="G49" t="s">
-        <v>721</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3690,19 +3237,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="E50" t="s">
-        <v>527</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="F50" t="s">
+        <v>532</v>
       </c>
       <c r="G50" t="s">
-        <v>718</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3716,16 +3263,16 @@
         <v>236</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E51" t="s">
-        <v>528</v>
-      </c>
-      <c r="F51" t="s">
-        <v>682</v>
+        <v>350</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>649</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3739,16 +3286,16 @@
         <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E52" t="s">
-        <v>529</v>
-      </c>
-      <c r="F52" t="s">
-        <v>670</v>
+        <v>382</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3762,16 +3309,16 @@
         <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="E53" t="s">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>683</v>
+        <v>334</v>
       </c>
       <c r="G53" t="s">
-        <v>670</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3782,19 +3329,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="E54" t="s">
-        <v>531</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
-        <v>684</v>
+        <v>533</v>
       </c>
       <c r="G54" t="s">
-        <v>678</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3805,19 +3352,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="E55" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3828,19 +3375,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="E56" t="s">
-        <v>533</v>
-      </c>
-      <c r="F56" t="s">
-        <v>669</v>
+        <v>375</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3851,19 +3398,19 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E57" t="s">
-        <v>534</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="F57" t="s">
+        <v>334</v>
       </c>
       <c r="G57" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3874,19 +3421,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3897,19 +3444,19 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D59" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>536</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="F59" t="s">
+        <v>334</v>
       </c>
       <c r="G59" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3920,19 +3467,19 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="E60" t="s">
-        <v>537</v>
+        <v>389</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="G60" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3943,19 +3490,19 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="E61" t="s">
-        <v>538</v>
-      </c>
-      <c r="F61" t="s">
-        <v>685</v>
+        <v>390</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>670</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3966,19 +3513,19 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="E62" t="s">
-        <v>539</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+        <v>391</v>
+      </c>
+      <c r="F62" t="s">
+        <v>535</v>
       </c>
       <c r="G62" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3989,19 +3536,19 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="E63" t="s">
-        <v>540</v>
+        <v>392</v>
       </c>
       <c r="F63" t="s">
-        <v>686</v>
+        <v>535</v>
       </c>
       <c r="G63" t="s">
-        <v>682</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4012,19 +3559,19 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E64" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
       <c r="F64" t="s">
-        <v>661</v>
+        <v>334</v>
       </c>
       <c r="G64" t="s">
-        <v>714</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4035,19 +3582,19 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E65" t="s">
-        <v>542</v>
+        <v>394</v>
       </c>
       <c r="F65" t="s">
-        <v>687</v>
+        <v>521</v>
       </c>
       <c r="G65" t="s">
-        <v>721</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4058,19 +3605,19 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E66" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="F66" t="s">
-        <v>688</v>
+        <v>536</v>
       </c>
       <c r="G66" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4081,19 +3628,19 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="E67" t="s">
-        <v>544</v>
+        <v>396</v>
       </c>
       <c r="F67" t="s">
-        <v>669</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4104,19 +3651,19 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="F68" t="s">
-        <v>689</v>
+        <v>535</v>
       </c>
       <c r="G68" t="s">
-        <v>674</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4127,19 +3674,19 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E69" t="s">
-        <v>546</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
+        <v>398</v>
+      </c>
+      <c r="F69" t="s">
+        <v>334</v>
       </c>
       <c r="G69" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4150,19 +3697,19 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="E70" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="F70" t="s">
-        <v>690</v>
+        <v>334</v>
       </c>
       <c r="G70" t="s">
-        <v>719</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4173,19 +3720,19 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="E71" t="s">
-        <v>548</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>669</v>
+        <v>526</v>
       </c>
       <c r="G71" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4196,19 +3743,19 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="E72" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
-        <v>673</v>
+        <v>334</v>
       </c>
       <c r="G72" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4219,19 +3766,19 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="F73" t="s">
-        <v>691</v>
+        <v>526</v>
       </c>
       <c r="G73" t="s">
-        <v>674</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4242,19 +3789,19 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4265,19 +3812,19 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="E75" t="s">
-        <v>552</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
+        <v>404</v>
+      </c>
+      <c r="F75" t="s">
+        <v>538</v>
       </c>
       <c r="G75" t="s">
-        <v>718</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4288,19 +3835,19 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="E76" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="F76" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
       <c r="G76" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4311,19 +3858,19 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="E77" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="F77" t="s">
-        <v>671</v>
+        <v>539</v>
       </c>
       <c r="G77" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4334,19 +3881,19 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="E78" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="F78" t="s">
-        <v>691</v>
+        <v>529</v>
       </c>
       <c r="G78" t="s">
-        <v>692</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4357,19 +3904,19 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
       <c r="F79" t="s">
-        <v>692</v>
+        <v>530</v>
       </c>
       <c r="G79" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4380,19 +3927,19 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="E80" t="s">
-        <v>557</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="F80" t="s">
+        <v>525</v>
       </c>
       <c r="G80" t="s">
-        <v>718</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4403,19 +3950,19 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="E81" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
       <c r="F81" t="s">
-        <v>668</v>
+        <v>539</v>
       </c>
       <c r="G81" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4426,19 +3973,19 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D82" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>559</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <v>411</v>
+      </c>
+      <c r="F82" t="s">
+        <v>540</v>
       </c>
       <c r="G82" t="s">
-        <v>669</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4449,19 +3996,19 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="E83" t="s">
-        <v>560</v>
+        <v>412</v>
       </c>
       <c r="F83" t="s">
-        <v>668</v>
+        <v>523</v>
       </c>
       <c r="G83" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4472,19 +4019,19 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="E84" t="s">
-        <v>561</v>
-      </c>
-      <c r="F84" t="s">
-        <v>668</v>
+        <v>413</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4495,19 +4042,19 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="E85" t="s">
-        <v>562</v>
+        <v>414</v>
       </c>
       <c r="F85" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4518,19 +4065,19 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D86" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="E86" t="s">
-        <v>563</v>
+        <v>415</v>
       </c>
       <c r="F86" t="s">
-        <v>671</v>
+        <v>524</v>
       </c>
       <c r="G86" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4541,19 +4088,19 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="D87" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="E87" t="s">
-        <v>564</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
+        <v>416</v>
+      </c>
+      <c r="F87" t="s">
+        <v>530</v>
       </c>
       <c r="G87" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4564,19 +4111,19 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="E88" t="s">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="F88" t="s">
-        <v>669</v>
+        <v>541</v>
       </c>
       <c r="G88" t="s">
-        <v>718</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4587,19 +4134,19 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
-        <v>566</v>
+        <v>418</v>
       </c>
       <c r="F89" t="s">
-        <v>673</v>
+        <v>542</v>
       </c>
       <c r="G89" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4610,19 +4157,19 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="F90" t="s">
-        <v>693</v>
+        <v>526</v>
       </c>
       <c r="G90" t="s">
-        <v>720</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4633,19 +4180,19 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>568</v>
+        <v>420</v>
       </c>
       <c r="F91" t="s">
-        <v>669</v>
+        <v>532</v>
       </c>
       <c r="G91" t="s">
-        <v>669</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4656,19 +4203,19 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D92" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="F92" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G92" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4679,19 +4226,19 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="E93" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
       <c r="F93" t="s">
-        <v>694</v>
+        <v>539</v>
       </c>
       <c r="G93" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4702,19 +4249,19 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
-        <v>571</v>
+        <v>423</v>
       </c>
       <c r="F94" t="s">
-        <v>675</v>
+        <v>543</v>
       </c>
       <c r="G94" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4725,19 +4272,19 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="E95" t="s">
-        <v>572</v>
+        <v>424</v>
       </c>
       <c r="F95" t="s">
-        <v>691</v>
+        <v>526</v>
       </c>
       <c r="G95" t="s">
-        <v>714</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4748,19 +4295,19 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="E96" t="s">
-        <v>573</v>
+        <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
       <c r="G96" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4771,19 +4318,19 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D97" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="E97" t="s">
-        <v>574</v>
-      </c>
-      <c r="F97" t="s">
-        <v>695</v>
+        <v>426</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>719</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4794,19 +4341,19 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="E98" t="s">
-        <v>575</v>
+        <v>427</v>
       </c>
       <c r="F98" t="s">
-        <v>694</v>
+        <v>539</v>
       </c>
       <c r="G98" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4817,19 +4364,19 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="E99" t="s">
-        <v>576</v>
+        <v>428</v>
       </c>
       <c r="F99" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="G99" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4840,19 +4387,19 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D100" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="E100" t="s">
-        <v>577</v>
+        <v>429</v>
       </c>
       <c r="F100" t="s">
-        <v>696</v>
+        <v>524</v>
       </c>
       <c r="G100" t="s">
-        <v>674</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4863,19 +4410,19 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="E101" t="s">
-        <v>578</v>
+        <v>430</v>
       </c>
       <c r="F101" t="s">
-        <v>697</v>
+        <v>544</v>
       </c>
       <c r="G101" t="s">
-        <v>719</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4886,19 +4433,19 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D102" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="E102" t="s">
-        <v>579</v>
+        <v>431</v>
       </c>
       <c r="F102" t="s">
-        <v>678</v>
+        <v>531</v>
       </c>
       <c r="G102" t="s">
-        <v>718</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4909,19 +4456,19 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D103" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="E103" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="F103" t="s">
-        <v>668</v>
+        <v>545</v>
       </c>
       <c r="G103" t="s">
-        <v>718</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4932,19 +4479,19 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="E104" t="s">
-        <v>581</v>
+        <v>433</v>
       </c>
       <c r="F104" t="s">
-        <v>698</v>
+        <v>539</v>
       </c>
       <c r="G104" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4955,19 +4502,19 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="E105" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="F105" t="s">
-        <v>699</v>
+        <v>539</v>
       </c>
       <c r="G105" t="s">
-        <v>695</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4978,19 +4525,19 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D106" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>435</v>
       </c>
       <c r="F106" t="s">
-        <v>693</v>
+        <v>546</v>
       </c>
       <c r="G106" t="s">
-        <v>670</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5001,19 +4548,19 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="E107" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="F107" t="s">
-        <v>669</v>
+        <v>547</v>
       </c>
       <c r="G107" t="s">
-        <v>668</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5024,19 +4571,19 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="E108" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
       <c r="F108" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
       <c r="G108" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5047,19 +4594,19 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="D109" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="E109" t="s">
-        <v>586</v>
+        <v>438</v>
       </c>
       <c r="F109" t="s">
-        <v>700</v>
+        <v>521</v>
       </c>
       <c r="G109" t="s">
-        <v>649</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5070,19 +4617,19 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>333</v>
       </c>
       <c r="E110" t="s">
-        <v>587</v>
+        <v>439</v>
       </c>
       <c r="F110" t="s">
-        <v>673</v>
+        <v>548</v>
       </c>
       <c r="G110" t="s">
-        <v>694</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5093,19 +4640,19 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="E111" t="s">
-        <v>588</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="F111" t="s">
+        <v>533</v>
       </c>
       <c r="G111" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5116,19 +4663,19 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D112" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="E112" t="s">
-        <v>589</v>
+        <v>441</v>
       </c>
       <c r="F112" t="s">
-        <v>701</v>
+        <v>539</v>
       </c>
       <c r="G112" t="s">
-        <v>674</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5139,19 +4686,19 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="E113" t="s">
-        <v>590</v>
+        <v>442</v>
       </c>
       <c r="F113" t="s">
-        <v>694</v>
+        <v>549</v>
       </c>
       <c r="G113" t="s">
-        <v>718</v>
+        <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5162,19 +4709,19 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="D114" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="F114" t="s">
-        <v>668</v>
+        <v>524</v>
       </c>
       <c r="G114" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5185,19 +4732,19 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="E115" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="F115" t="s">
-        <v>668</v>
+        <v>550</v>
       </c>
       <c r="G115" t="s">
-        <v>718</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5208,19 +4755,19 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="E116" t="s">
-        <v>593</v>
-      </c>
-      <c r="F116" t="s">
-        <v>702</v>
+        <v>445</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>678</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5231,19 +4778,19 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="D117" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="E117" t="s">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="F117" t="s">
-        <v>703</v>
+        <v>536</v>
       </c>
       <c r="G117" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5254,19 +4801,19 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D118" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>595</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>693</v>
+        <v>551</v>
       </c>
       <c r="G118" t="s">
-        <v>669</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5277,19 +4824,19 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D119" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="E119" t="s">
-        <v>596</v>
+        <v>448</v>
       </c>
       <c r="F119" t="s">
-        <v>682</v>
+        <v>552</v>
       </c>
       <c r="G119" t="s">
-        <v>720</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5300,19 +4847,19 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="E120" t="s">
-        <v>597</v>
+        <v>449</v>
       </c>
       <c r="F120" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="G120" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5323,19 +4870,19 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D121" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="E121" t="s">
-        <v>598</v>
+        <v>450</v>
       </c>
       <c r="F121" t="s">
-        <v>704</v>
+        <v>334</v>
       </c>
       <c r="G121" t="s">
-        <v>695</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5346,19 +4893,19 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D122" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="E122" t="s">
-        <v>580</v>
+        <v>451</v>
       </c>
       <c r="F122" t="s">
-        <v>669</v>
+        <v>524</v>
       </c>
       <c r="G122" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5369,19 +4916,19 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="E123" t="s">
-        <v>599</v>
+        <v>452</v>
       </c>
       <c r="F123" t="s">
-        <v>689</v>
+        <v>526</v>
       </c>
       <c r="G123" t="s">
-        <v>682</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5392,19 +4939,19 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="D124" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="E124" t="s">
-        <v>600</v>
+        <v>453</v>
       </c>
       <c r="F124" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="G124" t="s">
-        <v>722</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5415,19 +4962,19 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="D125" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="E125" t="s">
-        <v>601</v>
+        <v>454</v>
       </c>
       <c r="F125" t="s">
-        <v>673</v>
+        <v>537</v>
       </c>
       <c r="G125" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5438,19 +4985,19 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="E126" t="s">
-        <v>602</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
+        <v>455</v>
+      </c>
+      <c r="F126" t="s">
+        <v>554</v>
       </c>
       <c r="G126" t="s">
-        <v>669</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5461,19 +5008,19 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="E127" t="s">
-        <v>603</v>
+        <v>456</v>
       </c>
       <c r="F127" t="s">
-        <v>668</v>
+        <v>555</v>
       </c>
       <c r="G127" t="s">
-        <v>669</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5484,19 +5031,19 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D128" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="E128" t="s">
-        <v>604</v>
+        <v>457</v>
       </c>
       <c r="F128" t="s">
-        <v>669</v>
+        <v>526</v>
       </c>
       <c r="G128" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5507,19 +5054,19 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="E129" t="s">
-        <v>605</v>
-      </c>
-      <c r="F129" t="s">
-        <v>668</v>
+        <v>458</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5530,19 +5077,19 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D130" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="E130" t="s">
-        <v>606</v>
+        <v>459</v>
       </c>
       <c r="F130" t="s">
-        <v>694</v>
+        <v>526</v>
       </c>
       <c r="G130" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5553,19 +5100,19 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="E131" t="s">
-        <v>607</v>
+        <v>460</v>
       </c>
       <c r="F131" t="s">
-        <v>670</v>
+        <v>530</v>
       </c>
       <c r="G131" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5576,19 +5123,19 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D132" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="E132" t="s">
-        <v>608</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="F132" t="s">
+        <v>334</v>
       </c>
       <c r="G132" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5599,19 +5146,19 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="E133" t="s">
-        <v>609</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
+        <v>462</v>
+      </c>
+      <c r="F133" t="s">
+        <v>556</v>
       </c>
       <c r="G133" t="s">
-        <v>718</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5622,19 +5169,19 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D134" t="s">
-        <v>434</v>
+        <v>333</v>
       </c>
       <c r="E134" t="s">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="F134" t="s">
-        <v>682</v>
+        <v>521</v>
       </c>
       <c r="G134" t="s">
-        <v>678</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5645,19 +5192,19 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="D135" t="s">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="E135" t="s">
-        <v>611</v>
+        <v>464</v>
       </c>
       <c r="F135" t="s">
-        <v>670</v>
+        <v>539</v>
       </c>
       <c r="G135" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5668,19 +5215,19 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="D136" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="E136" t="s">
-        <v>612</v>
+        <v>465</v>
       </c>
       <c r="F136" t="s">
-        <v>673</v>
+        <v>557</v>
       </c>
       <c r="G136" t="s">
-        <v>668</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5691,19 +5238,19 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D137" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="E137" t="s">
-        <v>613</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="F137" t="s">
+        <v>558</v>
       </c>
       <c r="G137" t="s">
-        <v>668</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5714,19 +5261,19 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="D138" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="E138" t="s">
-        <v>614</v>
-      </c>
-      <c r="F138" t="s">
-        <v>649</v>
+        <v>467</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>694</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5737,19 +5284,19 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="D139" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="E139" t="s">
-        <v>615</v>
+        <v>468</v>
       </c>
       <c r="F139" t="s">
-        <v>706</v>
+        <v>559</v>
       </c>
       <c r="G139" t="s">
-        <v>670</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5760,19 +5307,19 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D140" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="E140" t="s">
-        <v>616</v>
+        <v>469</v>
       </c>
       <c r="F140" t="s">
-        <v>670</v>
+        <v>532</v>
       </c>
       <c r="G140" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5783,19 +5330,19 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D141" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="E141" t="s">
-        <v>617</v>
-      </c>
-      <c r="F141" t="s">
-        <v>670</v>
+        <v>470</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>678</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5806,19 +5353,19 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="D142" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="E142" t="s">
-        <v>618</v>
+        <v>471</v>
       </c>
       <c r="F142" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G142" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5829,19 +5376,19 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D143" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="E143" t="s">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="F143" t="s">
-        <v>707</v>
+        <v>526</v>
       </c>
       <c r="G143" t="s">
-        <v>723</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5852,19 +5399,19 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="D144" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="E144" t="s">
-        <v>620</v>
+        <v>473</v>
       </c>
       <c r="F144" t="s">
-        <v>681</v>
+        <v>558</v>
       </c>
       <c r="G144" t="s">
-        <v>673</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5875,19 +5422,19 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D145" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="E145" t="s">
-        <v>621</v>
+        <v>474</v>
       </c>
       <c r="F145" t="s">
-        <v>669</v>
+        <v>546</v>
       </c>
       <c r="G145" t="s">
-        <v>718</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5898,19 +5445,19 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D146" t="s">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="E146" t="s">
-        <v>622</v>
-      </c>
-      <c r="F146" t="s">
-        <v>670</v>
+        <v>475</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5921,19 +5468,19 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="E147" t="s">
-        <v>623</v>
+        <v>476</v>
       </c>
       <c r="F147" t="s">
-        <v>669</v>
+        <v>530</v>
       </c>
       <c r="G147" t="s">
-        <v>718</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5944,19 +5491,19 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="E148" t="s">
-        <v>624</v>
+        <v>477</v>
       </c>
       <c r="F148" t="s">
-        <v>669</v>
+        <v>530</v>
       </c>
       <c r="G148" t="s">
-        <v>670</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5967,19 +5514,19 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="E149" t="s">
-        <v>625</v>
-      </c>
-      <c r="F149" t="s">
-        <v>708</v>
+        <v>478</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>672</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5990,19 +5537,19 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="E150" t="s">
-        <v>626</v>
+        <v>479</v>
       </c>
       <c r="F150" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G150" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -6013,19 +5560,19 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D151" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="E151" t="s">
-        <v>627</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F151" t="s">
+        <v>560</v>
       </c>
       <c r="G151" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6036,19 +5583,19 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D152" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="E152" t="s">
-        <v>628</v>
-      </c>
-      <c r="F152" t="s">
-        <v>709</v>
+        <v>481</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6062,16 +5609,16 @@
         <v>298</v>
       </c>
       <c r="D153" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="E153" t="s">
-        <v>629</v>
+        <v>482</v>
       </c>
       <c r="F153" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="G153" t="s">
-        <v>669</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6082,19 +5629,19 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="D154" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="E154" t="s">
-        <v>630</v>
+        <v>483</v>
       </c>
       <c r="F154" t="s">
-        <v>710</v>
+        <v>535</v>
       </c>
       <c r="G154" t="s">
-        <v>676</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6105,19 +5652,19 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="D155" t="s">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="E155" t="s">
-        <v>631</v>
+        <v>484</v>
       </c>
       <c r="F155" t="s">
-        <v>711</v>
+        <v>540</v>
       </c>
       <c r="G155" t="s">
-        <v>719</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6128,19 +5675,19 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="E156" t="s">
-        <v>632</v>
-      </c>
-      <c r="F156" t="s">
-        <v>668</v>
+        <v>485</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6151,19 +5698,19 @@
         <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D157" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="E157" t="s">
-        <v>633</v>
+        <v>486</v>
       </c>
       <c r="F157" t="s">
-        <v>694</v>
+        <v>334</v>
       </c>
       <c r="G157" t="s">
-        <v>694</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6174,19 +5721,19 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D158" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="E158" t="s">
-        <v>634</v>
+        <v>487</v>
       </c>
       <c r="F158" t="s">
-        <v>703</v>
+        <v>561</v>
       </c>
       <c r="G158" t="s">
-        <v>661</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6197,19 +5744,19 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="D159" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="E159" t="s">
-        <v>635</v>
+        <v>488</v>
       </c>
       <c r="F159" t="s">
-        <v>712</v>
+        <v>334</v>
       </c>
       <c r="G159" t="s">
-        <v>677</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6220,19 +5767,19 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D160" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="E160" t="s">
-        <v>636</v>
-      </c>
-      <c r="F160" t="s">
-        <v>669</v>
+        <v>489</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6243,19 +5790,19 @@
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="E161" t="s">
-        <v>637</v>
+        <v>490</v>
       </c>
       <c r="F161" t="s">
-        <v>677</v>
+        <v>524</v>
       </c>
       <c r="G161" t="s">
-        <v>682</v>
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6269,16 +5816,16 @@
         <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>455</v>
+        <v>333</v>
       </c>
       <c r="E162" t="s">
-        <v>638</v>
+        <v>491</v>
       </c>
       <c r="F162" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="G162" t="s">
-        <v>724</v>
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6292,16 +5839,16 @@
         <v>211</v>
       </c>
       <c r="D163" t="s">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="E163" t="s">
-        <v>639</v>
+        <v>492</v>
       </c>
       <c r="F163" t="s">
-        <v>674</v>
+        <v>526</v>
       </c>
       <c r="G163" t="s">
-        <v>725</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6312,19 +5859,19 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
-        <v>457</v>
+        <v>333</v>
       </c>
       <c r="E164" t="s">
-        <v>640</v>
+        <v>493</v>
       </c>
       <c r="F164" t="s">
-        <v>668</v>
+        <v>540</v>
       </c>
       <c r="G164" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6335,19 +5882,19 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>457</v>
+        <v>333</v>
       </c>
       <c r="E165" t="s">
-        <v>641</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="F165" t="s">
+        <v>521</v>
       </c>
       <c r="G165" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6358,19 +5905,19 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D166" t="s">
-        <v>458</v>
+        <v>333</v>
       </c>
       <c r="E166" t="s">
-        <v>642</v>
+        <v>495</v>
       </c>
       <c r="F166" t="s">
-        <v>713</v>
+        <v>563</v>
       </c>
       <c r="G166" t="s">
-        <v>684</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6381,19 +5928,19 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="E167" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="F167" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G167" t="s">
-        <v>718</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6404,19 +5951,19 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D168" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="E168" t="s">
-        <v>644</v>
+        <v>497</v>
       </c>
       <c r="F168" t="s">
-        <v>714</v>
+        <v>564</v>
       </c>
       <c r="G168" t="s">
-        <v>694</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6427,19 +5974,19 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>333</v>
       </c>
       <c r="E169" t="s">
-        <v>645</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="F169" t="s">
+        <v>535</v>
       </c>
       <c r="G169" t="s">
-        <v>668</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6450,19 +5997,19 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D170" t="s">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="E170" t="s">
-        <v>646</v>
+        <v>499</v>
       </c>
       <c r="F170" t="s">
-        <v>707</v>
+        <v>526</v>
       </c>
       <c r="G170" t="s">
-        <v>709</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6473,19 +6020,19 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D171" t="s">
-        <v>463</v>
+        <v>333</v>
       </c>
       <c r="E171" t="s">
-        <v>647</v>
+        <v>500</v>
       </c>
       <c r="F171" t="s">
-        <v>715</v>
+        <v>565</v>
       </c>
       <c r="G171" t="s">
-        <v>684</v>
+        <v>543</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6496,19 +6043,19 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="D172" t="s">
-        <v>464</v>
+        <v>333</v>
       </c>
       <c r="E172" t="s">
-        <v>648</v>
+        <v>501</v>
       </c>
       <c r="F172" t="s">
-        <v>716</v>
+        <v>536</v>
       </c>
       <c r="G172" t="s">
-        <v>723</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6519,19 +6066,19 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="D173" t="s">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="E173" t="s">
-        <v>649</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="F173" t="s">
+        <v>537</v>
       </c>
       <c r="G173" t="s">
-        <v>718</v>
+        <v>538</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6542,19 +6089,19 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="D174" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="E174" t="s">
-        <v>650</v>
+        <v>503</v>
       </c>
       <c r="F174" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="G174" t="s">
-        <v>669</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6565,19 +6112,19 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D175" t="s">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="E175" t="s">
-        <v>651</v>
+        <v>504</v>
       </c>
       <c r="F175" t="s">
-        <v>670</v>
+        <v>545</v>
       </c>
       <c r="G175" t="s">
-        <v>678</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6588,19 +6135,19 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D176" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="E176" t="s">
-        <v>652</v>
+        <v>505</v>
       </c>
       <c r="F176" t="s">
-        <v>684</v>
+        <v>566</v>
       </c>
       <c r="G176" t="s">
-        <v>669</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6611,19 +6158,19 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="D177" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="E177" t="s">
-        <v>653</v>
+        <v>506</v>
       </c>
       <c r="F177" t="s">
-        <v>714</v>
+        <v>334</v>
       </c>
       <c r="G177" t="s">
-        <v>671</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6634,19 +6181,19 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D178" t="s">
-        <v>470</v>
+        <v>333</v>
       </c>
       <c r="E178" t="s">
-        <v>654</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="F178" t="s">
+        <v>524</v>
       </c>
       <c r="G178" t="s">
-        <v>668</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6657,19 +6204,19 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="D179" t="s">
-        <v>471</v>
+        <v>333</v>
       </c>
       <c r="E179" t="s">
-        <v>655</v>
+        <v>508</v>
       </c>
       <c r="F179" t="s">
-        <v>717</v>
+        <v>445</v>
       </c>
       <c r="G179" t="s">
-        <v>726</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6680,19 +6227,19 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="D180" t="s">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="E180" t="s">
-        <v>656</v>
+        <v>509</v>
       </c>
       <c r="F180" t="s">
-        <v>669</v>
+        <v>426</v>
       </c>
       <c r="G180" t="s">
-        <v>668</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6703,19 +6250,19 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="D181" t="s">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="E181" t="s">
-        <v>657</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="F181" t="s">
+        <v>540</v>
       </c>
       <c r="G181" t="s">
-        <v>670</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6726,19 +6273,19 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="D182" t="s">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="E182" t="s">
-        <v>658</v>
+        <v>511</v>
       </c>
       <c r="F182" t="s">
-        <v>669</v>
+        <v>567</v>
       </c>
       <c r="G182" t="s">
-        <v>668</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6749,19 +6296,19 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D183" t="s">
-        <v>474</v>
+        <v>333</v>
       </c>
       <c r="E183" t="s">
-        <v>659</v>
+        <v>512</v>
       </c>
       <c r="F183" t="s">
-        <v>678</v>
+        <v>568</v>
       </c>
       <c r="G183" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6772,19 +6319,19 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="D184" t="s">
-        <v>474</v>
+        <v>333</v>
       </c>
       <c r="E184" t="s">
-        <v>660</v>
+        <v>513</v>
       </c>
       <c r="F184" t="s">
-        <v>694</v>
+        <v>334</v>
       </c>
       <c r="G184" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6795,19 +6342,19 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="D185" t="s">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="E185" t="s">
-        <v>661</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="F185" t="s">
+        <v>569</v>
       </c>
       <c r="G185" t="s">
-        <v>669</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6818,19 +6365,19 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="D186" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="E186" t="s">
-        <v>662</v>
+        <v>515</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6841,19 +6388,19 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D187" t="s">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="E187" t="s">
-        <v>663</v>
+        <v>516</v>
       </c>
       <c r="F187" t="s">
-        <v>670</v>
+        <v>426</v>
       </c>
       <c r="G187" t="s">
-        <v>668</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6864,19 +6411,19 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="D188" t="s">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="E188" t="s">
-        <v>664</v>
+        <v>517</v>
       </c>
       <c r="F188" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="G188" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6887,19 +6434,19 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D189" t="s">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="E189" t="s">
-        <v>665</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
+        <v>518</v>
+      </c>
+      <c r="F189" t="s">
+        <v>536</v>
       </c>
       <c r="G189" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6910,19 +6457,19 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="D190" t="s">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="E190" t="s">
-        <v>666</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="F190" t="s">
+        <v>570</v>
       </c>
       <c r="G190" t="s">
-        <v>668</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6933,19 +6480,19 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D191" t="s">
-        <v>480</v>
+        <v>333</v>
       </c>
       <c r="E191" t="s">
-        <v>667</v>
-      </c>
-      <c r="F191" t="s">
-        <v>686</v>
+        <v>520</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>668</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/data/instiz_인티포털.xlsx
+++ b/data/instiz_인티포털.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="665">
   <si>
     <t>제목</t>
   </si>
@@ -34,6 +34,375 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>배고파요.. 연어초밥좀 주세요.jpg</t>
+  </si>
+  <si>
+    <t>윤민섭 기자) 커즈, 에이밍 KT행 루머.. KT측은 노코멘트</t>
+  </si>
+  <si>
+    <t>원어스, 데뷔 1044일 만에 첫 1위 "꿈 같아..긍정적인 역사 써 내려..</t>
+  </si>
+  <si>
+    <t>초콜릿의 불편한 진실.jpg</t>
+  </si>
+  <si>
+    <t>전효성 인스타 업뎃 .jpg</t>
+  </si>
+  <si>
+    <t>스파이더맨 노웨이홈 2차 예고편 공개</t>
+  </si>
+  <si>
+    <t>1년여 만에 갑자기 연락온 중고거래자.jpg</t>
+  </si>
+  <si>
+    <t>'나 혼자 산다' 새 포스터, 헨리만 쏙 빠졌다? '갑론을박'</t>
+  </si>
+  <si>
+    <t>두뇌 싸움하는 프로에서 처음 보는 유형의 전략</t>
+  </si>
+  <si>
+    <t>'새벽 행군' 군장병 5명 '음주 운전' 화물차에 치여</t>
+  </si>
+  <si>
+    <t>레트로 느낌 뿜뿜하는 하하하 굿즈</t>
+  </si>
+  <si>
+    <t>[Teaser] When Traditional Korean music me..</t>
+  </si>
+  <si>
+    <t>플로(FLO), 마마무 소속사 RBW와 공연 파트너십 계약 체결</t>
+  </si>
+  <si>
+    <t>이시영, 1억원 기부…"가정폭력으로 아픈 아이들 위해 결정"</t>
+  </si>
+  <si>
+    <t>[넷플릭스] F1 : 본능의 질주(feat.가짜광기는가라)</t>
+  </si>
+  <si>
+    <t>노웨이홈 삼스파 나온다는 증거.gif</t>
+  </si>
+  <si>
+    <t>드라마 남녀주연배우들이 쉬는시간에 하는 짓......</t>
+  </si>
+  <si>
+    <t>꽃보다 남자 OST중에서 내가 좋아했던 곡은?</t>
+  </si>
+  <si>
+    <t>친구가 가지고 오면 신기했던 폰.JPG</t>
+  </si>
+  <si>
+    <t>전업으로 전환할지 고민중인 주갤럼.jpg</t>
+  </si>
+  <si>
+    <t>오디션 심사위원으로 1분 30초 무대 찢은 아이들 전소연</t>
+  </si>
+  <si>
+    <t>BTS '아미' VS 임영웅 '영웅시대' MMA2021 톱10 1위 자리 ..</t>
+  </si>
+  <si>
+    <t>캐릭터 찰떡이라는 술꾼도시여자들 한선화</t>
+  </si>
+  <si>
+    <t>남친이 "개 부자" 라서 넘 좋다는 여자.jpg</t>
+  </si>
+  <si>
+    <t>좋은 남친의 기준을 인터넷 여론으로 잡으면 안되는 이유</t>
+  </si>
+  <si>
+    <t>마늘 많이 먹으면 항암효과에 좋아요</t>
+  </si>
+  <si>
+    <t>찰떡아이스 신상 .JPG</t>
+  </si>
+  <si>
+    <t>이투스 강사진 아바타.jpg</t>
+  </si>
+  <si>
+    <t>전신라텍스 말 코스프레</t>
+  </si>
+  <si>
+    <t>공사중인 미국국경 넘는 멕시코남자</t>
+  </si>
+  <si>
+    <t>케이블 랩핑</t>
+  </si>
+  <si>
+    <t>김승규의 볼컨트롤과 킥에서 시작된 한국의 공격전개.gif</t>
+  </si>
+  <si>
+    <t>GLG 첫 걸그룹 하이키, 내년 1월5일 뜬다 [공식]</t>
+  </si>
+  <si>
+    <t>월급이 더 들어와서 문자를 보냈더니 .jpg</t>
+  </si>
+  <si>
+    <t>미래 스포당한 친구</t>
+  </si>
+  <si>
+    <t>브랜드별 끝판왕 차종</t>
+  </si>
+  <si>
+    <t>한국 로코영화 원탑이다 VS 아니다</t>
+  </si>
+  <si>
+    <t>햄버거 세트 사서 콜라만 마시는 이유</t>
+  </si>
+  <si>
+    <t>불과 얼마 전만 해도 개욕먹었던 감독</t>
+  </si>
+  <si>
+    <t>들어갔다 나오는</t>
+  </si>
+  <si>
+    <t>마블 코믹스) 울버린과 웨펀 X 프로그램이란? (2) - 웨펀 X 프로그램..</t>
+  </si>
+  <si>
+    <t>마블 코믹스) 울버린과 웨펀 X 프로그램이란? (1) - 웨펀 플러스 프로..</t>
+  </si>
+  <si>
+    <t>스파이더맨 노 웨이 홈 2차 예고편</t>
+  </si>
+  <si>
+    <t>잘 대줄것 같은 여자로 보이는게 고민인 여자</t>
+  </si>
+  <si>
+    <t>개승자 정성호 오징어게임 허성태</t>
+  </si>
+  <si>
+    <t>스포) 스파이더맨 심령사진 유출</t>
+  </si>
+  <si>
+    <t>발뮤다 스마트폰 실사.jpg</t>
+  </si>
+  <si>
+    <t>쇼미더럭키 한장 요약</t>
+  </si>
+  <si>
+    <t>넷플릭스, 첫 가격인상…프리미엄 1만4500원→1만7000원</t>
+  </si>
+  <si>
+    <t>유독 호불호가 심하게 갈린다는 케이크.jpg</t>
+  </si>
+  <si>
+    <t>펭수 머리에 초를 꽂기 싫었던 엄마.jpgif</t>
+  </si>
+  <si>
+    <t>뉴욕 타임스퀘어 전광판에 걸린 스테이씨.jpg</t>
+  </si>
+  <si>
+    <t>서윗한 달팽이주인</t>
+  </si>
+  <si>
+    <t>은근히 이쁜 모델</t>
+  </si>
+  <si>
+    <t>은근히 이뻤던 박봄 리즈시절 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>55 / 파묻히다</t>
+  </si>
+  <si>
+    <t>좀 너무 길지않냐는 반응의 드라마 교통사고 장면.gif</t>
+  </si>
+  <si>
+    <t>귤 먹고 싶으니까 까달라는 딸.gif</t>
+  </si>
+  <si>
+    <t>현재 본인의 컴퓨터 본체 위치는?</t>
+  </si>
+  <si>
+    <t>[앙ㅋ의이게임을아시나요?] - 네부카드네자르</t>
+  </si>
+  <si>
+    <t>[스파이더맨예고편] 투명인간에게 쳐맞는 리자드.gi</t>
+  </si>
+  <si>
+    <t>대학교 4학년 시험을 친 2학년의 최후.jpg</t>
+  </si>
+  <si>
+    <t>백의천사 서울대 병원 7년차 미모의 간호사..또 다른 반전 직업 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>수능 하루 앞두고 계시를 받은 디씨인</t>
+  </si>
+  <si>
+    <t>역대급으로 ㅈ망인 2021년 고티(Game Of The Year) 라인업</t>
+  </si>
+  <si>
+    <t>MCU 스파이더맨 연출의 문제점</t>
+  </si>
+  <si>
+    <t>동거인 흉기로 찌르고 아파트 아래로 떨어뜨려 살해..30대 체포</t>
+  </si>
+  <si>
+    <t>지난 4월말 ㅍ.ㅋ에 올라온 여친 강간글 결말.jpg</t>
+  </si>
+  <si>
+    <t>넷플릭스 역대 인기 순위.jpg</t>
+  </si>
+  <si>
+    <t>내향적인 사람이 마트 갔을 때.jpeg</t>
+  </si>
+  <si>
+    <t>불고기피자 5행시 대상작.JPG</t>
+  </si>
+  <si>
+    <t>토익학원에서 여자번호 따려다 망했다 ㅅㅂ</t>
+  </si>
+  <si>
+    <t>술도녀 정은지&amp;한선화 길거리 싸움 씬 직캠</t>
+  </si>
+  <si>
+    <t>[청춘불패] 한선화 : 어머니 저 그냥 여기 시집오면 안돼요??</t>
+  </si>
+  <si>
+    <t>어제자 스테이씨 공식 인스타 (+ 인스타스토리)</t>
+  </si>
+  <si>
+    <t>구글, 폴더블폰 개발 철수.. 삼성과의 가격 경쟁력에서 밀린다 판단</t>
+  </si>
+  <si>
+    <t>선덕여왕 - 비담 jpg</t>
+  </si>
+  <si>
+    <t>[놀면뭐하니] 에서 100만원까지 거래된 음반으로 소개된 앨범</t>
+  </si>
+  <si>
+    <t>를 시전하는 옆나라...news</t>
+  </si>
+  <si>
+    <t>야사 잘못 올려서 7일 활정 풀린 기념 재업로드(그때 그 감동 다시 한번 ..</t>
+  </si>
+  <si>
+    <t>美 여성 록싱어, 팬 얼굴에 소변 보는 '엽기 퍼포먼스'</t>
+  </si>
+  <si>
+    <t>진미채의 비밀.jpg</t>
+  </si>
+  <si>
+    <t>2000년대 중반 OST가 더 유명했던 게임.JPG</t>
+  </si>
+  <si>
+    <t>야 여친 완전운다 어케해야하냐; jpg</t>
+  </si>
+  <si>
+    <t>뭔가 이상함을 느끼는 경비원 .gif</t>
+  </si>
+  <si>
+    <t>32세 직장인 식습관</t>
+  </si>
+  <si>
+    <t>남친한테 너랑 바람필일 없다고 전해라.JPG</t>
+  </si>
+  <si>
+    <t>중식만 먹으면 생기는 소화불량의 진실.JPG</t>
+  </si>
+  <si>
+    <t>EBS 위대한 수업) 왜 세상은 나빠지는가?"당신의 세계관을 뒤흔들 팩트 ..</t>
+  </si>
+  <si>
+    <t>허리통증에 시달리는 직장인들을 위한 꿀팁!!</t>
+  </si>
+  <si>
+    <t>출시 이틀 남은 게임</t>
+  </si>
+  <si>
+    <t>자기가 잘대줄거 같은 여자란 소리를 들은 사람의 고민.JPG</t>
+  </si>
+  <si>
+    <t>냥아치 호냥이.jpg</t>
+  </si>
+  <si>
+    <t>네이버 웹툰 근황 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>토양 액상화</t>
+  </si>
+  <si>
+    <t>회사 직원 중에 머리 탈색하고 투톤한 사람 있는데</t>
+  </si>
+  <si>
+    <t>NO버터 NO달걀 NO우유 베이글</t>
+  </si>
+  <si>
+    <t>2연속 당첨.gif</t>
+  </si>
+  <si>
+    <t>암튼 여친룩</t>
+  </si>
+  <si>
+    <t>차로 하이마트를 박살낸 여대생.jpg</t>
+  </si>
+  <si>
+    <t>롤) 한복 아리 바뀐 일러스트</t>
+  </si>
+  <si>
+    <t>상속 때문에 빚더미에 앉게된 아이들</t>
+  </si>
+  <si>
+    <t>새끼때문에 놀란 메랑이</t>
+  </si>
+  <si>
+    <t>수능 도시락</t>
+  </si>
+  <si>
+    <t>"의외로 쉬워서 놀랐다"명성황후 시해 가담자 편지</t>
+  </si>
+  <si>
+    <t>스태프 전원 실신.gif</t>
+  </si>
+  <si>
+    <t>잠시 녹화중단 했던 kbs 방송.jpg</t>
+  </si>
+  <si>
+    <t>개그맨 황현희 근황...jpg</t>
+  </si>
+  <si>
+    <t>[스파이더맨] 앤드류 가필드,"전 이번 작품에 출연하지 않아요"</t>
+  </si>
+  <si>
+    <t>실시간 축협 세로드립 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>수능날00시에 버스파업 협상예정</t>
+  </si>
+  <si>
+    <t>현시각 축협 인스타 관리자의 미친센스.jpg</t>
+  </si>
+  <si>
+    <t>이라크 VS 대한민국 3:0 승리 주요장면</t>
+  </si>
+  <si>
+    <t>수지 12년간의 얼굴</t>
+  </si>
+  <si>
+    <t>느슨한 웹툰계에 긴장감을 줄 신작</t>
+  </si>
+  <si>
+    <t>빈곤층, 중산층, 부유층을 나누는 기준.jpg</t>
+  </si>
+  <si>
+    <t>홍콩 경찰 지지한 아이돌들.jpg</t>
+  </si>
+  <si>
+    <t>2021년 최악의 시말서 각</t>
+  </si>
+  <si>
+    <t>김민주가 원래 이렇게 이뻤나</t>
+  </si>
+  <si>
+    <t>신더가드 에인절스행</t>
+  </si>
+  <si>
+    <t>방송 도중 팬에게 전화왔을때 정상수 대처.JPG</t>
+  </si>
+  <si>
+    <t>어깨라인이 상당하신 트위치 스트리머</t>
+  </si>
+  <si>
+    <t>어그로다 vs 찐이다</t>
+  </si>
+  <si>
     <t>졸업안시켜준 교수 죽인 대학원생</t>
   </si>
   <si>
@@ -49,57 +418,21 @@
     <t>노웨이홈 삼파이더맨 출연이 99퍼인 이유.jpg</t>
   </si>
   <si>
-    <t>위스키를 제대로 마시는법.gif</t>
-  </si>
-  <si>
     <t>이름은 모르는데 익숙한 새 .jpg</t>
   </si>
   <si>
-    <t>스파이더맨 예고편에서 뭔가 이상한 MJ 구해주는 장면</t>
-  </si>
-  <si>
-    <t>노가다 아이스크림 심부름</t>
-  </si>
-  <si>
     <t>여성의 생물학적 노산 기준 나이.jpg</t>
   </si>
   <si>
-    <t>3스파이더맨 확정짤(수정)</t>
-  </si>
-  <si>
-    <t>대한민국남자 평균 비주얼 가능하다vs어서오고</t>
-  </si>
-  <si>
-    <t>외국인들한테 인기 많은 한식.JPG</t>
-  </si>
-  <si>
-    <t>아파트 도서관에서 아이들 보며 4시간 바지 내린 '그놈'…징역 9개월 실형..</t>
-  </si>
-  <si>
-    <t>나쁜 묘사를 듣고 어떤 직업인지 맞추기.jpg</t>
-  </si>
-  <si>
     <t>LG에서 출시한 역대급 매출이였다는 폰.JPG</t>
   </si>
   <si>
-    <t>2021 로스트메모리즈</t>
-  </si>
-  <si>
     <t>카더가든이 재해석해서 부른 크라잉넛의 명동콜링</t>
   </si>
   <si>
     <t>미국 3대 시상식 AMAs 시상식에서 BTS가 할 무대</t>
   </si>
   <si>
-    <t>생면부지 남성 가슴 만진 여성, '강제추행죄' 벌금 100만원</t>
-  </si>
-  <si>
-    <t>뭐 추억의 소드가 왔다고?</t>
-  </si>
-  <si>
-    <t>나가긴 귀찮고 주인은 반가운 댕댕</t>
-  </si>
-  <si>
     <t>빠니보틀 : 곽튜브 성공의 1할은 내 덕이다</t>
   </si>
   <si>
@@ -109,12 +442,6 @@
     <t>쓰니 기준 우리나라에서 화보 가장 잘찍는 남자배우</t>
   </si>
   <si>
-    <t>굴삭기 고인물</t>
-  </si>
-  <si>
-    <t>아이슬란드 파그라달스퍄들 화산폭발</t>
-  </si>
-  <si>
     <t>귀여운 새끼멍뭉이</t>
   </si>
   <si>
@@ -124,96 +451,48 @@
     <t>무스펙 서울대생의 취업후기 및 준비과정</t>
   </si>
   <si>
-    <t>다이어트 위해 소식 시작한 매직박 오늘 점심 식단.jpg</t>
-  </si>
-  <si>
-    <t>영화 많이 본</t>
-  </si>
-  <si>
-    <t>가을,겨울에 흔히 볼 수있는 공대생 패션</t>
-  </si>
-  <si>
     <t>야외야스로 몸살앓는 천혜의 경관....news</t>
   </si>
   <si>
     <t>개발자인줄 알았던 내가 눈떠보니 디자이너.jpg</t>
   </si>
   <si>
-    <t>롤 중계할 때 클템어 해석ㅋㅋㅋ.jpg</t>
-  </si>
-  <si>
-    <t>옛날 메이플스토리 추억의 희귀템들 - 2</t>
-  </si>
-  <si>
     <t>남편이 저 모르게 또 어린이집을 안보냈네요.jpgif</t>
   </si>
   <si>
     <t>스파이더맨 예고 내려갔었던 이유.gif</t>
   </si>
   <si>
-    <t>연합뉴스 근황.jpg</t>
-  </si>
-  <si>
     <t>요즘 해외 영화 수입 열심히 하는 소지섭</t>
   </si>
   <si>
     <t>바람핀 친엄마 vs 새엄마</t>
   </si>
   <si>
-    <t>'무단 이탈→복귀'한 IBK 조송화</t>
-  </si>
-  <si>
     <t>벌새를 닮은 귀여운 벌레</t>
   </si>
   <si>
-    <t>닥터 옥토퍼스는 머리가 띵했을듯</t>
-  </si>
-  <si>
-    <t>군대 선임이 비빔면 미지근하다고 다시 해오래.eta</t>
-  </si>
-  <si>
-    <t>전소민도 한수 접고 가는 민경훈 예능력</t>
-  </si>
-  <si>
     <t>지능이 높을수록 성욕이 강하다.jpg</t>
   </si>
   <si>
     <t>초봉 6500만원·휴가 기간 무제한…그래도 '노는 직원' 없는 비결</t>
   </si>
   <si>
-    <t>곧 룰루 0티어 만들어줄 픽스 버그</t>
-  </si>
-  <si>
-    <t>만델라 효과 모음.jpg</t>
-  </si>
-  <si>
     <t>김재우 근황.jpg</t>
   </si>
   <si>
     <t>프랑스 대박별 한국학&amp;한국어 전공 경쟁률 현황 ㄷㄷㄷ jpg</t>
   </si>
   <si>
-    <t>조용히 시장 평가가 올라가고 있는 1인</t>
-  </si>
-  <si>
-    <t>타짜의 야바위 기술을 일반인이 캐치 할 수 있을까???</t>
-  </si>
-  <si>
     <t>유튜브에서 킬링타임용으로 역주행중인 애니.JPG</t>
   </si>
   <si>
-    <t>실시간 T1 상황</t>
-  </si>
-  <si>
     <t>약쟁이 검거 완료</t>
   </si>
   <si>
     <t>사람들이 은근 모르는 레드벨벳 명곡</t>
   </si>
   <si>
-    <t>데스노트가 디씨유저에게 갔다면</t>
-  </si>
-  <si>
     <t>헌신짝돼서 차였는데 결혼한뒤 연락 온 전남친</t>
   </si>
   <si>
@@ -325,327 +604,285 @@
     <t>현재 논란중인 편의점 옷 안에 손 넣고 강제 추행 사건</t>
   </si>
   <si>
-    <t>[영화] 킹스맨 : 퍼스트 에이전트 국내 12월 22일 개봉 확정</t>
-  </si>
-  <si>
-    <t>킅갤) 창원 카페에 도란 출몰</t>
-  </si>
-  <si>
-    <t>기안84 동물학대 논란</t>
-  </si>
-  <si>
-    <t>일제시절 일본도 놀라게한 매국노</t>
-  </si>
-  <si>
-    <t>내일 수능 세상에서 가장 요란하게 보는 아이돌</t>
-  </si>
-  <si>
-    <t>연우 vs 조이 vs 쯔위.gif</t>
-  </si>
-  <si>
-    <t>메밀소바 먹다 죽을 뻔한 사람.jpg</t>
-  </si>
-  <si>
-    <t>평생 생선구이를 제공받을 수 있다면?</t>
-  </si>
-  <si>
-    <t>올리브영 핸드크림 판매순</t>
-  </si>
-  <si>
-    <t>90년대생 이상만 안다는 책</t>
-  </si>
-  <si>
-    <t>메이플스토리에서 가장 희귀하고 인기가 많은 데미지 스킨</t>
-  </si>
-  <si>
-    <t>요즘 학생들은 못 믿는 시간표</t>
-  </si>
-  <si>
-    <t>수능 앞두고 도시락 예행 연습중이신 수험생 어머님들.jpg</t>
-  </si>
-  <si>
-    <t>데뷔 첫 음방 1위 해냈다…원어스, '쇼! 챔피언' 정상 '눈물 소감'</t>
-  </si>
-  <si>
-    <t>여대생 두명 음주운전 ㅈ됐다</t>
-  </si>
-  <si>
-    <t>형 여기 남자 알바중 제일 잘생겼어요</t>
-  </si>
-  <si>
-    <t>10대들이 뽑은 호불호 음식 1위.jpg</t>
-  </si>
-  <si>
-    <t>한시간의 접전끝에</t>
-  </si>
-  <si>
-    <t>회사 구내식당에 제철 생선이 나온다길래 부리나케 갔더니</t>
-  </si>
-  <si>
-    <t>신혼부부 젓가락 방향 논란</t>
-  </si>
-  <si>
-    <t>아들 컴퓨터를 무참히 박살낸 디시인의 아버지</t>
-  </si>
-  <si>
-    <t>여자친구가 있는데 여사친 만나는거 오바임?</t>
-  </si>
-  <si>
-    <t>대학동기 손절한 이유</t>
-  </si>
-  <si>
-    <t>뚱냥이의 비애</t>
-  </si>
-  <si>
-    <t>요즘애들키가 네덜란드수준으로 큰 이유</t>
-  </si>
-  <si>
-    <t>다이어트 카페 아웃풋 투탑.jpg</t>
-  </si>
-  <si>
-    <t>2000년대 초반 인기 폭발이였던 소개팅 예능.JPG</t>
-  </si>
-  <si>
-    <t>서로 아싸화법 쓰는 레드벨벳 슬기 웬디.jpg</t>
-  </si>
-  <si>
-    <t>중학생들이 복도에서 담배피고 오줌까지 싸서 주의줬더니 다음날 식당에 벌어진..</t>
-  </si>
-  <si>
-    <t>전성기 시절 잘 나갔던 과자 원탑.JPG</t>
-  </si>
-  <si>
-    <t>투신하러 아파트 올라갔다더니..여고생 집 '주거 침입'</t>
-  </si>
-  <si>
-    <t>비주얼 살벌한 개구리 음식을 먹은 여돌의 반응.jpg</t>
-  </si>
-  <si>
-    <t>자담치킨4000원 할인받자!!</t>
-  </si>
-  <si>
-    <t>정준하가 말하는 무도 멤버들 예능 순위 (ft.찐경규)</t>
-  </si>
-  <si>
-    <t>팀장한테 퇴사권유받은 직원</t>
-  </si>
-  <si>
-    <t>겨울간식 칼로리</t>
-  </si>
-  <si>
-    <t>거대한 고양이</t>
-  </si>
-  <si>
-    <t>치즈케이크에 로고찍기</t>
-  </si>
-  <si>
-    <t>영화 흥행 후 판매량 70배 떡상했다는 앨범</t>
-  </si>
-  <si>
-    <t>경찰,'윤석열 처가 양평 공흥지구 특혜' 의혹 정식 수사 전환</t>
-  </si>
-  <si>
-    <t>생일파티한 한소희 목걸이 귀걸이 브랜드.. 대박 예쁨</t>
-  </si>
-  <si>
-    <t>"새끼 길고양이 얼굴을 토치로 불질러”...경찰, 수사 착수</t>
-  </si>
-  <si>
-    <t>화려수수 조합으로 데뷔 첫 화보 찍은 여돌</t>
-  </si>
-  <si>
-    <t>붐 담당 일진.jpg</t>
-  </si>
-  <si>
-    <t>젤다의 전설 안해본 사람들은 잘 모르는 것 jpg</t>
-  </si>
-  <si>
-    <t>황당해진 대만 상황</t>
-  </si>
-  <si>
-    <t>신서유기 연말굿즈.jpg</t>
-  </si>
-  <si>
-    <t>편의점 성추행 벌금 100만원</t>
-  </si>
-  <si>
-    <t>붐이 홈쇼핑 못 나오는 이유.JPG</t>
-  </si>
-  <si>
-    <t>필력 미친 홈플러스더클럽 인스타그램 게시물.jpg</t>
-  </si>
-  <si>
-    <t>냄새에 정신줄 놓은 고양이들 영상 모음</t>
-  </si>
-  <si>
-    <t>레전드 충김볶 레시피에 이은 박나래 해장주스 레시피</t>
-  </si>
-  <si>
-    <t>[충격] 이재명 수행실장 한준호 前 아나 '영부인 출산 국격 여부' 논란 ..</t>
-  </si>
-  <si>
-    <t>한국인으로 이루어진 남자아이돌 그룹</t>
-  </si>
-  <si>
-    <t>판) 십몇년 전 입양보낸 아이를 찾는 것... 너무 이기적일까요</t>
-  </si>
-  <si>
-    <t>라면의 면발이 노란색인 이유</t>
-  </si>
-  <si>
-    <t>해리포터 팬들이 뽑은 시리즈 최악의 영화</t>
-  </si>
-  <si>
-    <t>섹시를 잘못 이해하고 있는 남돌</t>
-  </si>
-  <si>
-    <t>시대를 앞서갔던 20년전 게임</t>
-  </si>
-  <si>
-    <t>사과티비 수위 ㄹㅇ 실화냐 ㄷㄷ...</t>
-  </si>
-  <si>
-    <t>난 이 음료수들 눈감고 마시면 다 구별 가능하다 vs 아니다</t>
-  </si>
-  <si>
-    <t>미국의 로켓 발사 기술 근황.gif</t>
-  </si>
-  <si>
-    <t>여돌의 새로운 청순계보 이을 것 같은 방과후설렘 참가자</t>
-  </si>
-  <si>
-    <t>어제 일어난 하이마트 돌진 사고 전말</t>
-  </si>
-  <si>
-    <t>성과급, 인센티브 퇴직금 꿀팁</t>
-  </si>
-  <si>
-    <t>대면공연이 신기한 에스파 윈터</t>
-  </si>
-  <si>
-    <t>청담역의 위엄.jpg</t>
-  </si>
-  <si>
-    <t>피가 되고 살이 되는 현실 인생 팁</t>
-  </si>
-  <si>
-    <t>꿀잼실험</t>
-  </si>
-  <si>
-    <t>집돌이 and 밖순이 결혼은 파국인가요?</t>
-  </si>
-  <si>
-    <t>시레기 말리는 중인 음식점</t>
-  </si>
-  <si>
-    <t>흔한 시골 국수집 풍경</t>
-  </si>
-  <si>
-    <t>45층에서 의자를 던진 여자.gif</t>
-  </si>
-  <si>
-    <t>사람들이 스파이더맨을 좋아하는 이유를 잘 보여준다는 영화 장면.jpg</t>
-  </si>
-  <si>
-    <t>19세기 러시아의 달 덕후 화가</t>
-  </si>
-  <si>
-    <t>군대가면 총만 쏜다는 미필들 봐라</t>
-  </si>
-  <si>
-    <t>의외로 국내 판타지 소설 입문 작품으로 많이 꼽히는 소설</t>
-  </si>
-  <si>
-    <t>日 언론"오징어게임 방영된 모든 나라에서 대히트를 기록한 이유"일본 반응</t>
-  </si>
-  <si>
-    <t>아빠한테 배틀넷 아이디 걸렸다 저런</t>
-  </si>
-  <si>
-    <t>프로필 사진으로 리즈 찍은 뮤지컬 배우</t>
-  </si>
-  <si>
-    <t>[속보] 정부 "30세 미만, 모더나 대신 화이자 코로나19 백신 권고”</t>
-  </si>
-  <si>
-    <t>앙버터빵 급발진</t>
-  </si>
-  <si>
-    <t>차은우 아닌척 수업 듣는 차은우</t>
-  </si>
-  <si>
-    <t>안철수 "대입 수시 폐지, 사법고시 부활시킨다"</t>
-  </si>
-  <si>
-    <t>조선족이 한국에 불만인점</t>
-  </si>
-  <si>
-    <t>유튜브 스타로 떡상하고 있는 정상수.JPG</t>
-  </si>
-  <si>
-    <t>유전자 이상 때문에 귀가 4개인 고양이</t>
-  </si>
-  <si>
-    <t>큐브 아이돌 2022 시즌그리팅 출시 공지</t>
-  </si>
-  <si>
-    <t>[단독] "판사님, 시x 진짜" 욕설한 한서희, 필로폰 투약 징역 '1년 ..</t>
-  </si>
-  <si>
-    <t>지방 사람들이 처음 서울 왔을때 의외로 가장 놀란다는 것</t>
-  </si>
-  <si>
-    <t>애기들한테 똥 닦는 법 알려주시는 유치원 선생님</t>
-  </si>
-  <si>
-    <t>짐 옮기는거 도와주는 리트리버들</t>
-  </si>
-  <si>
-    <t>방탄소년단, 오늘 미국 출국…LA 콘서트→시상식서 팬들 만난다</t>
+    <t>세븐틴 원 +</t>
+  </si>
+  <si>
+    <t>윤세원</t>
+  </si>
+  <si>
+    <t>강쥐강아쥐</t>
+  </si>
+  <si>
+    <t>풀썬이동혁</t>
+  </si>
+  <si>
+    <t>녹차말차킬러</t>
+  </si>
+  <si>
+    <t>몹시호시</t>
+  </si>
+  <si>
+    <t>ㄷH학수학능력</t>
+  </si>
+  <si>
+    <t>지수</t>
+  </si>
+  <si>
+    <t>.서로가 서로</t>
+  </si>
+  <si>
+    <t>일루전 커넥</t>
+  </si>
+  <si>
+    <t>뿌두구</t>
+  </si>
+  <si>
+    <t>몽몽댕</t>
+  </si>
+  <si>
+    <t>이리저리요리</t>
+  </si>
+  <si>
+    <t>디귿</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>남준선배</t>
+  </si>
+  <si>
+    <t>멍ㅇ멍이 소리</t>
+  </si>
+  <si>
+    <t>널 사랑해 영</t>
+  </si>
+  <si>
+    <t>패딩조끼</t>
+  </si>
+  <si>
+    <t>할리뱅입니더</t>
+  </si>
+  <si>
+    <t>닐라닐라</t>
+  </si>
+  <si>
+    <t>김영란</t>
+  </si>
+  <si>
+    <t>스트로베리문</t>
+  </si>
+  <si>
+    <t>미니온즈</t>
+  </si>
+  <si>
+    <t>옹성우박우진</t>
+  </si>
+  <si>
+    <t>세정언니링</t>
+  </si>
+  <si>
+    <t>계같네</t>
+  </si>
+  <si>
+    <t>호롤로롤롤</t>
+  </si>
+  <si>
+    <t>NUEST-W</t>
+  </si>
+  <si>
+    <t>박뚱시</t>
+  </si>
+  <si>
+    <t>데이비드썸원</t>
+  </si>
+  <si>
+    <t>슈슈슈슈슈슈</t>
+  </si>
+  <si>
+    <t>하니형</t>
+  </si>
+  <si>
+    <t>세훈이를업어</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>유기현 (25)</t>
+  </si>
+  <si>
+    <t>어니부깅</t>
+  </si>
+  <si>
+    <t>한 편의 너</t>
+  </si>
+  <si>
+    <t>다시 태어날</t>
+  </si>
+  <si>
+    <t>뭐야 너</t>
+  </si>
+  <si>
+    <t>바보같은그대</t>
+  </si>
+  <si>
+    <t>용시대박</t>
+  </si>
+  <si>
+    <t>JOSHUA95</t>
+  </si>
+  <si>
+    <t>중 천러</t>
+  </si>
+  <si>
+    <t>누눈나난</t>
+  </si>
+  <si>
+    <t>Twenty_Four</t>
+  </si>
+  <si>
+    <t>qksxks ghtjr</t>
+  </si>
+  <si>
+    <t>언행일치</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>우물밖 여고</t>
+  </si>
+  <si>
+    <t>마유</t>
+  </si>
+  <si>
+    <t>색지</t>
+  </si>
+  <si>
+    <t>벤츄리</t>
+  </si>
+  <si>
+    <t>더보이즈 영</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>보이프렌드 민</t>
+  </si>
+  <si>
+    <t>슈비룹</t>
+  </si>
+  <si>
+    <t>자두야♡♡</t>
+  </si>
+  <si>
+    <t>알케이</t>
+  </si>
+  <si>
+    <t>311342_return</t>
+  </si>
+  <si>
+    <t>시어머니블루</t>
+  </si>
+  <si>
+    <t>백챠</t>
+  </si>
+  <si>
+    <t>노츄캡짱</t>
+  </si>
+  <si>
+    <t>S.COUPS.</t>
+  </si>
+  <si>
+    <t>토끼네</t>
+  </si>
+  <si>
+    <t>쇼콘!23</t>
+  </si>
+  <si>
+    <t>윤정한 아내</t>
+  </si>
+  <si>
+    <t>굿데이_희진</t>
+  </si>
+  <si>
+    <t>마카롱꿀떡</t>
+  </si>
+  <si>
+    <t>장미장미</t>
+  </si>
+  <si>
+    <t>초코틴틴세븐</t>
+  </si>
+  <si>
+    <t>캐리와 장난감</t>
+  </si>
+  <si>
+    <t>더보이즈 상</t>
+  </si>
+  <si>
+    <t>녤피치</t>
+  </si>
+  <si>
+    <t>환조승연애</t>
+  </si>
+  <si>
+    <t>308679_return</t>
+  </si>
+  <si>
+    <t>뇌잘린</t>
+  </si>
+  <si>
+    <t>+ordin</t>
+  </si>
+  <si>
+    <t>꾸쭈꾸쭈</t>
+  </si>
+  <si>
+    <t>방탄소년단★</t>
+  </si>
+  <si>
+    <t>307559_return</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>임팩트FBI</t>
+  </si>
+  <si>
+    <t>♡김태형♡</t>
+  </si>
+  <si>
+    <t>김낑깡</t>
+  </si>
+  <si>
+    <t>Busu031</t>
+  </si>
+  <si>
+    <t>이진기(30)</t>
+  </si>
+  <si>
+    <t>무샤뮤샤</t>
+  </si>
+  <si>
+    <t>오징어게임 일</t>
+  </si>
+  <si>
+    <t>세기말</t>
   </si>
   <si>
     <t>남준이는왜이</t>
   </si>
   <si>
-    <t>♡김태형♡</t>
-  </si>
-  <si>
     <t>Wannable(워너</t>
   </si>
   <si>
-    <t>방탄소년단★</t>
-  </si>
-  <si>
-    <t>뇌잘린</t>
-  </si>
-  <si>
-    <t>임팩트FBI</t>
-  </si>
-  <si>
     <t>Jeddd</t>
   </si>
   <si>
-    <t>시어머니블루</t>
-  </si>
-  <si>
-    <t>오징어게임 일</t>
-  </si>
-  <si>
-    <t>멍ㅇ멍이 소리</t>
-  </si>
-  <si>
-    <t>비비의주인</t>
-  </si>
-  <si>
-    <t>無地태</t>
-  </si>
-  <si>
-    <t>김낑깡</t>
-  </si>
-  <si>
-    <t>옹뇸뇸뇸</t>
-  </si>
-  <si>
     <t>싯떼루네`ワ</t>
   </si>
   <si>
@@ -655,138 +892,51 @@
     <t>행복한왕만두</t>
   </si>
   <si>
-    <t>용시대박</t>
-  </si>
-  <si>
-    <t>세븐틴 원 +</t>
-  </si>
-  <si>
-    <t>데이비드썸원</t>
-  </si>
-  <si>
     <t>헤에에이~</t>
   </si>
   <si>
-    <t>지수</t>
-  </si>
-  <si>
-    <t>Busu031</t>
-  </si>
-  <si>
-    <t>한 편의 너</t>
-  </si>
-  <si>
-    <t>에자키카루</t>
-  </si>
-  <si>
     <t>아야나미</t>
   </si>
   <si>
-    <t>다시 태어날</t>
-  </si>
-  <si>
     <t>에자키히카루</t>
   </si>
   <si>
-    <t>언행일치</t>
-  </si>
-  <si>
-    <t>세정언니링</t>
-  </si>
-  <si>
-    <t>토끼네</t>
-  </si>
-  <si>
-    <t>따온</t>
-  </si>
-  <si>
     <t>'''</t>
   </si>
   <si>
     <t>그녀의이름은</t>
   </si>
   <si>
-    <t>세상에 잘생긴</t>
-  </si>
-  <si>
     <t>송희진</t>
   </si>
   <si>
-    <t>청량섹시 김태</t>
+    <t>311869_return</t>
+  </si>
+  <si>
+    <t>위례신다도시</t>
+  </si>
+  <si>
+    <t>까까까</t>
+  </si>
+  <si>
+    <t>게임을시작하</t>
   </si>
   <si>
     <t>김상연</t>
   </si>
   <si>
-    <t>311869_return</t>
-  </si>
-  <si>
-    <t>위례신다도시</t>
-  </si>
-  <si>
-    <t>원 + 원</t>
-  </si>
-  <si>
-    <t>펄스</t>
-  </si>
-  <si>
-    <t>알케이</t>
-  </si>
-  <si>
-    <t>널 사랑해 영</t>
-  </si>
-  <si>
-    <t>WANNA ONE 하</t>
-  </si>
-  <si>
-    <t>ㄷH학수학능력</t>
-  </si>
-  <si>
-    <t>311342_return</t>
-  </si>
-  <si>
-    <t>까까까</t>
-  </si>
-  <si>
-    <t>게임을시작하</t>
-  </si>
-  <si>
-    <t>누눈나난</t>
-  </si>
-  <si>
-    <t>디귿</t>
-  </si>
-  <si>
     <t>키토제닉</t>
   </si>
   <si>
-    <t>qksxks ghtjr</t>
-  </si>
-  <si>
-    <t>미니온즈</t>
-  </si>
-  <si>
     <t>다니엘_린데</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>션국이네 메르</t>
   </si>
   <si>
     <t>천러러러</t>
   </si>
   <si>
-    <t>윤정한 아내</t>
-  </si>
-  <si>
-    <t>캐리와 장난감</t>
-  </si>
-  <si>
-    <t>S.COUPS.</t>
-  </si>
-  <si>
     <t>해르반창식</t>
   </si>
   <si>
@@ -796,178 +946,337 @@
     <t>영은수</t>
   </si>
   <si>
-    <t>할리뱅입니더</t>
-  </si>
-  <si>
-    <t>She</t>
-  </si>
-  <si>
-    <t>더보이즈 상</t>
-  </si>
-  <si>
-    <t>몹시호시</t>
-  </si>
-  <si>
-    <t>JOSHUA95</t>
-  </si>
-  <si>
     <t>꿍치따치</t>
   </si>
   <si>
-    <t>보이프렌드 민</t>
-  </si>
-  <si>
     <t>던던둔둔</t>
   </si>
   <si>
     <t>깐부</t>
   </si>
   <si>
-    <t>성우야♡</t>
-  </si>
-  <si>
-    <t>이진기(30)</t>
-  </si>
-  <si>
-    <t>베리베리 연</t>
-  </si>
-  <si>
-    <t>더보이즈 김영</t>
-  </si>
-  <si>
-    <t>세기말</t>
-  </si>
-  <si>
-    <t>Side to Side</t>
-  </si>
-  <si>
-    <t>307559_return</t>
-  </si>
-  <si>
-    <t>solio</t>
-  </si>
-  <si>
-    <t>맠맠잉</t>
-  </si>
-  <si>
-    <t>이리저리요리</t>
-  </si>
-  <si>
-    <t>bongsunha22</t>
-  </si>
-  <si>
-    <t>마카롱꿀떡</t>
-  </si>
-  <si>
-    <t>유기현 (25)</t>
-  </si>
-  <si>
-    <t>백챠</t>
-  </si>
-  <si>
-    <t>사랑을먹고자</t>
-  </si>
-  <si>
-    <t>별빛쏟아지는</t>
-  </si>
-  <si>
-    <t>슈슈슈슈슈슈</t>
-  </si>
-  <si>
-    <t>kang7561</t>
-  </si>
-  <si>
-    <t>스트로베리문</t>
-  </si>
-  <si>
-    <t>태 리</t>
-  </si>
-  <si>
-    <t>토토얌</t>
-  </si>
-  <si>
-    <t>MANSAE</t>
-  </si>
-  <si>
-    <t>버가버가뷰</t>
-  </si>
-  <si>
-    <t>Twenty_Four</t>
-  </si>
-  <si>
-    <t>~~</t>
-  </si>
-  <si>
-    <t>나천재</t>
-  </si>
-  <si>
-    <t>야들아해장하</t>
-  </si>
-  <si>
-    <t>햅뿌</t>
-  </si>
-  <si>
-    <t>강쥐강아쥐</t>
-  </si>
-  <si>
-    <t>겟</t>
-  </si>
-  <si>
-    <t>세븐틴 비니</t>
-  </si>
-  <si>
-    <t>몽몽댕</t>
-  </si>
-  <si>
-    <t>sweetly</t>
-  </si>
-  <si>
-    <t>즐겨즐겨</t>
-  </si>
-  <si>
-    <t>벤츄리</t>
-  </si>
-  <si>
-    <t>오이카와 토비</t>
-  </si>
-  <si>
-    <t>중 천러</t>
-  </si>
-  <si>
-    <t>BGRU</t>
-  </si>
-  <si>
-    <t>쿵쾅맨</t>
-  </si>
-  <si>
-    <t>따릉해요</t>
-  </si>
-  <si>
-    <t>아이디할게너</t>
-  </si>
-  <si>
-    <t>윤세원</t>
-  </si>
-  <si>
-    <t>김성규내꺼`ワ</t>
-  </si>
-  <si>
-    <t>멍멍개</t>
-  </si>
-  <si>
-    <t>소고기 육전</t>
-  </si>
-  <si>
-    <t>사라나</t>
-  </si>
-  <si>
-    <t>닐라닐라</t>
-  </si>
-  <si>
-    <t>초코B</t>
-  </si>
-  <si>
-    <t>djekxn</t>
+    <t>2021.11.18 13:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:33</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:20</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:07</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 12:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:28</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 11:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:56</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:37</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 10:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 09:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:33</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 08:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:05</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 07:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 06:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 06:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 06:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 06:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:45</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 05:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:14</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:09</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 04:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 03:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 03:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:54</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:43</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:30</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:26</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:03</t>
+  </si>
+  <si>
+    <t>2021.11.18 02:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:39</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:35</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 01:12</t>
   </si>
   <si>
     <t>2021.11.18 01:09</t>
@@ -985,18 +1294,9 @@
     <t>2021.11.18 00:48</t>
   </si>
   <si>
-    <t>2021.11.18 00:47</t>
-  </si>
-  <si>
     <t>2021.11.18 00:44</t>
   </si>
   <si>
-    <t>2021.11.18 00:42</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:40</t>
-  </si>
-  <si>
     <t>2021.11.18 00:39</t>
   </si>
   <si>
@@ -1006,9 +1306,6 @@
     <t>2021.11.18 00:21</t>
   </si>
   <si>
-    <t>2021.11.18 00:18</t>
-  </si>
-  <si>
     <t>2021.11.18 00:13</t>
   </si>
   <si>
@@ -1018,730 +1315,700 @@
     <t>2021.11.17</t>
   </si>
   <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>3631</t>
+  </si>
+  <si>
+    <t>2652</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>5185</t>
+  </si>
+  <si>
+    <t>7939</t>
+  </si>
+  <si>
+    <t>2317</t>
+  </si>
+  <si>
+    <t>6064</t>
+  </si>
+  <si>
+    <t>6148</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>8712</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>3286</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>4260</t>
+  </si>
+  <si>
+    <t>5204</t>
+  </si>
+  <si>
+    <t>19233</t>
+  </si>
+  <si>
+    <t>4631</t>
+  </si>
+  <si>
+    <t>3169</t>
+  </si>
+  <si>
+    <t>10287</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>3083</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>17247</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>2266</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>16902</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>10322</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>4180</t>
+  </si>
+  <si>
+    <t>4339</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>12823</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>21686</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>3444</t>
+  </si>
+  <si>
+    <t>3332</t>
+  </si>
+  <si>
+    <t>15729</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>21525</t>
+  </si>
+  <si>
+    <t>10421</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>23202</t>
+  </si>
+  <si>
+    <t>24608</t>
+  </si>
+  <si>
+    <t>7953</t>
+  </si>
+  <si>
+    <t>2122</t>
+  </si>
+  <si>
+    <t>3328</t>
+  </si>
+  <si>
+    <t>4869</t>
+  </si>
+  <si>
+    <t>7930</t>
+  </si>
+  <si>
+    <t>18293</t>
+  </si>
+  <si>
+    <t>24345</t>
+  </si>
+  <si>
+    <t>7285</t>
+  </si>
+  <si>
+    <t>31131</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>21114</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>6873</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>2669</t>
+  </si>
+  <si>
+    <t>13135</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>45159</t>
+  </si>
+  <si>
+    <t>14641</t>
+  </si>
+  <si>
+    <t>22423</t>
+  </si>
+  <si>
+    <t>10699</t>
+  </si>
+  <si>
+    <t>28417</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>5945</t>
+  </si>
+  <si>
+    <t>2454</t>
+  </si>
+  <si>
+    <t>47828</t>
+  </si>
+  <si>
+    <t>2540</t>
+  </si>
+  <si>
+    <t>15124</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>32269</t>
+  </si>
+  <si>
+    <t>8144</t>
+  </si>
+  <si>
+    <t>4731</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>5531</t>
+  </si>
+  <si>
+    <t>18446</t>
+  </si>
+  <si>
+    <t>5249</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>9221</t>
+  </si>
+  <si>
+    <t>5369</t>
+  </si>
+  <si>
+    <t>6390</t>
+  </si>
+  <si>
+    <t>3511</t>
+  </si>
+  <si>
+    <t>3833</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>3959</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>5033</t>
+  </si>
+  <si>
+    <t>3815</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>7780</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>2471</t>
+  </si>
+  <si>
+    <t>11790</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>4480</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>15060</t>
+  </si>
+  <si>
+    <t>12253</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>3942</t>
+  </si>
+  <si>
+    <t>6839</t>
+  </si>
+  <si>
+    <t>12667</t>
+  </si>
+  <si>
+    <t>3409</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>14798</t>
+  </si>
+  <si>
+    <t>17093</t>
+  </si>
+  <si>
+    <t>3318</t>
+  </si>
+  <si>
+    <t>67017</t>
+  </si>
+  <si>
+    <t>7533</t>
+  </si>
+  <si>
+    <t>5837</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>3726</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>13845</t>
+  </si>
+  <si>
+    <t>19386</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>13297</t>
+  </si>
+  <si>
+    <t>2914</t>
+  </si>
+  <si>
+    <t>61361</t>
+  </si>
+  <si>
+    <t>18824</t>
+  </si>
+  <si>
+    <t>14493</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>5594</t>
+  </si>
+  <si>
+    <t>8433</t>
+  </si>
+  <si>
+    <t>17886</t>
+  </si>
+  <si>
+    <t>14793</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>4076</t>
+  </si>
+  <si>
+    <t>7472</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>41464</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2684</t>
+  </si>
+  <si>
+    <t>30277</t>
+  </si>
+  <si>
+    <t>8368</t>
+  </si>
+  <si>
+    <t>25490</t>
+  </si>
+  <si>
+    <t>7704</t>
+  </si>
+  <si>
+    <t>28733</t>
+  </si>
+  <si>
+    <t>10970</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>30096</t>
+  </si>
+  <si>
+    <t>119506</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>38495</t>
+  </si>
+  <si>
+    <t>4374</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>7373</t>
+  </si>
+  <si>
+    <t>3485</t>
+  </si>
+  <si>
+    <t>2535</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>4560</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>1642</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>3959</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>1459</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>3559</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>2446</t>
-  </si>
-  <si>
-    <t>5872</t>
-  </si>
-  <si>
-    <t>7107</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>7303</t>
-  </si>
-  <si>
-    <t>9584</t>
-  </si>
-  <si>
-    <t>4637</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>2855</t>
-  </si>
-  <si>
-    <t>2691</t>
-  </si>
-  <si>
-    <t>11188</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>6668</t>
-  </si>
-  <si>
-    <t>5289</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>3431</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>3667</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>11649</t>
-  </si>
-  <si>
-    <t>15489</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>2438</t>
-  </si>
-  <si>
-    <t>12186</t>
-  </si>
-  <si>
-    <t>1662</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>15038</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>17260</t>
-  </si>
-  <si>
-    <t>13335</t>
-  </si>
-  <si>
-    <t>2870</t>
-  </si>
-  <si>
-    <t>4071</t>
-  </si>
-  <si>
-    <t>8201</t>
-  </si>
-  <si>
-    <t>15507</t>
-  </si>
-  <si>
-    <t>12642</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>3344</t>
-  </si>
-  <si>
-    <t>7141</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>1857</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>17534</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>2521</t>
-  </si>
-  <si>
-    <t>25176</t>
-  </si>
-  <si>
-    <t>7662</t>
-  </si>
-  <si>
-    <t>15261</t>
-  </si>
-  <si>
-    <t>7390</t>
-  </si>
-  <si>
-    <t>27513</t>
-  </si>
-  <si>
-    <t>10580</t>
-  </si>
-  <si>
-    <t>2528</t>
-  </si>
-  <si>
-    <t>3783</t>
-  </si>
-  <si>
-    <t>5740</t>
-  </si>
-  <si>
-    <t>4167</t>
-  </si>
-  <si>
-    <t>25666</t>
-  </si>
-  <si>
-    <t>43956</t>
-  </si>
-  <si>
-    <t>2896</t>
-  </si>
-  <si>
-    <t>35715</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>1513</t>
-  </si>
-  <si>
-    <t>6618</t>
-  </si>
-  <si>
-    <t>3158</t>
-  </si>
-  <si>
-    <t>2382</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>4230</t>
-  </si>
-  <si>
-    <t>1572</t>
-  </si>
-  <si>
-    <t>4362</t>
-  </si>
-  <si>
-    <t>43733</t>
-  </si>
-  <si>
-    <t>14549</t>
-  </si>
-  <si>
-    <t>26889</t>
-  </si>
-  <si>
-    <t>2492</t>
-  </si>
-  <si>
-    <t>2692</t>
-  </si>
-  <si>
-    <t>3302</t>
-  </si>
-  <si>
-    <t>53948</t>
-  </si>
-  <si>
-    <t>2872</t>
-  </si>
-  <si>
-    <t>4824</t>
-  </si>
-  <si>
-    <t>33754</t>
-  </si>
-  <si>
-    <t>17335</t>
-  </si>
-  <si>
-    <t>1522</t>
-  </si>
-  <si>
-    <t>58945</t>
-  </si>
-  <si>
-    <t>3514</t>
-  </si>
-  <si>
-    <t>42999</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>21238</t>
-  </si>
-  <si>
-    <t>59973</t>
-  </si>
-  <si>
-    <t>9033</t>
-  </si>
-  <si>
-    <t>5263</t>
-  </si>
-  <si>
-    <t>4072</t>
-  </si>
-  <si>
-    <t>4130</t>
-  </si>
-  <si>
-    <t>4862</t>
-  </si>
-  <si>
-    <t>41264</t>
-  </si>
-  <si>
-    <t>9049</t>
-  </si>
-  <si>
-    <t>28545</t>
-  </si>
-  <si>
-    <t>9588</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>3640</t>
-  </si>
-  <si>
-    <t>3577</t>
-  </si>
-  <si>
-    <t>2195</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>25706</t>
-  </si>
-  <si>
-    <t>4351</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>19777</t>
-  </si>
-  <si>
-    <t>29756</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>37150</t>
-  </si>
-  <si>
-    <t>4850</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>11647</t>
-  </si>
-  <si>
-    <t>9986</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>10505</t>
-  </si>
-  <si>
-    <t>4435</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>4154</t>
-  </si>
-  <si>
-    <t>6535</t>
-  </si>
-  <si>
-    <t>1757</t>
-  </si>
-  <si>
-    <t>18595</t>
-  </si>
-  <si>
-    <t>9137</t>
-  </si>
-  <si>
-    <t>11756</t>
-  </si>
-  <si>
-    <t>2734</t>
-  </si>
-  <si>
-    <t>3169</t>
-  </si>
-  <si>
-    <t>52531</t>
-  </si>
-  <si>
-    <t>1525</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>5113</t>
-  </si>
-  <si>
-    <t>26730</t>
-  </si>
-  <si>
-    <t>4340</t>
-  </si>
-  <si>
-    <t>32426</t>
-  </si>
-  <si>
-    <t>14240</t>
-  </si>
-  <si>
-    <t>44826</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>19113</t>
-  </si>
-  <si>
-    <t>11803</t>
-  </si>
-  <si>
-    <t>5181</t>
-  </si>
-  <si>
-    <t>16431</t>
-  </si>
-  <si>
-    <t>8136</t>
-  </si>
-  <si>
-    <t>8103</t>
-  </si>
-  <si>
-    <t>3968</t>
-  </si>
-  <si>
-    <t>14225</t>
-  </si>
-  <si>
-    <t>16657</t>
-  </si>
-  <si>
-    <t>3593</t>
-  </si>
-  <si>
-    <t>9619</t>
-  </si>
-  <si>
-    <t>91213</t>
-  </si>
-  <si>
-    <t>30068</t>
-  </si>
-  <si>
-    <t>22190</t>
-  </si>
-  <si>
-    <t>54818</t>
-  </si>
-  <si>
-    <t>83783</t>
-  </si>
-  <si>
-    <t>4419</t>
-  </si>
-  <si>
-    <t>20222</t>
-  </si>
-  <si>
-    <t>1645</t>
-  </si>
-  <si>
-    <t>35177</t>
-  </si>
-  <si>
-    <t>4014</t>
-  </si>
-  <si>
-    <t>12932</t>
-  </si>
-  <si>
-    <t>13238</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>157</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -2136,16 +2403,16 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="F2" t="s">
+        <v>621</v>
       </c>
       <c r="G2" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2159,16 +2426,16 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2182,16 +2449,16 @@
         <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>622</v>
       </c>
       <c r="G4" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2205,16 +2472,16 @@
         <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>436</v>
+      </c>
+      <c r="F5" t="s">
+        <v>623</v>
       </c>
       <c r="G5" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2228,16 +2495,16 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="F6" t="s">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2251,16 +2518,16 @@
         <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2274,16 +2541,16 @@
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>439</v>
+      </c>
+      <c r="F8" t="s">
+        <v>623</v>
       </c>
       <c r="G8" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2297,16 +2564,16 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>625</v>
       </c>
       <c r="G9" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2317,19 +2584,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="F10" t="s">
+        <v>621</v>
       </c>
       <c r="G10" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2340,19 +2607,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="G11" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2363,19 +2630,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="F12" t="s">
+        <v>627</v>
       </c>
       <c r="G12" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2386,19 +2653,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2409,19 +2676,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2432,19 +2699,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>446</v>
+      </c>
+      <c r="F15" t="s">
+        <v>623</v>
       </c>
       <c r="G15" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2455,19 +2722,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2478,19 +2745,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F17" t="s">
-        <v>521</v>
+        <v>448</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2501,19 +2768,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>327</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="F18" t="s">
+        <v>628</v>
       </c>
       <c r="G18" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2524,19 +2791,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="F19" t="s">
-        <v>334</v>
+        <v>629</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2547,19 +2814,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" t="s">
-        <v>523</v>
+        <v>451</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2570,19 +2837,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
         <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2593,19 +2860,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
         <v>330</v>
       </c>
       <c r="E22" t="s">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2616,19 +2883,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
         <v>331</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>454</v>
+      </c>
+      <c r="F23" t="s">
+        <v>623</v>
       </c>
       <c r="G23" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2639,19 +2906,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
-        <v>524</v>
+        <v>630</v>
       </c>
       <c r="G24" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2662,19 +2929,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
+        <v>631</v>
       </c>
       <c r="G25" t="s">
-        <v>523</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2685,19 +2952,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="F26" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G26" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2708,19 +2975,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2731,19 +2998,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+        <v>459</v>
+      </c>
+      <c r="F28" t="s">
+        <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2754,19 +3021,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
-        <v>361</v>
-      </c>
-      <c r="F29" t="s">
-        <v>334</v>
+        <v>460</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2777,19 +3044,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F30" t="s">
-        <v>527</v>
+        <v>461</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2800,19 +3067,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>363</v>
-      </c>
-      <c r="F31" t="s">
-        <v>528</v>
+        <v>462</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>524</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2823,19 +3090,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>463</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2846,19 +3113,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E33" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2869,19 +3136,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2892,19 +3159,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>632</v>
       </c>
       <c r="G35" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2915,19 +3182,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" t="s">
-        <v>529</v>
+        <v>467</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2938,19 +3205,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="F37" t="s">
+        <v>621</v>
       </c>
       <c r="G37" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2961,19 +3228,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E38" t="s">
-        <v>369</v>
+        <v>469</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2984,19 +3251,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E39" t="s">
-        <v>370</v>
+        <v>470</v>
       </c>
       <c r="F39" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="G39" t="s">
-        <v>526</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3007,19 +3274,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>371</v>
-      </c>
-      <c r="F40" t="s">
-        <v>521</v>
+        <v>471</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3030,19 +3297,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>472</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3053,19 +3320,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3076,19 +3343,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3099,19 +3366,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3122,19 +3389,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="E45" t="s">
-        <v>376</v>
+        <v>476</v>
       </c>
       <c r="F45" t="s">
-        <v>334</v>
+        <v>634</v>
       </c>
       <c r="G45" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3145,19 +3412,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="E46" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3168,19 +3435,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E47" t="s">
-        <v>378</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+        <v>478</v>
+      </c>
+      <c r="F47" t="s">
+        <v>621</v>
       </c>
       <c r="G47" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3191,19 +3458,19 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s">
-        <v>379</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="F48" t="s">
+        <v>624</v>
       </c>
       <c r="G48" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3214,19 +3481,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E49" t="s">
-        <v>380</v>
-      </c>
-      <c r="F49" t="s">
-        <v>531</v>
+        <v>480</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3237,19 +3504,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E50" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="F50" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="G50" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3260,19 +3527,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="F51" t="s">
+        <v>636</v>
       </c>
       <c r="G51" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3283,19 +3550,19 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E52" t="s">
-        <v>382</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+        <v>483</v>
+      </c>
+      <c r="F52" t="s">
+        <v>637</v>
       </c>
       <c r="G52" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3306,19 +3573,19 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
       <c r="G53" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3329,19 +3596,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="F54" t="s">
-        <v>533</v>
+        <v>621</v>
       </c>
       <c r="G54" t="s">
-        <v>521</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3352,19 +3619,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D55" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3375,19 +3642,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D56" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="F56" t="s">
+        <v>626</v>
       </c>
       <c r="G56" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3398,19 +3665,19 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D57" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
-      </c>
-      <c r="F57" t="s">
-        <v>334</v>
+        <v>488</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3421,19 +3688,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="E58" t="s">
-        <v>387</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="F58" t="s">
+        <v>638</v>
       </c>
       <c r="G58" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3444,19 +3711,19 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="E59" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>622</v>
       </c>
       <c r="G59" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3467,19 +3734,19 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
       <c r="G60" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3490,19 +3757,19 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="E61" t="s">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3513,19 +3780,19 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="E62" t="s">
-        <v>391</v>
+        <v>493</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
       <c r="G62" t="s">
-        <v>524</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3536,19 +3803,19 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E63" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="F63" t="s">
-        <v>535</v>
+        <v>640</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3559,19 +3826,19 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="F64" t="s">
-        <v>334</v>
+        <v>641</v>
       </c>
       <c r="G64" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3582,19 +3849,19 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E65" t="s">
-        <v>394</v>
+        <v>496</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>642</v>
       </c>
       <c r="G65" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3605,19 +3872,19 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>395</v>
+        <v>497</v>
       </c>
       <c r="F66" t="s">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="G66" t="s">
-        <v>526</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3628,19 +3895,19 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="E67" t="s">
-        <v>396</v>
+        <v>498</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="G67" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3651,19 +3918,19 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="E68" t="s">
-        <v>397</v>
+        <v>499</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
+        <v>630</v>
       </c>
       <c r="G68" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3674,19 +3941,19 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D69" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="E69" t="s">
-        <v>398</v>
+        <v>500</v>
       </c>
       <c r="F69" t="s">
-        <v>334</v>
+        <v>630</v>
       </c>
       <c r="G69" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3697,19 +3964,19 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>643</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3720,19 +3987,19 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="E71" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="F71" t="s">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="G71" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3743,19 +4010,19 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>645</v>
       </c>
       <c r="G72" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3766,19 +4033,19 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="F73" t="s">
-        <v>526</v>
+        <v>646</v>
       </c>
       <c r="G73" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3789,19 +4056,19 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="E74" t="s">
-        <v>403</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="F74" t="s">
+        <v>621</v>
       </c>
       <c r="G74" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3812,19 +4079,19 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="F75" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="G75" t="s">
-        <v>543</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3835,19 +4102,19 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>405</v>
-      </c>
-      <c r="F76" t="s">
-        <v>334</v>
+        <v>507</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3858,19 +4125,19 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D77" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>406</v>
+        <v>508</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>624</v>
       </c>
       <c r="G77" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3881,19 +4148,19 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
       <c r="F78" t="s">
-        <v>529</v>
+        <v>624</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3904,19 +4171,19 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>408</v>
-      </c>
-      <c r="F79" t="s">
-        <v>530</v>
+        <v>510</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3927,19 +4194,19 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="E80" t="s">
-        <v>409</v>
+        <v>511</v>
       </c>
       <c r="F80" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="G80" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3950,19 +4217,19 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D81" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="E81" t="s">
-        <v>410</v>
+        <v>512</v>
       </c>
       <c r="F81" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3973,19 +4240,19 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="E82" t="s">
-        <v>411</v>
+        <v>513</v>
       </c>
       <c r="F82" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="G82" t="s">
-        <v>528</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3996,19 +4263,19 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>514</v>
       </c>
       <c r="F83" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
       <c r="G83" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4019,19 +4286,19 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="E84" t="s">
-        <v>413</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="F84" t="s">
+        <v>621</v>
       </c>
       <c r="G84" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4042,19 +4309,19 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="E85" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="F85" t="s">
-        <v>334</v>
+        <v>647</v>
       </c>
       <c r="G85" t="s">
-        <v>334</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4065,19 +4332,19 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D86" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="E86" t="s">
-        <v>415</v>
+        <v>517</v>
       </c>
       <c r="F86" t="s">
-        <v>524</v>
+        <v>648</v>
       </c>
       <c r="G86" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4088,19 +4355,19 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D87" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>444</v>
       </c>
       <c r="G87" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4111,19 +4378,19 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D88" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
-        <v>417</v>
+        <v>519</v>
       </c>
       <c r="F88" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="G88" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4134,19 +4401,19 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="G89" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4157,19 +4424,19 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="E90" t="s">
-        <v>419</v>
+        <v>521</v>
       </c>
       <c r="F90" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="G90" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4180,19 +4447,19 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
-        <v>420</v>
-      </c>
-      <c r="F91" t="s">
-        <v>532</v>
+        <v>522</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4203,19 +4470,19 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="E92" t="s">
-        <v>421</v>
+        <v>523</v>
       </c>
       <c r="F92" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
       <c r="G92" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4226,19 +4493,19 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D93" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="E93" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="F93" t="s">
-        <v>539</v>
+        <v>649</v>
       </c>
       <c r="G93" t="s">
-        <v>334</v>
+        <v>653</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4249,19 +4516,19 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="E94" t="s">
-        <v>423</v>
+        <v>525</v>
       </c>
       <c r="F94" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="G94" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4272,19 +4539,19 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s">
-        <v>424</v>
+        <v>526</v>
       </c>
       <c r="F95" t="s">
-        <v>526</v>
+        <v>650</v>
       </c>
       <c r="G95" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4295,19 +4562,19 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="E96" t="s">
-        <v>425</v>
+        <v>527</v>
       </c>
       <c r="F96" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G96" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4318,19 +4585,19 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="E97" t="s">
-        <v>426</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="F97" t="s">
+        <v>651</v>
       </c>
       <c r="G97" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4341,19 +4608,19 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="D98" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>529</v>
       </c>
       <c r="F98" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="G98" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4364,19 +4631,19 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>530</v>
       </c>
       <c r="F99" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="G99" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4387,19 +4654,19 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>429</v>
+        <v>531</v>
       </c>
       <c r="F100" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="G100" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4410,19 +4677,19 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="E101" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="F101" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="G101" t="s">
-        <v>523</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4433,19 +4700,19 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="E102" t="s">
-        <v>431</v>
+        <v>533</v>
       </c>
       <c r="F102" t="s">
-        <v>531</v>
+        <v>652</v>
       </c>
       <c r="G102" t="s">
-        <v>543</v>
+        <v>642</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4456,19 +4723,19 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="E103" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="F103" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="G103" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4479,19 +4746,19 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="E104" t="s">
-        <v>433</v>
+        <v>535</v>
       </c>
       <c r="F104" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="G104" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4502,19 +4769,19 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
-        <v>434</v>
+        <v>536</v>
       </c>
       <c r="F105" t="s">
-        <v>539</v>
+        <v>624</v>
       </c>
       <c r="G105" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4528,16 +4795,16 @@
         <v>274</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="E106" t="s">
-        <v>435</v>
+        <v>537</v>
       </c>
       <c r="F106" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="G106" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4548,19 +4815,19 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="E107" t="s">
-        <v>436</v>
+        <v>538</v>
       </c>
       <c r="F107" t="s">
-        <v>547</v>
+        <v>642</v>
       </c>
       <c r="G107" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4571,19 +4838,19 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="E108" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="F108" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
       <c r="G108" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4594,19 +4861,19 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="F109" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
       <c r="G109" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4617,19 +4884,19 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="D110" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="E110" t="s">
-        <v>439</v>
+        <v>541</v>
       </c>
       <c r="F110" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="G110" t="s">
-        <v>522</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4640,19 +4907,19 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="E111" t="s">
-        <v>440</v>
+        <v>542</v>
       </c>
       <c r="F111" t="s">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="G111" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4663,19 +4930,19 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="E112" t="s">
-        <v>441</v>
+        <v>543</v>
       </c>
       <c r="F112" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="G112" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4686,19 +4953,19 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D113" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="E113" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
       <c r="F113" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="G113" t="s">
-        <v>521</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4709,19 +4976,19 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="E114" t="s">
-        <v>443</v>
+        <v>545</v>
       </c>
       <c r="F114" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="G114" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4732,19 +4999,19 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D115" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>546</v>
       </c>
       <c r="F115" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="G115" t="s">
-        <v>530</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4755,19 +5022,19 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="D116" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="E116" t="s">
-        <v>445</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="F116" t="s">
+        <v>624</v>
       </c>
       <c r="G116" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4778,19 +5045,19 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="D117" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="E117" t="s">
-        <v>446</v>
+        <v>548</v>
       </c>
       <c r="F117" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="G117" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4801,19 +5068,19 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
-      </c>
-      <c r="F118" t="s">
-        <v>551</v>
+        <v>549</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4824,19 +5091,19 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>550</v>
       </c>
       <c r="F119" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="G119" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4847,19 +5114,19 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="E120" t="s">
-        <v>449</v>
+        <v>551</v>
       </c>
       <c r="F120" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G120" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4870,19 +5137,19 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="D121" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="E121" t="s">
-        <v>450</v>
-      </c>
-      <c r="F121" t="s">
-        <v>334</v>
+        <v>444</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4893,19 +5160,19 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="D122" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="E122" t="s">
-        <v>451</v>
+        <v>552</v>
       </c>
       <c r="F122" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="G122" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4916,19 +5183,19 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="E123" t="s">
-        <v>452</v>
+        <v>553</v>
       </c>
       <c r="F123" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="G123" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4939,19 +5206,19 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="E124" t="s">
-        <v>453</v>
+        <v>554</v>
       </c>
       <c r="F124" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="G124" t="s">
-        <v>573</v>
+        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4962,19 +5229,19 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="D125" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="E125" t="s">
-        <v>454</v>
+        <v>555</v>
       </c>
       <c r="F125" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="G125" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4985,19 +5252,19 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E126" t="s">
-        <v>455</v>
-      </c>
-      <c r="F126" t="s">
-        <v>554</v>
+        <v>556</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5008,19 +5275,19 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="E127" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="F127" t="s">
-        <v>555</v>
+        <v>650</v>
       </c>
       <c r="G127" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5031,19 +5298,19 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="E128" t="s">
-        <v>457</v>
-      </c>
-      <c r="F128" t="s">
-        <v>526</v>
+        <v>558</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5054,19 +5321,19 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="E129" t="s">
-        <v>458</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="F129" t="s">
+        <v>653</v>
       </c>
       <c r="G129" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5077,19 +5344,19 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="E130" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
       <c r="F130" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G130" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5100,19 +5367,19 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>426</v>
       </c>
       <c r="E131" t="s">
-        <v>460</v>
+        <v>561</v>
       </c>
       <c r="F131" t="s">
-        <v>530</v>
+        <v>625</v>
       </c>
       <c r="G131" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5123,19 +5390,19 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D132" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="E132" t="s">
-        <v>461</v>
+        <v>562</v>
       </c>
       <c r="F132" t="s">
-        <v>334</v>
+        <v>654</v>
       </c>
       <c r="G132" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5146,19 +5413,19 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
-        <v>462</v>
+        <v>563</v>
       </c>
       <c r="F133" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="G133" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5169,19 +5436,19 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D134" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="E134" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="F134" t="s">
-        <v>521</v>
+        <v>628</v>
       </c>
       <c r="G134" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5192,19 +5459,19 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="D135" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="E135" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="F135" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="G135" t="s">
-        <v>334</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5215,19 +5482,19 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="E136" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="F136" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="G136" t="s">
-        <v>536</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5238,19 +5505,19 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E137" t="s">
-        <v>466</v>
+        <v>567</v>
       </c>
       <c r="F137" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="G137" t="s">
-        <v>552</v>
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5261,19 +5528,19 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E138" t="s">
-        <v>467</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
+        <v>568</v>
+      </c>
+      <c r="F138" t="s">
+        <v>621</v>
       </c>
       <c r="G138" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5284,19 +5551,19 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E139" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
       <c r="F139" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="G139" t="s">
-        <v>527</v>
+        <v>663</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5307,19 +5574,19 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D140" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="F140" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="G140" t="s">
-        <v>334</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5330,19 +5597,19 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="D141" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E141" t="s">
-        <v>470</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
+        <v>571</v>
+      </c>
+      <c r="F141" t="s">
+        <v>621</v>
       </c>
       <c r="G141" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5353,19 +5620,19 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D142" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E142" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
       <c r="F142" t="s">
-        <v>334</v>
+        <v>656</v>
       </c>
       <c r="G142" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5376,19 +5643,19 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E143" t="s">
-        <v>472</v>
+        <v>573</v>
       </c>
       <c r="F143" t="s">
-        <v>526</v>
+        <v>642</v>
       </c>
       <c r="G143" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5399,19 +5666,19 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E144" t="s">
-        <v>473</v>
+        <v>574</v>
       </c>
       <c r="F144" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="G144" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5422,19 +5689,19 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D145" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E145" t="s">
-        <v>474</v>
-      </c>
-      <c r="F145" t="s">
-        <v>546</v>
+        <v>575</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5445,19 +5712,19 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D146" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E146" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5468,19 +5735,19 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="D147" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E147" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="F147" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
       <c r="G147" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5491,19 +5758,19 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E148" t="s">
-        <v>477</v>
+        <v>578</v>
       </c>
       <c r="F148" t="s">
-        <v>530</v>
+        <v>650</v>
       </c>
       <c r="G148" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5514,19 +5781,19 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E149" t="s">
-        <v>478</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
+        <v>579</v>
+      </c>
+      <c r="F149" t="s">
+        <v>641</v>
       </c>
       <c r="G149" t="s">
-        <v>334</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5537,19 +5804,19 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E150" t="s">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="F150" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
       <c r="G150" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5560,19 +5827,19 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E151" t="s">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="F151" t="s">
-        <v>560</v>
+        <v>657</v>
       </c>
       <c r="G151" t="s">
-        <v>526</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5583,19 +5850,19 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="D152" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E152" t="s">
-        <v>481</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="F152" t="s">
+        <v>621</v>
       </c>
       <c r="G152" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5606,19 +5873,19 @@
         <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="D153" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E153" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="F153" t="s">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="G153" t="s">
-        <v>524</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5629,19 +5896,19 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="D154" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E154" t="s">
-        <v>483</v>
+        <v>583</v>
       </c>
       <c r="F154" t="s">
-        <v>535</v>
+        <v>658</v>
       </c>
       <c r="G154" t="s">
-        <v>334</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5652,19 +5919,19 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="D155" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E155" t="s">
-        <v>484</v>
+        <v>584</v>
       </c>
       <c r="F155" t="s">
-        <v>540</v>
+        <v>632</v>
       </c>
       <c r="G155" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5678,16 +5945,16 @@
         <v>300</v>
       </c>
       <c r="D156" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E156" t="s">
-        <v>485</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
+        <v>585</v>
+      </c>
+      <c r="F156" t="s">
+        <v>632</v>
       </c>
       <c r="G156" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5701,16 +5968,16 @@
         <v>301</v>
       </c>
       <c r="D157" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E157" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="F157" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
       <c r="G157" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5721,19 +5988,19 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="D158" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E158" t="s">
-        <v>487</v>
+        <v>587</v>
       </c>
       <c r="F158" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="G158" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5744,19 +6011,19 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D159" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E159" t="s">
-        <v>488</v>
+        <v>588</v>
       </c>
       <c r="F159" t="s">
-        <v>334</v>
+        <v>652</v>
       </c>
       <c r="G159" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5767,19 +6034,19 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="D160" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E160" t="s">
-        <v>489</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
+        <v>589</v>
+      </c>
+      <c r="F160" t="s">
+        <v>627</v>
       </c>
       <c r="G160" t="s">
-        <v>526</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5793,16 +6060,16 @@
         <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E161" t="s">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="F161" t="s">
-        <v>524</v>
+        <v>655</v>
       </c>
       <c r="G161" t="s">
-        <v>526</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5813,19 +6080,19 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="D162" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E162" t="s">
-        <v>491</v>
+        <v>591</v>
       </c>
       <c r="F162" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
       <c r="G162" t="s">
-        <v>536</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5836,19 +6103,19 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D163" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E163" t="s">
-        <v>492</v>
+        <v>592</v>
       </c>
       <c r="F163" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="G163" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5859,19 +6126,19 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D164" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E164" t="s">
-        <v>493</v>
+        <v>593</v>
       </c>
       <c r="F164" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="G164" t="s">
-        <v>531</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5882,19 +6149,19 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="D165" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E165" t="s">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="F165" t="s">
-        <v>521</v>
+        <v>621</v>
       </c>
       <c r="G165" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5905,19 +6172,19 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="D166" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E166" t="s">
-        <v>495</v>
+        <v>595</v>
       </c>
       <c r="F166" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="G166" t="s">
-        <v>523</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5928,19 +6195,19 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="D167" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E167" t="s">
-        <v>496</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
+        <v>596</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5951,19 +6218,19 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D168" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E168" t="s">
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="F168" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="G168" t="s">
-        <v>524</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5974,19 +6241,19 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="D169" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E169" t="s">
-        <v>498</v>
+        <v>598</v>
       </c>
       <c r="F169" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
       <c r="G169" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5997,19 +6264,19 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D170" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E170" t="s">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="F170" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G170" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6020,19 +6287,19 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E171" t="s">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F171" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="G171" t="s">
-        <v>543</v>
+        <v>661</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6043,19 +6310,19 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="D172" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E172" t="s">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>536</v>
+        <v>642</v>
       </c>
       <c r="G172" t="s">
-        <v>527</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6066,19 +6333,19 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D173" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E173" t="s">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="F173" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="G173" t="s">
-        <v>538</v>
+        <v>653</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6089,19 +6356,19 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D174" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E174" t="s">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="F174" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="G174" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6112,19 +6379,19 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D175" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E175" t="s">
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="F175" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="G175" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6135,19 +6402,19 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D176" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E176" t="s">
-        <v>505</v>
+        <v>605</v>
       </c>
       <c r="F176" t="s">
-        <v>566</v>
+        <v>653</v>
       </c>
       <c r="G176" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6158,19 +6425,19 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E177" t="s">
-        <v>506</v>
-      </c>
-      <c r="F177" t="s">
-        <v>334</v>
+        <v>606</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6181,19 +6448,19 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D178" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E178" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="F178" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="G178" t="s">
-        <v>334</v>
+        <v>621</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6204,19 +6471,19 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="D179" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E179" t="s">
-        <v>508</v>
+        <v>608</v>
       </c>
       <c r="F179" t="s">
-        <v>445</v>
+        <v>629</v>
       </c>
       <c r="G179" t="s">
-        <v>524</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6227,19 +6494,19 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D180" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E180" t="s">
-        <v>509</v>
+        <v>609</v>
       </c>
       <c r="F180" t="s">
-        <v>426</v>
+        <v>642</v>
       </c>
       <c r="G180" t="s">
-        <v>523</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6250,19 +6517,19 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D181" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E181" t="s">
-        <v>510</v>
+        <v>610</v>
       </c>
       <c r="F181" t="s">
-        <v>540</v>
+        <v>644</v>
       </c>
       <c r="G181" t="s">
-        <v>522</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6273,19 +6540,19 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D182" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E182" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="F182" t="s">
-        <v>567</v>
+        <v>660</v>
       </c>
       <c r="G182" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6296,19 +6563,19 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="D183" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E183" t="s">
-        <v>512</v>
+        <v>612</v>
       </c>
       <c r="F183" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="G183" t="s">
-        <v>546</v>
+        <v>662</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6319,19 +6586,19 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="D184" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E184" t="s">
-        <v>513</v>
+        <v>613</v>
       </c>
       <c r="F184" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="G184" t="s">
-        <v>334</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6342,19 +6609,19 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E185" t="s">
-        <v>514</v>
+        <v>614</v>
       </c>
       <c r="F185" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="G185" t="s">
-        <v>558</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6365,19 +6632,19 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="D186" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E186" t="s">
-        <v>515</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="F186" t="s">
+        <v>624</v>
       </c>
       <c r="G186" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6388,19 +6655,19 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="D187" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E187" t="s">
-        <v>516</v>
+        <v>616</v>
       </c>
       <c r="F187" t="s">
-        <v>426</v>
+        <v>648</v>
       </c>
       <c r="G187" t="s">
-        <v>558</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6411,19 +6678,19 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="D188" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E188" t="s">
-        <v>517</v>
+        <v>617</v>
       </c>
       <c r="F188" t="s">
-        <v>334</v>
+        <v>623</v>
       </c>
       <c r="G188" t="s">
-        <v>334</v>
+        <v>662</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6434,19 +6701,19 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="D189" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E189" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="F189" t="s">
-        <v>536</v>
+        <v>623</v>
       </c>
       <c r="G189" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6457,19 +6724,19 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D190" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E190" t="s">
-        <v>519</v>
-      </c>
-      <c r="F190" t="s">
-        <v>570</v>
+        <v>619</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>558</v>
+        <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6480,19 +6747,19 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="D191" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>520</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
+        <v>620</v>
+      </c>
+      <c r="F191" t="s">
+        <v>624</v>
       </c>
       <c r="G191" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/data/instiz_인티포털.xlsx
+++ b/data/instiz_인티포털.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="706">
   <si>
     <t>제목</t>
   </si>
@@ -34,6 +34,177 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>김옥빈 전남친 얘기 들은 신동엽의 반응</t>
+  </si>
+  <si>
+    <t>90년대 인터넷을 대했던 자세</t>
+  </si>
+  <si>
+    <t>[단독] "판사님, 시X 진짜"욕설..한서희, 필로폰 투약 '징역 1년6월..</t>
+  </si>
+  <si>
+    <t>2000년대 초반 국내 씹어먹었던 연예인.JPG</t>
+  </si>
+  <si>
+    <t>헤어지자는 여친 찌르고 고층 베란다 밖으로 던진 30대 남성 체포</t>
+  </si>
+  <si>
+    <t>두번째 기회의 문을 여는 순간</t>
+  </si>
+  <si>
+    <t>'군 복무' 엑소 백현, 유튜브 활동에 쏟아진 비난…SM "영상 삭제"</t>
+  </si>
+  <si>
+    <t>'고디바 SHOW' 강운·서혜윤·차유·황인해, 각양각색 이력 공개</t>
+  </si>
+  <si>
+    <t>남자친구 납골당에서 남친 친구랑 키스했어</t>
+  </si>
+  <si>
+    <t>FDA에서 화이자 관련정보공개를 2076년까지 막아달라고 연방정부에 요청</t>
+  </si>
+  <si>
+    <t>[단독] 원더걸스 선예, '엄마는 아이돌'로 복귀..세 딸 엄마의 아이돌 ..</t>
+  </si>
+  <si>
+    <t>ㅡ인종차별ㅡ 안경</t>
+  </si>
+  <si>
+    <t>수능 1등급을 맞기 위해 수련한 수갤러 썰 ㄷㄷ......JPG</t>
+  </si>
+  <si>
+    <t>스파이더맨 : 노웨이홈 때문에 개빡친 일본인들</t>
+  </si>
+  <si>
+    <t>[신서유기] 손말이고기.gif</t>
+  </si>
+  <si>
+    <t>수능 때 들고가면 안되는 물건</t>
+  </si>
+  <si>
+    <t>[EP.14] 오늘자 스테픈 커리.GIF</t>
+  </si>
+  <si>
+    <t>시공코믹스 마블&amp;DC; 코믹스 블랙프라이데이 할인 행사 중</t>
+  </si>
+  <si>
+    <t>소련여자의 평정심을 잃게한 무자비한 악플</t>
+  </si>
+  <si>
+    <t>연락 잘안하는 여친어때요?</t>
+  </si>
+  <si>
+    <t>온라인에서 알게된사람 실제로 만난적 있다vs없다</t>
+  </si>
+  <si>
+    <t>이별 통보한 여친 찌르고 고층 베란다 밖으로 던진 30대 체포</t>
+  </si>
+  <si>
+    <t>멤버 각각 다 춤선 미쳤다는 남돌</t>
+  </si>
+  <si>
+    <t>프란치스코 교황의 연설</t>
+  </si>
+  <si>
+    <t>교촌치킨, 제품 가격 평균 8.1% 인상…허니콤보 1만8천원→2만원</t>
+  </si>
+  <si>
+    <t>베이징 동계올림픽때 남초커뮤를 달굴 피겨선수</t>
+  </si>
+  <si>
+    <t>어떤 쉽덕 게임 광고 예상.jpg</t>
+  </si>
+  <si>
+    <t>[킹스맨:퍼스트에이전트] 레거시 예고편</t>
+  </si>
+  <si>
+    <t>굴김치</t>
+  </si>
+  <si>
+    <t>드래곤 볼 달라진 미래</t>
+  </si>
+  <si>
+    <t>신문윤리위 최다 제재 언론사는 조선일보</t>
+  </si>
+  <si>
+    <t>쇼미 그레이노마-쉬어 가장 맘에드는 파트는?</t>
+  </si>
+  <si>
+    <t>보고 있으면 후련해지는 사이다짤</t>
+  </si>
+  <si>
+    <t>"위법 아니지만 오해 방지”…백현, 군복무 중 유튜브 영상 내렸다</t>
+  </si>
+  <si>
+    <t>싼 옷을 많이 사지말고 비싼 옷 한 벌을 사라고!</t>
+  </si>
+  <si>
+    <t>칼부림 현장에서 시민 두고 도망간 경찰</t>
+  </si>
+  <si>
+    <t>김밥에 밥 대신 계란이 들어가면............jpg</t>
+  </si>
+  <si>
+    <t>세상에서 가장 이상한 동물.jpg</t>
+  </si>
+  <si>
+    <t>[단독] 김선호, 12월3일 '슬픈열대' 첫 공식일정 참석</t>
+  </si>
+  <si>
+    <t>수험생 165명, 경찰차 탄 사연? "잘못 들어선 시험장, 수험표·시계 깜빡..</t>
+  </si>
+  <si>
+    <t>디씨에서 시키는대로해서 인생이 바뀜</t>
+  </si>
+  <si>
+    <t>(혐오주의) 공포의 고양이</t>
+  </si>
+  <si>
+    <t>수녀 코스프레한 조신한 수련수련</t>
+  </si>
+  <si>
+    <t>어린이들에게 존댓말을 하게 된 계기.jpg</t>
+  </si>
+  <si>
+    <t>인생의 쓴맛을 느낀 꼬꼬마</t>
+  </si>
+  <si>
+    <t>지방탄수화물소년단백질 닉값하는 휴가 4일간의 방탄 식단 기록 .jpg</t>
+  </si>
+  <si>
+    <t>25년차 가수가 콘서트에서 펑펑 운 이유...jpg</t>
+  </si>
+  <si>
+    <t>박명수, '음원 부진' 트와이스에 난처한 질문…"멜론에서 몇 위냐"</t>
+  </si>
+  <si>
+    <t>왠지 설득당하는 냉장고 없이 살자는 예비신랑.jpg</t>
+  </si>
+  <si>
+    <t>세계 최고의 게임회사 락스타 근황...jpg</t>
+  </si>
+  <si>
+    <t>알고리즘이 찾아준 Moon 장재호의 최근 경기</t>
+  </si>
+  <si>
+    <t>임신한 아내 음식부탁 난이도 레전드.jpg</t>
+  </si>
+  <si>
+    <t>어제자 레드벨벳 슬기 (게스트 트와이스 지효 정연).jpg</t>
+  </si>
+  <si>
+    <t>스포? 스파이더맨 노 웨이 홈 편집 오류</t>
+  </si>
+  <si>
+    <t>김옥빈 전남친 얘기 들은 신동엽의 반응 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>빌런이 된 이유가 이해 됐던 마블 영화 빌런들.jpg</t>
+  </si>
+  <si>
+    <t>소드 좋아했던 사람 여기 모여라!</t>
+  </si>
+  <si>
     <t>배고파요.. 연어초밥좀 주세요.jpg</t>
   </si>
   <si>
@@ -49,9 +220,6 @@
     <t>전효성 인스타 업뎃 .jpg</t>
   </si>
   <si>
-    <t>스파이더맨 노웨이홈 2차 예고편 공개</t>
-  </si>
-  <si>
     <t>1년여 만에 갑자기 연락온 중고거래자.jpg</t>
   </si>
   <si>
@@ -76,24 +244,12 @@
     <t>이시영, 1억원 기부…"가정폭력으로 아픈 아이들 위해 결정"</t>
   </si>
   <si>
-    <t>[넷플릭스] F1 : 본능의 질주(feat.가짜광기는가라)</t>
-  </si>
-  <si>
-    <t>노웨이홈 삼스파 나온다는 증거.gif</t>
-  </si>
-  <si>
     <t>드라마 남녀주연배우들이 쉬는시간에 하는 짓......</t>
   </si>
   <si>
     <t>꽃보다 남자 OST중에서 내가 좋아했던 곡은?</t>
   </si>
   <si>
-    <t>친구가 가지고 오면 신기했던 폰.JPG</t>
-  </si>
-  <si>
-    <t>전업으로 전환할지 고민중인 주갤럼.jpg</t>
-  </si>
-  <si>
     <t>오디션 심사위원으로 1분 30초 무대 찢은 아이들 전소연</t>
   </si>
   <si>
@@ -118,51 +274,18 @@
     <t>이투스 강사진 아바타.jpg</t>
   </si>
   <si>
-    <t>전신라텍스 말 코스프레</t>
-  </si>
-  <si>
-    <t>공사중인 미국국경 넘는 멕시코남자</t>
-  </si>
-  <si>
-    <t>케이블 랩핑</t>
-  </si>
-  <si>
-    <t>김승규의 볼컨트롤과 킥에서 시작된 한국의 공격전개.gif</t>
-  </si>
-  <si>
     <t>GLG 첫 걸그룹 하이키, 내년 1월5일 뜬다 [공식]</t>
   </si>
   <si>
     <t>월급이 더 들어와서 문자를 보냈더니 .jpg</t>
   </si>
   <si>
-    <t>미래 스포당한 친구</t>
-  </si>
-  <si>
     <t>브랜드별 끝판왕 차종</t>
   </si>
   <si>
-    <t>한국 로코영화 원탑이다 VS 아니다</t>
-  </si>
-  <si>
     <t>햄버거 세트 사서 콜라만 마시는 이유</t>
   </si>
   <si>
-    <t>불과 얼마 전만 해도 개욕먹었던 감독</t>
-  </si>
-  <si>
-    <t>들어갔다 나오는</t>
-  </si>
-  <si>
-    <t>마블 코믹스) 울버린과 웨펀 X 프로그램이란? (2) - 웨펀 X 프로그램..</t>
-  </si>
-  <si>
-    <t>마블 코믹스) 울버린과 웨펀 X 프로그램이란? (1) - 웨펀 플러스 프로..</t>
-  </si>
-  <si>
-    <t>스파이더맨 노 웨이 홈 2차 예고편</t>
-  </si>
-  <si>
     <t>잘 대줄것 같은 여자로 보이는게 고민인 여자</t>
   </si>
   <si>
@@ -175,9 +298,6 @@
     <t>발뮤다 스마트폰 실사.jpg</t>
   </si>
   <si>
-    <t>쇼미더럭키 한장 요약</t>
-  </si>
-  <si>
     <t>넷플릭스, 첫 가격인상…프리미엄 1만4500원→1만7000원</t>
   </si>
   <si>
@@ -193,15 +313,9 @@
     <t>서윗한 달팽이주인</t>
   </si>
   <si>
-    <t>은근히 이쁜 모델</t>
-  </si>
-  <si>
     <t>은근히 이뻤던 박봄 리즈시절 ㄷㄷ</t>
   </si>
   <si>
-    <t>55 / 파묻히다</t>
-  </si>
-  <si>
     <t>좀 너무 길지않냐는 반응의 드라마 교통사고 장면.gif</t>
   </si>
   <si>
@@ -211,9 +325,6 @@
     <t>현재 본인의 컴퓨터 본체 위치는?</t>
   </si>
   <si>
-    <t>[앙ㅋ의이게임을아시나요?] - 네부카드네자르</t>
-  </si>
-  <si>
     <t>[스파이더맨예고편] 투명인간에게 쳐맞는 리자드.gi</t>
   </si>
   <si>
@@ -490,118 +601,151 @@
     <t>약쟁이 검거 완료</t>
   </si>
   <si>
-    <t>사람들이 은근 모르는 레드벨벳 명곡</t>
-  </si>
-  <si>
-    <t>헌신짝돼서 차였는데 결혼한뒤 연락 온 전남친</t>
-  </si>
-  <si>
-    <t>여친이랑 모텔 옴</t>
-  </si>
-  <si>
-    <t>스파이더맨 노웨이홈 쿠키 유출 논란...jpg</t>
-  </si>
-  <si>
-    <t>현재 매탈남 유튜브 상황.JPG</t>
-  </si>
-  <si>
-    <t>[서울] 상습 체납자 만296명 공개...서울시 체납 1위는 중국인</t>
-  </si>
-  <si>
-    <t>일본 편의점 2년차 알바생 후기</t>
-  </si>
-  <si>
-    <t>일본에서 av배우 인식</t>
-  </si>
-  <si>
-    <t>탕수육 부먹</t>
-  </si>
-  <si>
-    <t>먹고싶은걸 먹으면 수명이 줄어드는 병...jpg</t>
-  </si>
-  <si>
-    <t>공대생이 체크남방만 입는다는 편견을 버려달라는 사람. jpg</t>
-  </si>
-  <si>
-    <t>집에서 나갈땐 다리가 6개인데, 돌아올땐 2개인 것은?</t>
-  </si>
-  <si>
-    <t>(혐오주의) 윤서인 "안중근은 대한민국 군인과 아무런 상관이 없다"</t>
-  </si>
-  <si>
-    <t>미친 다 어렵네</t>
-  </si>
-  <si>
-    <t>서장훈이 말하는 찐 남사친과 위장 남사친.jpg</t>
-  </si>
-  <si>
-    <t>과장이 지각한 신입을 불러 지적했는데</t>
-  </si>
-  <si>
-    <t>넥슨 최악의 업데이트 원탑은?.jpg</t>
-  </si>
-  <si>
-    <t>대기업 14년 후기.jpg</t>
-  </si>
-  <si>
-    <t>아기들을 버리고 가는 엄마.jpg</t>
-  </si>
-  <si>
-    <t>틴더 어플 쓴다고 온갖 악플 받은 여자유튜버.jpg</t>
-  </si>
-  <si>
-    <t>넷플릭스 지옥 imdb 평가.....jpg</t>
-  </si>
-  <si>
-    <t>요즘 청소년 희망직업 1위 공무원 아님</t>
-  </si>
-  <si>
-    <t>강아지 산책중 동네 다른 강아지 목줄이 풀려있어서 깜짝 놀랐는데</t>
-  </si>
-  <si>
-    <t>식물갤의 전투력 ㄷㄷㄷ</t>
-  </si>
-  <si>
-    <t>섹시한 톰포드 신제품.jpg</t>
-  </si>
-  <si>
-    <t>1억에 대한 인식</t>
-  </si>
-  <si>
-    <t>세상에서 가장 신기한 도형</t>
-  </si>
-  <si>
-    <t>'김종국 약물' 주장한 유튜버, 전과 기록</t>
-  </si>
-  <si>
-    <t>한때 유행하더니 요즘 아무도 안입는 옷</t>
-  </si>
-  <si>
-    <t>무도 장면중 너무 웃겼던 장면</t>
-  </si>
-  <si>
-    <t>여자친구가 순수아리아인 혈통.JPG</t>
-  </si>
-  <si>
-    <t>자위대 식사.jpg</t>
-  </si>
-  <si>
-    <t>中, 가상사설망(VPN) 단속 강화…역대 최고 강력 규제</t>
-  </si>
-  <si>
-    <t>서로 좋아하면 섹스하는 세상</t>
-  </si>
-  <si>
-    <t>다꾸는 코르셋+유아퇴행 하는 행위이다</t>
-  </si>
-  <si>
-    <t>식물갤의 품격</t>
-  </si>
-  <si>
-    <t>하성운 6번째 미니앨범 'Electrified : Urban Nostalg..</t>
-  </si>
-  <si>
-    <t>현재 논란중인 편의점 옷 안에 손 넣고 강제 추행 사건</t>
+    <t>세훈이를업어</t>
+  </si>
+  <si>
+    <t>게임을시작하</t>
+  </si>
+  <si>
+    <t>세상에 잘생긴</t>
+  </si>
+  <si>
+    <t>NCT 지 성</t>
+  </si>
+  <si>
+    <t>방'탄소'년단</t>
+  </si>
+  <si>
+    <t>배진영(a.k.a발</t>
+  </si>
+  <si>
+    <t>다비나</t>
+  </si>
+  <si>
+    <t>태정태세</t>
+  </si>
+  <si>
+    <t>솔의눈아침햇</t>
+  </si>
+  <si>
+    <t>방구석천재</t>
+  </si>
+  <si>
+    <t>지수</t>
+  </si>
+  <si>
+    <t>에자키히카루</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>언행일치</t>
+  </si>
+  <si>
+    <t>양꼬치 떨어져</t>
+  </si>
+  <si>
+    <t>캐리와 장난감</t>
+  </si>
+  <si>
+    <t>알케이</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>더보이즈 이주</t>
+  </si>
+  <si>
+    <t>토끼네</t>
+  </si>
+  <si>
+    <t>벤츄리</t>
+  </si>
+  <si>
+    <t>이리저리요리</t>
+  </si>
+  <si>
+    <t>디귿</t>
+  </si>
+  <si>
+    <t>동공실종남</t>
+  </si>
+  <si>
+    <t>패딩조끼</t>
+  </si>
+  <si>
+    <t>백챠</t>
+  </si>
+  <si>
+    <t>더보이즈 김영</t>
+  </si>
+  <si>
+    <t>신짱구,</t>
+  </si>
+  <si>
+    <t>김용국 아내</t>
+  </si>
+  <si>
+    <t>자두야♡♡</t>
+  </si>
+  <si>
+    <t>장미장미</t>
+  </si>
+  <si>
+    <t>Laniakea</t>
+  </si>
+  <si>
+    <t>누눈나난</t>
+  </si>
+  <si>
+    <t>영국닭집</t>
+  </si>
+  <si>
+    <t>녹차말차킬러</t>
+  </si>
+  <si>
+    <t>존 스미스</t>
+  </si>
+  <si>
+    <t>~~</t>
+  </si>
+  <si>
+    <t>마유</t>
+  </si>
+  <si>
+    <t>더보이즈 영</t>
+  </si>
+  <si>
+    <t>딸기꽃</t>
+  </si>
+  <si>
+    <t>초코치킨</t>
+  </si>
+  <si>
+    <t>호롤로롤롤</t>
+  </si>
+  <si>
+    <t>♡김태형♡</t>
+  </si>
+  <si>
+    <t>할리뱅입니더</t>
+  </si>
+  <si>
+    <t>멍ㅇ멍이 소리</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>박뚱시</t>
+  </si>
+  <si>
+    <t>+ordin</t>
+  </si>
+  <si>
+    <t>우물밖 여고</t>
   </si>
   <si>
     <t>세븐틴 원 +</t>
@@ -616,18 +760,9 @@
     <t>풀썬이동혁</t>
   </si>
   <si>
-    <t>녹차말차킬러</t>
-  </si>
-  <si>
-    <t>몹시호시</t>
-  </si>
-  <si>
     <t>ㄷH학수학능력</t>
   </si>
   <si>
-    <t>지수</t>
-  </si>
-  <si>
     <t>.서로가 서로</t>
   </si>
   <si>
@@ -640,222 +775,141 @@
     <t>몽몽댕</t>
   </si>
   <si>
-    <t>이리저리요리</t>
-  </si>
-  <si>
-    <t>디귿</t>
-  </si>
-  <si>
-    <t>He</t>
+    <t>널 사랑해 영</t>
+  </si>
+  <si>
+    <t>닐라닐라</t>
+  </si>
+  <si>
+    <t>김영란</t>
+  </si>
+  <si>
+    <t>스트로베리문</t>
+  </si>
+  <si>
+    <t>미니온즈</t>
+  </si>
+  <si>
+    <t>옹성우박우진</t>
+  </si>
+  <si>
+    <t>세정언니링</t>
+  </si>
+  <si>
+    <t>계같네</t>
+  </si>
+  <si>
+    <t>슈슈슈슈슈슈</t>
+  </si>
+  <si>
+    <t>하니형</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>어니부깅</t>
+  </si>
+  <si>
+    <t>바보같은그대</t>
+  </si>
+  <si>
+    <t>용시대박</t>
+  </si>
+  <si>
+    <t>JOSHUA95</t>
+  </si>
+  <si>
+    <t>Twenty_Four</t>
+  </si>
+  <si>
+    <t>qksxks ghtjr</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>NUEST-W</t>
+  </si>
+  <si>
+    <t>색지</t>
+  </si>
+  <si>
+    <t>다시 태어날</t>
+  </si>
+  <si>
+    <t>보이프렌드 민</t>
+  </si>
+  <si>
+    <t>슈비룹</t>
+  </si>
+  <si>
+    <t>311342_return</t>
+  </si>
+  <si>
+    <t>시어머니블루</t>
+  </si>
+  <si>
+    <t>노츄캡짱</t>
+  </si>
+  <si>
+    <t>S.COUPS.</t>
+  </si>
+  <si>
+    <t>쇼콘!23</t>
+  </si>
+  <si>
+    <t>윤정한 아내</t>
+  </si>
+  <si>
+    <t>굿데이_희진</t>
+  </si>
+  <si>
+    <t>마카롱꿀떡</t>
+  </si>
+  <si>
+    <t>초코틴틴세븐</t>
+  </si>
+  <si>
+    <t>중 천러</t>
+  </si>
+  <si>
+    <t>더보이즈 상</t>
+  </si>
+  <si>
+    <t>뭐야 너</t>
+  </si>
+  <si>
+    <t>녤피치</t>
+  </si>
+  <si>
+    <t>환조승연애</t>
+  </si>
+  <si>
+    <t>308679_return</t>
   </si>
   <si>
     <t>남준선배</t>
   </si>
   <si>
-    <t>멍ㅇ멍이 소리</t>
-  </si>
-  <si>
-    <t>널 사랑해 영</t>
-  </si>
-  <si>
-    <t>패딩조끼</t>
-  </si>
-  <si>
-    <t>할리뱅입니더</t>
-  </si>
-  <si>
-    <t>닐라닐라</t>
-  </si>
-  <si>
-    <t>김영란</t>
-  </si>
-  <si>
-    <t>스트로베리문</t>
-  </si>
-  <si>
-    <t>미니온즈</t>
-  </si>
-  <si>
-    <t>옹성우박우진</t>
-  </si>
-  <si>
-    <t>세정언니링</t>
-  </si>
-  <si>
-    <t>계같네</t>
-  </si>
-  <si>
-    <t>호롤로롤롤</t>
-  </si>
-  <si>
-    <t>NUEST-W</t>
-  </si>
-  <si>
-    <t>박뚱시</t>
-  </si>
-  <si>
-    <t>데이비드썸원</t>
-  </si>
-  <si>
-    <t>슈슈슈슈슈슈</t>
-  </si>
-  <si>
-    <t>하니형</t>
-  </si>
-  <si>
-    <t>세훈이를업어</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
+    <t>뇌잘린</t>
+  </si>
+  <si>
+    <t>꾸쭈꾸쭈</t>
+  </si>
+  <si>
+    <t>방탄소년단★</t>
+  </si>
+  <si>
+    <t>307559_return</t>
   </si>
   <si>
     <t>유기현 (25)</t>
   </si>
   <si>
-    <t>어니부깅</t>
-  </si>
-  <si>
-    <t>한 편의 너</t>
-  </si>
-  <si>
-    <t>다시 태어날</t>
-  </si>
-  <si>
-    <t>뭐야 너</t>
-  </si>
-  <si>
-    <t>바보같은그대</t>
-  </si>
-  <si>
-    <t>용시대박</t>
-  </si>
-  <si>
-    <t>JOSHUA95</t>
-  </si>
-  <si>
-    <t>중 천러</t>
-  </si>
-  <si>
-    <t>누눈나난</t>
-  </si>
-  <si>
-    <t>Twenty_Four</t>
-  </si>
-  <si>
-    <t>qksxks ghtjr</t>
-  </si>
-  <si>
-    <t>언행일치</t>
-  </si>
-  <si>
-    <t>겟</t>
-  </si>
-  <si>
-    <t>우물밖 여고</t>
-  </si>
-  <si>
-    <t>마유</t>
-  </si>
-  <si>
-    <t>색지</t>
-  </si>
-  <si>
-    <t>벤츄리</t>
-  </si>
-  <si>
-    <t>더보이즈 영</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>보이프렌드 민</t>
-  </si>
-  <si>
-    <t>슈비룹</t>
-  </si>
-  <si>
-    <t>자두야♡♡</t>
-  </si>
-  <si>
-    <t>알케이</t>
-  </si>
-  <si>
-    <t>311342_return</t>
-  </si>
-  <si>
-    <t>시어머니블루</t>
-  </si>
-  <si>
-    <t>백챠</t>
-  </si>
-  <si>
-    <t>노츄캡짱</t>
-  </si>
-  <si>
-    <t>S.COUPS.</t>
-  </si>
-  <si>
-    <t>토끼네</t>
-  </si>
-  <si>
-    <t>쇼콘!23</t>
-  </si>
-  <si>
-    <t>윤정한 아내</t>
-  </si>
-  <si>
-    <t>굿데이_희진</t>
-  </si>
-  <si>
-    <t>마카롱꿀떡</t>
-  </si>
-  <si>
-    <t>장미장미</t>
-  </si>
-  <si>
-    <t>초코틴틴세븐</t>
-  </si>
-  <si>
-    <t>캐리와 장난감</t>
-  </si>
-  <si>
-    <t>더보이즈 상</t>
-  </si>
-  <si>
-    <t>녤피치</t>
-  </si>
-  <si>
-    <t>환조승연애</t>
-  </si>
-  <si>
-    <t>308679_return</t>
-  </si>
-  <si>
-    <t>뇌잘린</t>
-  </si>
-  <si>
-    <t>+ordin</t>
-  </si>
-  <si>
-    <t>꾸쭈꾸쭈</t>
-  </si>
-  <si>
-    <t>방탄소년단★</t>
-  </si>
-  <si>
-    <t>307559_return</t>
-  </si>
-  <si>
-    <t>She</t>
-  </si>
-  <si>
     <t>임팩트FBI</t>
   </si>
   <si>
-    <t>♡김태형♡</t>
-  </si>
-  <si>
     <t>김낑깡</t>
   </si>
   <si>
@@ -898,9 +952,6 @@
     <t>아야나미</t>
   </si>
   <si>
-    <t>에자키히카루</t>
-  </si>
-  <si>
     <t>'''</t>
   </si>
   <si>
@@ -916,43 +967,148 @@
     <t>위례신다도시</t>
   </si>
   <si>
-    <t>까까까</t>
-  </si>
-  <si>
-    <t>게임을시작하</t>
-  </si>
-  <si>
-    <t>김상연</t>
-  </si>
-  <si>
-    <t>키토제닉</t>
-  </si>
-  <si>
-    <t>다니엘_린데</t>
-  </si>
-  <si>
-    <t>션국이네 메르</t>
-  </si>
-  <si>
-    <t>천러러러</t>
-  </si>
-  <si>
-    <t>해르반창식</t>
-  </si>
-  <si>
-    <t>방탄전용날개</t>
-  </si>
-  <si>
-    <t>영은수</t>
-  </si>
-  <si>
-    <t>꿍치따치</t>
-  </si>
-  <si>
-    <t>던던둔둔</t>
-  </si>
-  <si>
-    <t>깐부</t>
+    <t>2021.11.18 16:11</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:10</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:52</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:40</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:35</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:23</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:19</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 15:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:59</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:41</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:36</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:32</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:29</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:12</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:08</t>
+  </si>
+  <si>
+    <t>2021.11.18 14:06</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:50</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:49</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:48</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:44</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:34</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:21</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:20</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:17</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:16</t>
+  </si>
+  <si>
+    <t>2021.11.18 13:14</t>
   </si>
   <si>
     <t>2021.11.18 13:08</t>
@@ -994,18 +1150,9 @@
     <t>2021.11.18 12:09</t>
   </si>
   <si>
-    <t>2021.11.18 12:07</t>
-  </si>
-  <si>
     <t>2021.11.18 12:06</t>
   </si>
   <si>
-    <t>2021.11.18 12:05</t>
-  </si>
-  <si>
-    <t>2021.11.18 12:03</t>
-  </si>
-  <si>
     <t>2021.11.18 11:58</t>
   </si>
   <si>
@@ -1027,18 +1174,6 @@
     <t>2021.11.18 11:18</t>
   </si>
   <si>
-    <t>2021.11.18 11:11</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:10</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:09</t>
-  </si>
-  <si>
-    <t>2021.11.18 11:08</t>
-  </si>
-  <si>
     <t>2021.11.18 11:02</t>
   </si>
   <si>
@@ -1051,21 +1186,6 @@
     <t>2021.11.18 10:55</t>
   </si>
   <si>
-    <t>2021.11.18 10:52</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:51</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:49</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 10:41</t>
-  </si>
-  <si>
     <t>2021.11.18 10:37</t>
   </si>
   <si>
@@ -1075,9 +1195,6 @@
     <t>2021.11.18 10:11</t>
   </si>
   <si>
-    <t>2021.11.18 10:09</t>
-  </si>
-  <si>
     <t>2021.11.18 10:00</t>
   </si>
   <si>
@@ -1090,9 +1207,6 @@
     <t>2021.11.18 09:52</t>
   </si>
   <si>
-    <t>2021.11.18 09:47</t>
-  </si>
-  <si>
     <t>2021.11.18 09:45</t>
   </si>
   <si>
@@ -1102,9 +1216,6 @@
     <t>2021.11.18 09:41</t>
   </si>
   <si>
-    <t>2021.11.18 09:40</t>
-  </si>
-  <si>
     <t>2021.11.18 09:38</t>
   </si>
   <si>
@@ -1315,700 +1426,712 @@
     <t>2021.11.17</t>
   </si>
   <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>2153</t>
-  </si>
-  <si>
-    <t>3631</t>
-  </si>
-  <si>
-    <t>2652</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>5185</t>
-  </si>
-  <si>
-    <t>7939</t>
-  </si>
-  <si>
-    <t>2317</t>
-  </si>
-  <si>
-    <t>6064</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>5496</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>4559</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>5648</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>6399</t>
+  </si>
+  <si>
+    <t>3842</t>
+  </si>
+  <si>
+    <t>4523</t>
+  </si>
+  <si>
+    <t>7012</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>11460</t>
+  </si>
+  <si>
+    <t>4765</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>4580</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>8395</t>
+  </si>
+  <si>
+    <t>16077</t>
+  </si>
+  <si>
+    <t>18406</t>
+  </si>
+  <si>
+    <t>17467</t>
+  </si>
+  <si>
+    <t>13029</t>
+  </si>
+  <si>
+    <t>8554</t>
+  </si>
+  <si>
+    <t>12171</t>
+  </si>
+  <si>
+    <t>8372</t>
+  </si>
+  <si>
+    <t>3965</t>
+  </si>
+  <si>
+    <t>10634</t>
+  </si>
+  <si>
+    <t>3811</t>
+  </si>
+  <si>
+    <t>11182</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>9461</t>
+  </si>
+  <si>
+    <t>3825</t>
+  </si>
+  <si>
+    <t>29691</t>
+  </si>
+  <si>
+    <t>31992</t>
+  </si>
+  <si>
+    <t>3353</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>19957</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2660</t>
   </si>
   <si>
     <t>6148</t>
   </si>
   <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>11736</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>6939</t>
+  </si>
+  <si>
+    <t>9434</t>
+  </si>
+  <si>
+    <t>4371</t>
+  </si>
+  <si>
+    <t>11368</t>
+  </si>
+  <si>
+    <t>34225</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>16304</t>
+  </si>
+  <si>
+    <t>13665</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>25713</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>2395</t>
+  </si>
+  <si>
+    <t>4852</t>
+  </si>
+  <si>
+    <t>5947</t>
+  </si>
+  <si>
+    <t>46130</t>
+  </si>
+  <si>
+    <t>5447</t>
+  </si>
+  <si>
+    <t>3473</t>
+  </si>
+  <si>
+    <t>14737</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>26960</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>42139</t>
+  </si>
+  <si>
+    <t>17950</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>4326</t>
+  </si>
+  <si>
+    <t>4636</t>
+  </si>
+  <si>
+    <t>14924</t>
+  </si>
+  <si>
+    <t>16578</t>
+  </si>
+  <si>
+    <t>43047</t>
+  </si>
+  <si>
+    <t>2605</t>
+  </si>
+  <si>
+    <t>3466</t>
+  </si>
+  <si>
+    <t>17521</t>
+  </si>
+  <si>
+    <t>32197</t>
+  </si>
+  <si>
+    <t>14287</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>47841</t>
+  </si>
+  <si>
+    <t>32388</t>
+  </si>
+  <si>
+    <t>8497</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>5015</t>
+  </si>
+  <si>
+    <t>9153</t>
+  </si>
+  <si>
+    <t>22272</t>
+  </si>
+  <si>
+    <t>32357</t>
+  </si>
+  <si>
+    <t>8003</t>
+  </si>
+  <si>
+    <t>54133</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>27498</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>5193</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>2816</t>
+  </si>
+  <si>
+    <t>13791</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>76426</t>
+  </si>
+  <si>
+    <t>16852</t>
+  </si>
+  <si>
+    <t>24115</t>
+  </si>
+  <si>
+    <t>11334</t>
+  </si>
+  <si>
+    <t>30954</t>
+  </si>
+  <si>
+    <t>1660</t>
+  </si>
+  <si>
+    <t>6152</t>
+  </si>
+  <si>
+    <t>2539</t>
+  </si>
+  <si>
+    <t>80146</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>16075</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>36375</t>
+  </si>
+  <si>
+    <t>8480</t>
+  </si>
+  <si>
+    <t>5275</t>
+  </si>
+  <si>
+    <t>4037</t>
+  </si>
+  <si>
+    <t>6273</t>
+  </si>
+  <si>
+    <t>19256</t>
+  </si>
+  <si>
+    <t>5437</t>
+  </si>
+  <si>
+    <t>3596</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>9429</t>
+  </si>
+  <si>
+    <t>5525</t>
+  </si>
+  <si>
+    <t>6488</t>
+  </si>
+  <si>
+    <t>4069</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>3676</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>3972</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>7926</t>
+  </si>
+  <si>
+    <t>2267</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>2356</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>11925</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>4652</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>18937</t>
+  </si>
+  <si>
+    <t>12369</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>6846</t>
+  </si>
+  <si>
+    <t>12786</t>
+  </si>
+  <si>
+    <t>3415</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>31803</t>
+  </si>
+  <si>
+    <t>17101</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>94514</t>
+  </si>
+  <si>
+    <t>7630</t>
+  </si>
+  <si>
+    <t>5845</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>14130</t>
+  </si>
+  <si>
+    <t>19587</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>13589</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>2778</t>
-  </si>
-  <si>
-    <t>8712</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>3286</t>
-  </si>
-  <si>
-    <t>2163</t>
-  </si>
-  <si>
-    <t>1821</t>
-  </si>
-  <si>
-    <t>4260</t>
-  </si>
-  <si>
-    <t>5204</t>
-  </si>
-  <si>
-    <t>19233</t>
-  </si>
-  <si>
-    <t>4631</t>
-  </si>
-  <si>
-    <t>3169</t>
-  </si>
-  <si>
-    <t>10287</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2499</t>
-  </si>
-  <si>
-    <t>3083</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>17247</t>
-  </si>
-  <si>
-    <t>2452</t>
-  </si>
-  <si>
-    <t>2266</t>
-  </si>
-  <si>
-    <t>1512</t>
-  </si>
-  <si>
-    <t>16902</t>
-  </si>
-  <si>
-    <t>2056</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>10322</t>
-  </si>
-  <si>
-    <t>1649</t>
-  </si>
-  <si>
-    <t>4180</t>
-  </si>
-  <si>
-    <t>4339</t>
-  </si>
-  <si>
-    <t>1078</t>
-  </si>
-  <si>
-    <t>12823</t>
-  </si>
-  <si>
-    <t>14002</t>
-  </si>
-  <si>
-    <t>21686</t>
-  </si>
-  <si>
-    <t>2515</t>
-  </si>
-  <si>
-    <t>3444</t>
-  </si>
-  <si>
-    <t>3332</t>
-  </si>
-  <si>
-    <t>15729</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>21525</t>
-  </si>
-  <si>
-    <t>10421</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>23202</t>
-  </si>
-  <si>
-    <t>24608</t>
-  </si>
-  <si>
-    <t>7953</t>
-  </si>
-  <si>
-    <t>2122</t>
-  </si>
-  <si>
-    <t>3328</t>
-  </si>
-  <si>
-    <t>4869</t>
-  </si>
-  <si>
-    <t>7930</t>
-  </si>
-  <si>
-    <t>18293</t>
-  </si>
-  <si>
-    <t>24345</t>
-  </si>
-  <si>
-    <t>7285</t>
-  </si>
-  <si>
-    <t>31131</t>
-  </si>
-  <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>21114</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>5090</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>6873</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1261</t>
-  </si>
-  <si>
-    <t>2669</t>
-  </si>
-  <si>
-    <t>13135</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>45159</t>
-  </si>
-  <si>
-    <t>14641</t>
-  </si>
-  <si>
-    <t>22423</t>
-  </si>
-  <si>
-    <t>10699</t>
-  </si>
-  <si>
-    <t>28417</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>5945</t>
-  </si>
-  <si>
-    <t>2454</t>
-  </si>
-  <si>
-    <t>47828</t>
-  </si>
-  <si>
-    <t>2540</t>
-  </si>
-  <si>
-    <t>15124</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>32269</t>
-  </si>
-  <si>
-    <t>8144</t>
-  </si>
-  <si>
-    <t>4731</t>
-  </si>
-  <si>
-    <t>3840</t>
-  </si>
-  <si>
-    <t>5531</t>
-  </si>
-  <si>
-    <t>18446</t>
-  </si>
-  <si>
-    <t>5249</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>3586</t>
-  </si>
-  <si>
-    <t>1916</t>
-  </si>
-  <si>
-    <t>9221</t>
-  </si>
-  <si>
-    <t>5369</t>
-  </si>
-  <si>
-    <t>6390</t>
-  </si>
-  <si>
-    <t>3511</t>
-  </si>
-  <si>
-    <t>3833</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>3959</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>3602</t>
-  </si>
-  <si>
-    <t>5033</t>
-  </si>
-  <si>
-    <t>3815</t>
-  </si>
-  <si>
-    <t>1673</t>
-  </si>
-  <si>
-    <t>7780</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>1756</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>2471</t>
-  </si>
-  <si>
-    <t>11790</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>4480</t>
-  </si>
-  <si>
-    <t>3061</t>
-  </si>
-  <si>
-    <t>15060</t>
-  </si>
-  <si>
-    <t>12253</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>3942</t>
-  </si>
-  <si>
-    <t>6839</t>
-  </si>
-  <si>
-    <t>12667</t>
-  </si>
-  <si>
-    <t>3409</t>
-  </si>
-  <si>
-    <t>1343</t>
-  </si>
-  <si>
-    <t>14798</t>
-  </si>
-  <si>
-    <t>17093</t>
-  </si>
-  <si>
-    <t>3318</t>
-  </si>
-  <si>
-    <t>67017</t>
-  </si>
-  <si>
-    <t>7533</t>
-  </si>
-  <si>
-    <t>5837</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>3726</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>13845</t>
-  </si>
-  <si>
-    <t>19386</t>
-  </si>
-  <si>
-    <t>2808</t>
-  </si>
-  <si>
-    <t>13297</t>
-  </si>
-  <si>
-    <t>2914</t>
-  </si>
-  <si>
-    <t>61361</t>
-  </si>
-  <si>
-    <t>18824</t>
-  </si>
-  <si>
-    <t>14493</t>
-  </si>
-  <si>
-    <t>3031</t>
-  </si>
-  <si>
-    <t>5594</t>
-  </si>
-  <si>
-    <t>8433</t>
-  </si>
-  <si>
-    <t>17886</t>
-  </si>
-  <si>
-    <t>14793</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>4076</t>
-  </si>
-  <si>
-    <t>7472</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>2145</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>41464</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2684</t>
-  </si>
-  <si>
-    <t>30277</t>
-  </si>
-  <si>
-    <t>8368</t>
-  </si>
-  <si>
-    <t>25490</t>
-  </si>
-  <si>
-    <t>7704</t>
-  </si>
-  <si>
-    <t>28733</t>
-  </si>
-  <si>
-    <t>10970</t>
-  </si>
-  <si>
-    <t>2832</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>6021</t>
-  </si>
-  <si>
-    <t>4564</t>
-  </si>
-  <si>
-    <t>30096</t>
-  </si>
-  <si>
-    <t>119506</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>38495</t>
-  </si>
-  <si>
-    <t>4374</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>7373</t>
-  </si>
-  <si>
-    <t>3485</t>
-  </si>
-  <si>
-    <t>2535</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>4560</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>61</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
 </sst>
 </file>
@@ -2400,19 +2523,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" t="s">
-        <v>621</v>
+        <v>470</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2423,19 +2546,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="F3" t="s">
+        <v>655</v>
       </c>
       <c r="G3" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2446,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="F4" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="G4" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2469,19 +2592,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F5" t="s">
-        <v>623</v>
+        <v>473</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2492,19 +2615,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F6" t="s">
-        <v>624</v>
+        <v>474</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2515,19 +2638,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2538,19 +2661,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="F8" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="G8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2561,19 +2684,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F9" t="s">
-        <v>625</v>
+        <v>477</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2584,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="F10" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="G10" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2607,19 +2730,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="F11" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2630,19 +2753,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="F12" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="G12" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2653,19 +2776,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2676,19 +2799,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="F14" t="s">
+        <v>661</v>
       </c>
       <c r="G14" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2699,19 +2822,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="F15" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="G15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2722,19 +2845,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2745,19 +2868,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2768,19 +2891,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
-      </c>
-      <c r="F18" t="s">
-        <v>628</v>
+        <v>486</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2791,19 +2914,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" t="s">
-        <v>629</v>
+        <v>487</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2814,19 +2937,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="F20" t="s">
+        <v>663</v>
       </c>
       <c r="G20" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2837,19 +2960,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="F21" t="s">
+        <v>656</v>
       </c>
       <c r="G21" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2860,19 +2983,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E22" t="s">
-        <v>453</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>490</v>
+      </c>
+      <c r="F22" t="s">
+        <v>664</v>
       </c>
       <c r="G22" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2883,19 +3006,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="F23" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="G23" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2906,19 +3029,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="F24" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="G24" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2929,19 +3052,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="G25" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2952,19 +3075,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E26" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="F26" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="G26" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2975,19 +3098,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>458</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="F27" t="s">
+        <v>658</v>
       </c>
       <c r="G27" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2998,19 +3121,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E28" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="F28" t="s">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="G28" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3021,19 +3144,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E29" t="s">
-        <v>460</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="F29" t="s">
+        <v>655</v>
       </c>
       <c r="G29" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3044,19 +3167,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3064,22 +3187,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E31" t="s">
-        <v>462</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="F31" t="s">
+        <v>658</v>
       </c>
       <c r="G31" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3087,22 +3210,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E32" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3110,22 +3233,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E33" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3133,22 +3256,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E34" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3156,22 +3279,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E35" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F35" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="G35" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3179,22 +3302,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+        <v>504</v>
+      </c>
+      <c r="F36" t="s">
+        <v>669</v>
       </c>
       <c r="G36" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3202,22 +3325,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E37" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="F37" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="G37" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3225,22 +3348,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+        <v>506</v>
+      </c>
+      <c r="F38" t="s">
+        <v>666</v>
       </c>
       <c r="G38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3248,22 +3371,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E39" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="F39" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="G39" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3271,22 +3394,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
-        <v>471</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>508</v>
+      </c>
+      <c r="F40" t="s">
+        <v>671</v>
       </c>
       <c r="G40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3294,22 +3417,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E41" t="s">
-        <v>472</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="F41" t="s">
+        <v>670</v>
       </c>
       <c r="G41" t="s">
-        <v>662</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3317,22 +3440,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="F42" t="s">
+        <v>672</v>
       </c>
       <c r="G42" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3340,22 +3463,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E43" t="s">
-        <v>474</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="F43" t="s">
+        <v>656</v>
       </c>
       <c r="G43" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3363,22 +3486,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E44" t="s">
-        <v>475</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="F44" t="s">
+        <v>670</v>
       </c>
       <c r="G44" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3386,22 +3509,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E45" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="G45" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3409,22 +3532,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E46" t="s">
-        <v>477</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="F46" t="s">
+        <v>673</v>
       </c>
       <c r="G46" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3432,22 +3555,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>478</v>
-      </c>
-      <c r="F47" t="s">
-        <v>621</v>
+        <v>515</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3455,22 +3578,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D48" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="F48" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="G48" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3478,22 +3601,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E49" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3501,22 +3624,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="F50" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="G50" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3524,22 +3647,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E51" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="F51" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="G51" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3547,22 +3670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E52" t="s">
-        <v>483</v>
-      </c>
-      <c r="F52" t="s">
-        <v>637</v>
+        <v>520</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>444</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3570,22 +3693,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E53" t="s">
-        <v>484</v>
-      </c>
-      <c r="F53" t="s">
-        <v>624</v>
+        <v>521</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3593,22 +3716,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="F54" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="G54" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3616,22 +3739,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3639,22 +3762,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="F56" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="G56" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3662,22 +3785,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
-        <v>488</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="F57" t="s">
+        <v>655</v>
       </c>
       <c r="G57" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3685,22 +3808,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E58" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="F58" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="G58" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3708,22 +3831,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E59" t="s">
-        <v>490</v>
-      </c>
-      <c r="F59" t="s">
-        <v>622</v>
+        <v>527</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3731,22 +3854,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="F60" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
       <c r="G60" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3754,22 +3877,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E61" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3777,22 +3900,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E62" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="F62" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="G62" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3800,22 +3923,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="F63" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="G63" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3823,22 +3946,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="F64" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="G64" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3846,22 +3969,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D65" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="F65" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="G65" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3869,22 +3992,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="F66" t="s">
-        <v>624</v>
+        <v>680</v>
       </c>
       <c r="G66" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3892,22 +4015,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E67" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="F67" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G67" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3915,22 +4038,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D68" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="F68" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="G68" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3938,22 +4061,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="F69" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="G69" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3961,22 +4084,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" t="s">
-        <v>643</v>
+        <v>538</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3984,22 +4107,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E71" t="s">
-        <v>502</v>
-      </c>
-      <c r="F71" t="s">
-        <v>644</v>
+        <v>539</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>444</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4007,22 +4130,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E72" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="F72" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="G72" t="s">
-        <v>642</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4030,22 +4153,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E73" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="F73" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="G73" t="s">
-        <v>622</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4053,22 +4176,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="F74" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="G74" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4076,22 +4199,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D75" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
-        <v>506</v>
-      </c>
-      <c r="F75" t="s">
-        <v>632</v>
+        <v>543</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4099,22 +4222,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>507</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
+        <v>544</v>
+      </c>
+      <c r="F76" t="s">
+        <v>658</v>
       </c>
       <c r="G76" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4122,22 +4245,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="F77" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="G77" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4145,22 +4268,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="F78" t="s">
-        <v>624</v>
+        <v>683</v>
       </c>
       <c r="G78" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4168,22 +4291,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D79" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
-        <v>510</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="F79" t="s">
+        <v>656</v>
       </c>
       <c r="G79" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4191,22 +4314,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="F80" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4214,22 +4337,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E81" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="F81" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G81" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4237,22 +4360,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E82" t="s">
-        <v>513</v>
-      </c>
-      <c r="F82" t="s">
-        <v>621</v>
+        <v>550</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4260,22 +4383,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E83" t="s">
-        <v>514</v>
-      </c>
-      <c r="F83" t="s">
-        <v>629</v>
+        <v>551</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4283,22 +4406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E84" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="F84" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="G84" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4306,22 +4429,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E85" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="F85" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G85" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4329,22 +4452,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E86" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="F86" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="G86" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4352,22 +4475,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E87" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="F87" t="s">
-        <v>444</v>
+        <v>686</v>
       </c>
       <c r="G87" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4375,22 +4498,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D88" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E88" t="s">
-        <v>519</v>
-      </c>
-      <c r="F88" t="s">
-        <v>621</v>
+        <v>556</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4398,22 +4521,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E89" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="F89" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="G89" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4421,22 +4544,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E90" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="F90" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="G90" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4444,22 +4567,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E91" t="s">
-        <v>522</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="F91" t="s">
+        <v>687</v>
       </c>
       <c r="G91" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4467,22 +4590,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E92" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="F92" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="G92" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4490,22 +4613,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E93" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="F93" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="G93" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4513,22 +4636,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E94" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="F94" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="G94" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4536,22 +4659,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D95" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E95" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="F95" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G95" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4559,22 +4682,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
         <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E96" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="F96" t="s">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="G96" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4582,22 +4705,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E97" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="F97" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="G97" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4605,22 +4728,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E98" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="F98" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="G98" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4628,22 +4751,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E99" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="F99" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G99" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4651,22 +4774,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
         <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E100" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="F100" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G100" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4674,22 +4797,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E101" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="F101" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="G101" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4697,22 +4820,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E102" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="F102" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="G102" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4720,22 +4843,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E103" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="F103" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="G103" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4743,22 +4866,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="F104" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="G104" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4766,22 +4889,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E105" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F105" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="G105" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4789,22 +4912,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E106" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="F106" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="G106" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4812,22 +4935,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="D107" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E107" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="F107" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="G107" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4835,22 +4958,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="D108" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E108" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="F108" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="G108" t="s">
-        <v>629</v>
+        <v>678</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4858,22 +4981,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E109" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="F109" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="G109" t="s">
-        <v>621</v>
+        <v>538</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4881,22 +5004,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E110" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="F110" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="G110" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4904,22 +5027,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E111" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="F111" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="G111" t="s">
-        <v>624</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4927,22 +5050,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E112" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="F112" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G112" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4950,22 +5073,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E113" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="F113" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="G113" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4973,22 +5096,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E114" t="s">
-        <v>545</v>
-      </c>
-      <c r="F114" t="s">
-        <v>621</v>
+        <v>581</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4996,22 +5119,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E115" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="F115" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="G115" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5019,22 +5142,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="F116" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="G116" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5042,22 +5165,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="D117" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E117" t="s">
-        <v>548</v>
-      </c>
-      <c r="F117" t="s">
-        <v>630</v>
+        <v>584</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5065,22 +5188,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D118" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E118" t="s">
-        <v>549</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
+        <v>585</v>
+      </c>
+      <c r="F118" t="s">
+        <v>655</v>
       </c>
       <c r="G118" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5088,22 +5211,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D119" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E119" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="F119" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="G119" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5111,22 +5234,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E120" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="F120" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="G120" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5134,22 +5257,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
+        <v>588</v>
+      </c>
+      <c r="F121" t="s">
+        <v>661</v>
       </c>
       <c r="G121" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5157,22 +5280,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D122" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="F122" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G122" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5180,22 +5303,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E123" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="F123" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="G123" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5203,22 +5326,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E124" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="F124" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="G124" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5226,22 +5349,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D125" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E125" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="F125" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="G125" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5249,22 +5372,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E126" t="s">
-        <v>556</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
+        <v>593</v>
+      </c>
+      <c r="F126" t="s">
+        <v>655</v>
       </c>
       <c r="G126" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5272,22 +5395,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="D127" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E127" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="F127" t="s">
-        <v>650</v>
+        <v>694</v>
       </c>
       <c r="G127" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5295,22 +5418,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D128" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E128" t="s">
-        <v>558</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
+        <v>595</v>
+      </c>
+      <c r="F128" t="s">
+        <v>655</v>
       </c>
       <c r="G128" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5318,22 +5441,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D129" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E129" t="s">
-        <v>559</v>
-      </c>
-      <c r="F129" t="s">
-        <v>653</v>
+        <v>596</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5341,22 +5464,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E130" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="F130" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="G130" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5364,22 +5487,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D131" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E131" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="F131" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="G131" t="s">
-        <v>645</v>
+        <v>538</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5387,22 +5510,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="D132" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="F132" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G132" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5410,22 +5533,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E133" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="F133" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="G133" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5433,22 +5556,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D134" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E134" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="F134" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="G134" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5456,22 +5579,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E135" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="F135" t="s">
-        <v>630</v>
+        <v>697</v>
       </c>
       <c r="G135" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5479,22 +5602,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E136" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="F136" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G136" t="s">
-        <v>444</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5502,22 +5625,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D137" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E137" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="F137" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="G137" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5525,22 +5648,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D138" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E138" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="F138" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G138" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5548,22 +5671,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E139" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="F139" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="G139" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5571,22 +5694,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E140" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="F140" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="G140" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5594,22 +5717,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="F141" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G141" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5617,22 +5740,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D142" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E142" t="s">
-        <v>572</v>
+        <v>471</v>
       </c>
       <c r="F142" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G142" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5640,22 +5763,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D143" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E143" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="F143" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="G143" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5663,22 +5786,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D144" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E144" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="F144" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="G144" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5686,22 +5809,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
         <v>295</v>
       </c>
       <c r="D145" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E145" t="s">
-        <v>575</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
+        <v>611</v>
+      </c>
+      <c r="F145" t="s">
+        <v>673</v>
       </c>
       <c r="G145" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5709,22 +5832,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="D146" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E146" t="s">
-        <v>576</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="F146" t="s">
+        <v>655</v>
       </c>
       <c r="G146" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5732,22 +5855,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D147" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="E147" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="F147" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="G147" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5755,22 +5878,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D148" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="E148" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="F148" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="G148" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5778,22 +5901,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="E149" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="F149" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="G149" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5801,22 +5924,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E150" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="F150" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="G150" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5824,22 +5947,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D151" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="E151" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="F151" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G151" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5847,22 +5970,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E152" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="F152" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G152" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5870,22 +5993,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="E153" t="s">
-        <v>507</v>
+        <v>617</v>
       </c>
       <c r="F153" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="G153" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5893,22 +6016,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="D154" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="E154" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="F154" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G154" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5916,22 +6039,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="D155" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="E155" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="F155" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="G155" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5939,22 +6062,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D156" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="E156" t="s">
-        <v>585</v>
-      </c>
-      <c r="F156" t="s">
-        <v>632</v>
+        <v>620</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5962,22 +6085,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D157" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="E157" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="F157" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G157" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5985,22 +6108,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="D158" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="E158" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="F158" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="G158" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6008,22 +6131,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="E159" t="s">
-        <v>588</v>
-      </c>
-      <c r="F159" t="s">
-        <v>652</v>
+        <v>623</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6031,22 +6154,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D160" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="E160" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="F160" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="G160" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6054,22 +6177,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="D161" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E161" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="F161" t="s">
         <v>655</v>
       </c>
       <c r="G161" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6077,22 +6200,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="E162" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="F162" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="G162" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6100,22 +6223,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="E163" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="F163" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G163" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6123,22 +6246,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="D164" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="E164" t="s">
-        <v>593</v>
-      </c>
-      <c r="F164" t="s">
-        <v>623</v>
+        <v>628</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6146,22 +6269,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="E165" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="F165" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="G165" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6169,22 +6292,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="D166" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="E166" t="s">
-        <v>595</v>
-      </c>
-      <c r="F166" t="s">
-        <v>623</v>
+        <v>630</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6192,22 +6315,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D167" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="E167" t="s">
-        <v>596</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
+        <v>631</v>
+      </c>
+      <c r="F167" t="s">
+        <v>665</v>
       </c>
       <c r="G167" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6215,22 +6338,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="E168" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="F168" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="G168" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6238,22 +6361,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="E169" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="F169" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="G169" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6261,22 +6384,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D170" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="E170" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="F170" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="G170" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6284,22 +6407,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="D171" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="E171" t="s">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="F171" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="G171" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6307,22 +6430,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="D172" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E172" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="F172" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="G172" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6330,22 +6453,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D173" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="E173" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="F173" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="G173" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6353,22 +6476,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="D174" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="E174" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="F174" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="G174" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6376,22 +6499,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D175" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E175" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="F175" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G175" t="s">
-        <v>444</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6399,22 +6522,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D176" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E176" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="F176" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G176" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6422,22 +6545,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="D177" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E177" t="s">
-        <v>606</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="F177" t="s">
+        <v>700</v>
       </c>
       <c r="G177" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6445,22 +6568,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D178" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E178" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="F178" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="G178" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6468,22 +6591,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="D179" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E179" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="F179" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="G179" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6491,22 +6614,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="D180" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E180" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="F180" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="G180" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6514,22 +6637,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D181" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E181" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="F181" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="G181" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6537,22 +6660,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D182" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E182" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="F182" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G182" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6560,22 +6683,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D183" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E183" t="s">
-        <v>612</v>
-      </c>
-      <c r="F183" t="s">
-        <v>623</v>
+        <v>646</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6583,22 +6706,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="D184" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E184" t="s">
-        <v>613</v>
-      </c>
-      <c r="F184" t="s">
-        <v>661</v>
+        <v>647</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6606,22 +6729,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="D185" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E185" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="F185" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="G185" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6629,22 +6752,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="D186" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E186" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="F186" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="G186" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6652,22 +6775,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D187" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E187" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="F187" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="G187" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6675,22 +6798,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D188" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E188" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="F188" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="G188" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6698,22 +6821,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="D189" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E189" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="F189" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="G189" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6721,22 +6844,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="D190" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E190" t="s">
-        <v>619</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
+        <v>653</v>
+      </c>
+      <c r="F190" t="s">
+        <v>655</v>
       </c>
       <c r="G190" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6744,22 +6867,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="D191" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="E191" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="F191" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="G191" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/data/instiz_인티포털.xlsx
+++ b/data/instiz_인티포털.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="721">
   <si>
     <t>제목</t>
   </si>
@@ -34,6 +34,96 @@
     <t>추천수</t>
   </si>
   <si>
+    <t>'that'이 연속 5번 쓰인 문장</t>
+  </si>
+  <si>
+    <t>심신의 평화를 가져다주는 도형 그리기</t>
+  </si>
+  <si>
+    <t>금연 포스터 우수상</t>
+  </si>
+  <si>
+    <t>왓챠 아메리칸 뮤직 어워드 단독 중계 근황</t>
+  </si>
+  <si>
+    <t>어제 박명수 트와이스 라디오 전문.txt</t>
+  </si>
+  <si>
+    <t>수능시험장까지 따라온 아이돌 팬들</t>
+  </si>
+  <si>
+    <t>샤워를 즐기는 치와와 ㄷㄷ.gif</t>
+  </si>
+  <si>
+    <t>간지나는 재장전 짤.gif</t>
+  </si>
+  <si>
+    <t>술 마시고 노래 배틀하는 SF9 (절미네민박2)</t>
+  </si>
+  <si>
+    <t>45층에서 의자 던지는 여자ㄷㄷ</t>
+  </si>
+  <si>
+    <t>이순신 장군이 1597년 한 해에 겪은 일들</t>
+  </si>
+  <si>
+    <t>[스파이더맨:노웨이홈] 2차 예고편</t>
+  </si>
+  <si>
+    <t>외국 살았던 사람들만 아는 한국의 문제점</t>
+  </si>
+  <si>
+    <t>가슴이 유난히 컸던 여후배.jpg</t>
+  </si>
+  <si>
+    <t>일본의 한류 유행</t>
+  </si>
+  <si>
+    <t>뿌링클 볶음면 출시.JPG</t>
+  </si>
+  <si>
+    <t>유튜브에서 킬링타임용으로 역주행중인 애니.JPG</t>
+  </si>
+  <si>
+    <t>노페갓 - 복덕방 댄스챌린지</t>
+  </si>
+  <si>
+    <t>[속보] 당국"30세미만 모더나 접종 제한..화이자 권고"</t>
+  </si>
+  <si>
+    <t>편의점서 남성 맨가슴 만진 20대女…강제추행죄 '벌금 100만원'</t>
+  </si>
+  <si>
+    <t>수능 긴급상황 대비체험.jpg</t>
+  </si>
+  <si>
+    <t>잠시후 역주행 이후 첫 대면 위문공연 출연하는 쁘걸</t>
+  </si>
+  <si>
+    <t>지하철 '불법촬영범' 잡고보니… "휴대전화에 여성 사진 1만 장"</t>
+  </si>
+  <si>
+    <t>물개 밥 뺏어 먹은 갈매기의 최후</t>
+  </si>
+  <si>
+    <t>수능날 파업하는게 똑똑한 이유</t>
+  </si>
+  <si>
+    <t>여돌이 게임캐릭터로 변해가는 과정...gif</t>
+  </si>
+  <si>
+    <t>방송중 본인 커리어 자랑하는 연예인들</t>
+  </si>
+  <si>
+    <t>[단독] 양현석 전 YG 대표, 서울 홍대 상가 174억 원에 매각</t>
+  </si>
+  <si>
+    <t>방송가에 흔하지 않은 명품 여성 MC...jpg</t>
+  </si>
+  <si>
+    <t>여자 역사 선생님의 팩폭에 뿔난 그녀들</t>
+  </si>
+  <si>
     <t>김옥빈 전남친 얘기 들은 신동엽의 반응</t>
   </si>
   <si>
@@ -127,9 +217,6 @@
     <t>신문윤리위 최다 제재 언론사는 조선일보</t>
   </si>
   <si>
-    <t>쇼미 그레이노마-쉬어 가장 맘에드는 파트는?</t>
-  </si>
-  <si>
     <t>보고 있으면 후련해지는 사이다짤</t>
   </si>
   <si>
@@ -181,18 +268,9 @@
     <t>왠지 설득당하는 냉장고 없이 살자는 예비신랑.jpg</t>
   </si>
   <si>
-    <t>세계 최고의 게임회사 락스타 근황...jpg</t>
-  </si>
-  <si>
-    <t>알고리즘이 찾아준 Moon 장재호의 최근 경기</t>
-  </si>
-  <si>
     <t>임신한 아내 음식부탁 난이도 레전드.jpg</t>
   </si>
   <si>
-    <t>어제자 레드벨벳 슬기 (게스트 트와이스 지효 정연).jpg</t>
-  </si>
-  <si>
     <t>스포? 스파이더맨 노 웨이 홈 편집 오류</t>
   </si>
   <si>
@@ -202,15 +280,9 @@
     <t>빌런이 된 이유가 이해 됐던 마블 영화 빌런들.jpg</t>
   </si>
   <si>
-    <t>소드 좋아했던 사람 여기 모여라!</t>
-  </si>
-  <si>
     <t>배고파요.. 연어초밥좀 주세요.jpg</t>
   </si>
   <si>
-    <t>윤민섭 기자) 커즈, 에이밍 KT행 루머.. KT측은 노코멘트</t>
-  </si>
-  <si>
     <t>원어스, 데뷔 1044일 만에 첫 1위 "꿈 같아..긍정적인 역사 써 내려..</t>
   </si>
   <si>
@@ -529,76 +601,88 @@
     <t>노웨이홈 삼파이더맨 출연이 99퍼인 이유.jpg</t>
   </si>
   <si>
-    <t>이름은 모르는데 익숙한 새 .jpg</t>
-  </si>
-  <si>
-    <t>여성의 생물학적 노산 기준 나이.jpg</t>
-  </si>
-  <si>
-    <t>LG에서 출시한 역대급 매출이였다는 폰.JPG</t>
-  </si>
-  <si>
-    <t>카더가든이 재해석해서 부른 크라잉넛의 명동콜링</t>
-  </si>
-  <si>
-    <t>미국 3대 시상식 AMAs 시상식에서 BTS가 할 무대</t>
-  </si>
-  <si>
-    <t>빠니보틀 : 곽튜브 성공의 1할은 내 덕이다</t>
-  </si>
-  <si>
-    <t>발렌시아가 행사에 참석한 한소희, 모니카, 더보이즈 주연</t>
-  </si>
-  <si>
-    <t>쓰니 기준 우리나라에서 화보 가장 잘찍는 남자배우</t>
-  </si>
-  <si>
-    <t>귀여운 새끼멍뭉이</t>
-  </si>
-  <si>
-    <t>34살 먹고 첫 직장 생김...내 썰 좀 들어주라</t>
-  </si>
-  <si>
-    <t>무스펙 서울대생의 취업후기 및 준비과정</t>
-  </si>
-  <si>
-    <t>야외야스로 몸살앓는 천혜의 경관....news</t>
-  </si>
-  <si>
-    <t>개발자인줄 알았던 내가 눈떠보니 디자이너.jpg</t>
-  </si>
-  <si>
-    <t>남편이 저 모르게 또 어린이집을 안보냈네요.jpgif</t>
-  </si>
-  <si>
-    <t>스파이더맨 예고 내려갔었던 이유.gif</t>
-  </si>
-  <si>
-    <t>요즘 해외 영화 수입 열심히 하는 소지섭</t>
-  </si>
-  <si>
-    <t>바람핀 친엄마 vs 새엄마</t>
-  </si>
-  <si>
-    <t>벌새를 닮은 귀여운 벌레</t>
-  </si>
-  <si>
-    <t>지능이 높을수록 성욕이 강하다.jpg</t>
-  </si>
-  <si>
-    <t>초봉 6500만원·휴가 기간 무제한…그래도 '노는 직원' 없는 비결</t>
-  </si>
-  <si>
-    <t>김재우 근황.jpg</t>
-  </si>
-  <si>
-    <t>프랑스 대박별 한국학&amp;한국어 전공 경쟁률 현황 ㄷㄷㄷ jpg</t>
-  </si>
-  <si>
-    <t>유튜브에서 킬링타임용으로 역주행중인 애니.JPG</t>
-  </si>
-  <si>
-    <t>약쟁이 검거 완료</t>
+    <t>djekxn</t>
+  </si>
+  <si>
+    <t>에자키히카루</t>
+  </si>
+  <si>
+    <t>김낑깡</t>
+  </si>
+  <si>
+    <t>비끼</t>
+  </si>
+  <si>
+    <t>벤츄리</t>
+  </si>
+  <si>
+    <t>깐부</t>
+  </si>
+  <si>
+    <t>언행일치</t>
+  </si>
+  <si>
+    <t>뭐야 너</t>
+  </si>
+  <si>
+    <t>시츄안닮았어</t>
+  </si>
+  <si>
+    <t>청량섹시 김태</t>
+  </si>
+  <si>
+    <t>쿵쾅맨</t>
+  </si>
+  <si>
+    <t>qksxks ghtjr</t>
+  </si>
+  <si>
+    <t>311342_return</t>
+  </si>
+  <si>
+    <t>최민호(26)</t>
+  </si>
+  <si>
+    <t>우물밖 여고</t>
+  </si>
+  <si>
+    <t>아이오아이 김</t>
+  </si>
+  <si>
+    <t>토끼네</t>
+  </si>
+  <si>
+    <t>내 마음속에 저</t>
+  </si>
+  <si>
+    <t>널 사랑해 영</t>
+  </si>
+  <si>
+    <t>멍ㅇ멍이 소리</t>
+  </si>
+  <si>
+    <t>수인분당선</t>
+  </si>
+  <si>
+    <t>곰젤링</t>
+  </si>
+  <si>
+    <t>성우야♡</t>
+  </si>
+  <si>
+    <t>호롤로롤롤</t>
+  </si>
+  <si>
+    <t>슈슈슈슈슈슈</t>
+  </si>
+  <si>
+    <t>즐겨즐겨</t>
+  </si>
+  <si>
+    <t>지수</t>
+  </si>
+  <si>
+    <t>꾸루뀨</t>
   </si>
   <si>
     <t>세훈이를업어</t>
@@ -631,18 +715,9 @@
     <t>방구석천재</t>
   </si>
   <si>
-    <t>지수</t>
-  </si>
-  <si>
-    <t>에자키히카루</t>
-  </si>
-  <si>
     <t>She</t>
   </si>
   <si>
-    <t>언행일치</t>
-  </si>
-  <si>
     <t>양꼬치 떨어져</t>
   </si>
   <si>
@@ -658,12 +733,6 @@
     <t>더보이즈 이주</t>
   </si>
   <si>
-    <t>토끼네</t>
-  </si>
-  <si>
-    <t>벤츄리</t>
-  </si>
-  <si>
     <t>이리저리요리</t>
   </si>
   <si>
@@ -691,228 +760,195 @@
     <t>자두야♡♡</t>
   </si>
   <si>
+    <t>Laniakea</t>
+  </si>
+  <si>
+    <t>누눈나난</t>
+  </si>
+  <si>
+    <t>영국닭집</t>
+  </si>
+  <si>
+    <t>녹차말차킬러</t>
+  </si>
+  <si>
+    <t>존 스미스</t>
+  </si>
+  <si>
+    <t>~~</t>
+  </si>
+  <si>
+    <t>마유</t>
+  </si>
+  <si>
+    <t>더보이즈 영</t>
+  </si>
+  <si>
+    <t>딸기꽃</t>
+  </si>
+  <si>
+    <t>초코치킨</t>
+  </si>
+  <si>
+    <t>박뚱시</t>
+  </si>
+  <si>
+    <t>+ordin</t>
+  </si>
+  <si>
+    <t>세븐틴 원 +</t>
+  </si>
+  <si>
+    <t>강쥐강아쥐</t>
+  </si>
+  <si>
+    <t>풀썬이동혁</t>
+  </si>
+  <si>
+    <t>ㄷH학수학능력</t>
+  </si>
+  <si>
+    <t>.서로가 서로</t>
+  </si>
+  <si>
+    <t>일루전 커넥</t>
+  </si>
+  <si>
+    <t>뿌두구</t>
+  </si>
+  <si>
+    <t>몽몽댕</t>
+  </si>
+  <si>
+    <t>닐라닐라</t>
+  </si>
+  <si>
+    <t>김영란</t>
+  </si>
+  <si>
+    <t>스트로베리문</t>
+  </si>
+  <si>
+    <t>미니온즈</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>옹성우박우진</t>
+  </si>
+  <si>
+    <t>세정언니링</t>
+  </si>
+  <si>
+    <t>계같네</t>
+  </si>
+  <si>
+    <t>하니형</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>어니부깅</t>
+  </si>
+  <si>
+    <t>바보같은그대</t>
+  </si>
+  <si>
+    <t>용시대박</t>
+  </si>
+  <si>
+    <t>JOSHUA95</t>
+  </si>
+  <si>
+    <t>Twenty_Four</t>
+  </si>
+  <si>
+    <t>겟</t>
+  </si>
+  <si>
+    <t>NUEST-W</t>
+  </si>
+  <si>
+    <t>색지</t>
+  </si>
+  <si>
+    <t>다시 태어날</t>
+  </si>
+  <si>
+    <t>보이프렌드 민</t>
+  </si>
+  <si>
+    <t>슈비룹</t>
+  </si>
+  <si>
+    <t>시어머니블루</t>
+  </si>
+  <si>
+    <t>노츄캡짱</t>
+  </si>
+  <si>
+    <t>S.COUPS.</t>
+  </si>
+  <si>
+    <t>쇼콘!23</t>
+  </si>
+  <si>
+    <t>윤정한 아내</t>
+  </si>
+  <si>
+    <t>굿데이_희진</t>
+  </si>
+  <si>
+    <t>마카롱꿀떡</t>
+  </si>
+  <si>
     <t>장미장미</t>
   </si>
   <si>
-    <t>Laniakea</t>
-  </si>
-  <si>
-    <t>누눈나난</t>
-  </si>
-  <si>
-    <t>영국닭집</t>
-  </si>
-  <si>
-    <t>녹차말차킬러</t>
-  </si>
-  <si>
-    <t>존 스미스</t>
-  </si>
-  <si>
-    <t>~~</t>
-  </si>
-  <si>
-    <t>마유</t>
-  </si>
-  <si>
-    <t>더보이즈 영</t>
-  </si>
-  <si>
-    <t>딸기꽃</t>
-  </si>
-  <si>
-    <t>초코치킨</t>
-  </si>
-  <si>
-    <t>호롤로롤롤</t>
+    <t>초코틴틴세븐</t>
+  </si>
+  <si>
+    <t>중 천러</t>
+  </si>
+  <si>
+    <t>더보이즈 상</t>
+  </si>
+  <si>
+    <t>녤피치</t>
+  </si>
+  <si>
+    <t>환조승연애</t>
+  </si>
+  <si>
+    <t>308679_return</t>
+  </si>
+  <si>
+    <t>남준선배</t>
+  </si>
+  <si>
+    <t>뇌잘린</t>
+  </si>
+  <si>
+    <t>꾸쭈꾸쭈</t>
+  </si>
+  <si>
+    <t>방탄소년단★</t>
+  </si>
+  <si>
+    <t>307559_return</t>
+  </si>
+  <si>
+    <t>유기현 (25)</t>
+  </si>
+  <si>
+    <t>임팩트FBI</t>
   </si>
   <si>
     <t>♡김태형♡</t>
   </si>
   <si>
-    <t>할리뱅입니더</t>
-  </si>
-  <si>
-    <t>멍ㅇ멍이 소리</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t>박뚱시</t>
-  </si>
-  <si>
-    <t>+ordin</t>
-  </si>
-  <si>
-    <t>우물밖 여고</t>
-  </si>
-  <si>
-    <t>세븐틴 원 +</t>
-  </si>
-  <si>
-    <t>윤세원</t>
-  </si>
-  <si>
-    <t>강쥐강아쥐</t>
-  </si>
-  <si>
-    <t>풀썬이동혁</t>
-  </si>
-  <si>
-    <t>ㄷH학수학능력</t>
-  </si>
-  <si>
-    <t>.서로가 서로</t>
-  </si>
-  <si>
-    <t>일루전 커넥</t>
-  </si>
-  <si>
-    <t>뿌두구</t>
-  </si>
-  <si>
-    <t>몽몽댕</t>
-  </si>
-  <si>
-    <t>널 사랑해 영</t>
-  </si>
-  <si>
-    <t>닐라닐라</t>
-  </si>
-  <si>
-    <t>김영란</t>
-  </si>
-  <si>
-    <t>스트로베리문</t>
-  </si>
-  <si>
-    <t>미니온즈</t>
-  </si>
-  <si>
-    <t>옹성우박우진</t>
-  </si>
-  <si>
-    <t>세정언니링</t>
-  </si>
-  <si>
-    <t>계같네</t>
-  </si>
-  <si>
-    <t>슈슈슈슈슈슈</t>
-  </si>
-  <si>
-    <t>하니형</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>어니부깅</t>
-  </si>
-  <si>
-    <t>바보같은그대</t>
-  </si>
-  <si>
-    <t>용시대박</t>
-  </si>
-  <si>
-    <t>JOSHUA95</t>
-  </si>
-  <si>
-    <t>Twenty_Four</t>
-  </si>
-  <si>
-    <t>qksxks ghtjr</t>
-  </si>
-  <si>
-    <t>겟</t>
-  </si>
-  <si>
-    <t>NUEST-W</t>
-  </si>
-  <si>
-    <t>색지</t>
-  </si>
-  <si>
-    <t>다시 태어날</t>
-  </si>
-  <si>
-    <t>보이프렌드 민</t>
-  </si>
-  <si>
-    <t>슈비룹</t>
-  </si>
-  <si>
-    <t>311342_return</t>
-  </si>
-  <si>
-    <t>시어머니블루</t>
-  </si>
-  <si>
-    <t>노츄캡짱</t>
-  </si>
-  <si>
-    <t>S.COUPS.</t>
-  </si>
-  <si>
-    <t>쇼콘!23</t>
-  </si>
-  <si>
-    <t>윤정한 아내</t>
-  </si>
-  <si>
-    <t>굿데이_희진</t>
-  </si>
-  <si>
-    <t>마카롱꿀떡</t>
-  </si>
-  <si>
-    <t>초코틴틴세븐</t>
-  </si>
-  <si>
-    <t>중 천러</t>
-  </si>
-  <si>
-    <t>더보이즈 상</t>
-  </si>
-  <si>
-    <t>뭐야 너</t>
-  </si>
-  <si>
-    <t>녤피치</t>
-  </si>
-  <si>
-    <t>환조승연애</t>
-  </si>
-  <si>
-    <t>308679_return</t>
-  </si>
-  <si>
-    <t>남준선배</t>
-  </si>
-  <si>
-    <t>뇌잘린</t>
-  </si>
-  <si>
-    <t>꾸쭈꾸쭈</t>
-  </si>
-  <si>
-    <t>방탄소년단★</t>
-  </si>
-  <si>
-    <t>307559_return</t>
-  </si>
-  <si>
-    <t>유기현 (25)</t>
-  </si>
-  <si>
-    <t>임팩트FBI</t>
-  </si>
-  <si>
-    <t>김낑깡</t>
-  </si>
-  <si>
     <t>Busu031</t>
   </si>
   <si>
@@ -934,37 +970,76 @@
     <t>Wannable(워너</t>
   </si>
   <si>
-    <t>Jeddd</t>
-  </si>
-  <si>
-    <t>싯떼루네`ワ</t>
-  </si>
-  <si>
-    <t>Vitro</t>
-  </si>
-  <si>
-    <t>행복한왕만두</t>
-  </si>
-  <si>
-    <t>헤에에이~</t>
-  </si>
-  <si>
-    <t>아야나미</t>
-  </si>
-  <si>
-    <t>'''</t>
-  </si>
-  <si>
-    <t>그녀의이름은</t>
-  </si>
-  <si>
-    <t>송희진</t>
-  </si>
-  <si>
-    <t>311869_return</t>
-  </si>
-  <si>
-    <t>위례신다도시</t>
+    <t>2021.11.18 17:42</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:38</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:25</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:22</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:18</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:15</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:13</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:07</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:02</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:01</t>
+  </si>
+  <si>
+    <t>2021.11.18 17:00</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:58</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:57</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:55</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:53</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:51</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:47</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:46</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:43</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:35</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:27</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:24</t>
+  </si>
+  <si>
+    <t>2021.11.18 16:16</t>
   </si>
   <si>
     <t>2021.11.18 16:11</t>
@@ -1093,12 +1168,6 @@
     <t>2021.11.18 13:25</t>
   </si>
   <si>
-    <t>2021.11.18 13:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 13:20</t>
-  </si>
-  <si>
     <t>2021.11.18 13:18</t>
   </si>
   <si>
@@ -1108,15 +1177,9 @@
     <t>2021.11.18 13:16</t>
   </si>
   <si>
-    <t>2021.11.18 13:14</t>
-  </si>
-  <si>
     <t>2021.11.18 13:08</t>
   </si>
   <si>
-    <t>2021.11.18 13:02</t>
-  </si>
-  <si>
     <t>2021.11.18 12:51</t>
   </si>
   <si>
@@ -1402,736 +1465,718 @@
     <t>2021.11.18 00:50</t>
   </si>
   <si>
-    <t>2021.11.18 00:48</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:44</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:39</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:25</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:21</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:13</t>
-  </si>
-  <si>
-    <t>2021.11.18 00:08</t>
-  </si>
-  <si>
-    <t>2021.11.17</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>5496</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>4559</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>3084</t>
-  </si>
-  <si>
-    <t>5648</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>6399</t>
-  </si>
-  <si>
-    <t>3842</t>
-  </si>
-  <si>
-    <t>4523</t>
-  </si>
-  <si>
-    <t>7012</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>11460</t>
-  </si>
-  <si>
-    <t>4765</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>4580</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>8395</t>
-  </si>
-  <si>
-    <t>16077</t>
-  </si>
-  <si>
-    <t>18406</t>
-  </si>
-  <si>
-    <t>17467</t>
-  </si>
-  <si>
-    <t>13029</t>
-  </si>
-  <si>
-    <t>8554</t>
-  </si>
-  <si>
-    <t>12171</t>
-  </si>
-  <si>
-    <t>8372</t>
-  </si>
-  <si>
-    <t>3965</t>
-  </si>
-  <si>
-    <t>10634</t>
-  </si>
-  <si>
-    <t>3811</t>
-  </si>
-  <si>
-    <t>11182</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>2948</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>6383</t>
+  </si>
+  <si>
+    <t>5273</t>
+  </si>
+  <si>
+    <t>3266</t>
+  </si>
+  <si>
+    <t>4373</t>
+  </si>
+  <si>
+    <t>3659</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>4786</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>3597</t>
+  </si>
+  <si>
+    <t>10117</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>3435</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>10292</t>
+  </si>
+  <si>
+    <t>9733</t>
+  </si>
+  <si>
+    <t>3669</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>5188</t>
+  </si>
+  <si>
+    <t>4515</t>
+  </si>
+  <si>
+    <t>3674</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>19314</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>3910</t>
+  </si>
+  <si>
+    <t>10180</t>
+  </si>
+  <si>
+    <t>15817</t>
+  </si>
+  <si>
+    <t>2674</t>
+  </si>
+  <si>
+    <t>7802</t>
+  </si>
+  <si>
+    <t>16345</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>9121</t>
+  </si>
+  <si>
+    <t>4735</t>
+  </si>
+  <si>
+    <t>5117</t>
+  </si>
+  <si>
+    <t>9346</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>22807</t>
+  </si>
+  <si>
+    <t>5240</t>
+  </si>
+  <si>
+    <t>2924</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>5235</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>10845</t>
+  </si>
+  <si>
+    <t>24169</t>
+  </si>
+  <si>
+    <t>31406</t>
+  </si>
+  <si>
+    <t>29893</t>
+  </si>
+  <si>
+    <t>17885</t>
+  </si>
+  <si>
+    <t>9939</t>
+  </si>
+  <si>
+    <t>16090</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>4306</t>
+  </si>
+  <si>
+    <t>11906</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>11862</t>
   </si>
   <si>
     <t>729</t>
   </si>
   <si>
-    <t>9461</t>
-  </si>
-  <si>
-    <t>3825</t>
-  </si>
-  <si>
-    <t>29691</t>
-  </si>
-  <si>
-    <t>31992</t>
-  </si>
-  <si>
-    <t>3353</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>19957</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2660</t>
-  </si>
-  <si>
-    <t>6148</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>11736</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>6939</t>
-  </si>
-  <si>
-    <t>9434</t>
-  </si>
-  <si>
-    <t>4371</t>
-  </si>
-  <si>
-    <t>11368</t>
-  </si>
-  <si>
-    <t>34225</t>
-  </si>
-  <si>
-    <t>3095</t>
-  </si>
-  <si>
-    <t>16304</t>
-  </si>
-  <si>
-    <t>13665</t>
+    <t>9810</t>
+  </si>
+  <si>
+    <t>3981</t>
+  </si>
+  <si>
+    <t>42385</t>
+  </si>
+  <si>
+    <t>49584</t>
+  </si>
+  <si>
+    <t>27798</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2733</t>
+  </si>
+  <si>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>12471</t>
+  </si>
+  <si>
+    <t>7164</t>
+  </si>
+  <si>
+    <t>9986</t>
+  </si>
+  <si>
+    <t>4607</t>
+  </si>
+  <si>
+    <t>11808</t>
+  </si>
+  <si>
+    <t>47926</t>
+  </si>
+  <si>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>18270</t>
+  </si>
+  <si>
+    <t>13962</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>25713</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>4852</t>
-  </si>
-  <si>
-    <t>5947</t>
-  </si>
-  <si>
-    <t>46130</t>
-  </si>
-  <si>
-    <t>5447</t>
-  </si>
-  <si>
-    <t>3473</t>
-  </si>
-  <si>
-    <t>14737</t>
-  </si>
-  <si>
-    <t>2274</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>26960</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>42139</t>
-  </si>
-  <si>
-    <t>17950</t>
-  </si>
-  <si>
-    <t>1818</t>
-  </si>
-  <si>
-    <t>4326</t>
-  </si>
-  <si>
-    <t>4636</t>
-  </si>
-  <si>
-    <t>14924</t>
-  </si>
-  <si>
-    <t>16578</t>
-  </si>
-  <si>
-    <t>43047</t>
-  </si>
-  <si>
-    <t>2605</t>
-  </si>
-  <si>
-    <t>3466</t>
-  </si>
-  <si>
-    <t>17521</t>
-  </si>
-  <si>
-    <t>32197</t>
-  </si>
-  <si>
-    <t>14287</t>
-  </si>
-  <si>
-    <t>4564</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>47841</t>
-  </si>
-  <si>
-    <t>32388</t>
-  </si>
-  <si>
-    <t>8497</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>5015</t>
-  </si>
-  <si>
-    <t>9153</t>
-  </si>
-  <si>
-    <t>22272</t>
-  </si>
-  <si>
-    <t>32357</t>
-  </si>
-  <si>
-    <t>8003</t>
-  </si>
-  <si>
-    <t>54133</t>
-  </si>
-  <si>
-    <t>2047</t>
-  </si>
-  <si>
-    <t>27498</t>
+    <t>490</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>31513</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>2398</t>
+  </si>
+  <si>
+    <t>4861</t>
+  </si>
+  <si>
+    <t>5971</t>
+  </si>
+  <si>
+    <t>57958</t>
+  </si>
+  <si>
+    <t>5562</t>
+  </si>
+  <si>
+    <t>3481</t>
+  </si>
+  <si>
+    <t>15183</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>27587</t>
+  </si>
+  <si>
+    <t>2459</t>
+  </si>
+  <si>
+    <t>53013</t>
+  </si>
+  <si>
+    <t>22126</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>4396</t>
+  </si>
+  <si>
+    <t>4962</t>
+  </si>
+  <si>
+    <t>15576</t>
+  </si>
+  <si>
+    <t>17130</t>
+  </si>
+  <si>
+    <t>48436</t>
+  </si>
+  <si>
+    <t>3531</t>
+  </si>
+  <si>
+    <t>18190</t>
+  </si>
+  <si>
+    <t>33162</t>
+  </si>
+  <si>
+    <t>14850</t>
+  </si>
+  <si>
+    <t>4701</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>56659</t>
+  </si>
+  <si>
+    <t>33496</t>
+  </si>
+  <si>
+    <t>8643</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>5220</t>
+  </si>
+  <si>
+    <t>9451</t>
+  </si>
+  <si>
+    <t>23478</t>
+  </si>
+  <si>
+    <t>34856</t>
+  </si>
+  <si>
+    <t>8286</t>
+  </si>
+  <si>
+    <t>64296</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>27631</t>
   </si>
   <si>
     <t>2145</t>
   </si>
   <si>
-    <t>5193</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>7014</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>2816</t>
-  </si>
-  <si>
-    <t>13791</t>
-  </si>
-  <si>
-    <t>1177</t>
-  </si>
-  <si>
-    <t>76426</t>
-  </si>
-  <si>
-    <t>16852</t>
-  </si>
-  <si>
-    <t>24115</t>
-  </si>
-  <si>
-    <t>11334</t>
-  </si>
-  <si>
-    <t>30954</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>6152</t>
-  </si>
-  <si>
-    <t>2539</t>
-  </si>
-  <si>
-    <t>80146</t>
-  </si>
-  <si>
-    <t>2774</t>
-  </si>
-  <si>
-    <t>16075</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>36375</t>
-  </si>
-  <si>
-    <t>8480</t>
-  </si>
-  <si>
-    <t>5275</t>
-  </si>
-  <si>
-    <t>4037</t>
-  </si>
-  <si>
-    <t>6273</t>
-  </si>
-  <si>
-    <t>19256</t>
-  </si>
-  <si>
-    <t>5437</t>
-  </si>
-  <si>
-    <t>3596</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>9429</t>
-  </si>
-  <si>
-    <t>5525</t>
-  </si>
-  <si>
-    <t>6488</t>
-  </si>
-  <si>
-    <t>4069</t>
-  </si>
-  <si>
-    <t>694</t>
+    <t>5236</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>7016</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>14129</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>91241</t>
+  </si>
+  <si>
+    <t>17346</t>
+  </si>
+  <si>
+    <t>24638</t>
+  </si>
+  <si>
+    <t>11575</t>
+  </si>
+  <si>
+    <t>31403</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>6161</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>94589</t>
+  </si>
+  <si>
+    <t>2787</t>
+  </si>
+  <si>
+    <t>16916</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>37553</t>
+  </si>
+  <si>
+    <t>8570</t>
+  </si>
+  <si>
+    <t>5476</t>
+  </si>
+  <si>
+    <t>4135</t>
+  </si>
+  <si>
+    <t>6509</t>
+  </si>
+  <si>
+    <t>19514</t>
+  </si>
+  <si>
+    <t>5441</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>3601</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>9511</t>
+  </si>
+  <si>
+    <t>5573</t>
+  </si>
+  <si>
+    <t>6497</t>
+  </si>
+  <si>
+    <t>3598</t>
+  </si>
+  <si>
+    <t>4080</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>4042</t>
   </si>
   <si>
     <t>261</t>
   </si>
   <si>
-    <t>3676</t>
-  </si>
-  <si>
-    <t>5128</t>
-  </si>
-  <si>
-    <t>3972</t>
-  </si>
-  <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>7926</t>
-  </si>
-  <si>
-    <t>2267</t>
+    <t>3794</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>4058</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>7929</t>
+  </si>
+  <si>
+    <t>2342</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>1849</t>
-  </si>
-  <si>
-    <t>2356</t>
-  </si>
-  <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>11925</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>4652</t>
-  </si>
-  <si>
-    <t>3139</t>
-  </si>
-  <si>
-    <t>18937</t>
-  </si>
-  <si>
-    <t>12369</t>
-  </si>
-  <si>
-    <t>3990</t>
-  </si>
-  <si>
-    <t>6846</t>
-  </si>
-  <si>
-    <t>12786</t>
-  </si>
-  <si>
-    <t>3415</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>31803</t>
-  </si>
-  <si>
-    <t>17101</t>
-  </si>
-  <si>
-    <t>3386</t>
-  </si>
-  <si>
-    <t>94514</t>
-  </si>
-  <si>
-    <t>7630</t>
-  </si>
-  <si>
-    <t>5845</t>
-  </si>
-  <si>
-    <t>2335</t>
-  </si>
-  <si>
-    <t>3840</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>14130</t>
-  </si>
-  <si>
-    <t>19587</t>
-  </si>
-  <si>
-    <t>2948</t>
-  </si>
-  <si>
-    <t>13589</t>
-  </si>
-  <si>
-    <t>3018</t>
-  </si>
-  <si>
-    <t>2137</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>2611</t>
+  </si>
+  <si>
+    <t>12071</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>4654</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -2526,16 +2571,16 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2552,13 +2597,13 @@
         <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F3" t="s">
-        <v>655</v>
+        <v>483</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2575,13 +2620,13 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
       <c r="G4" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2595,16 +2640,16 @@
         <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2618,16 +2663,16 @@
         <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="F6" t="s">
+        <v>671</v>
       </c>
       <c r="G6" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2641,16 +2686,16 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2664,16 +2709,16 @@
         <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="G8" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2687,16 +2732,16 @@
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2710,16 +2755,16 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" t="s">
-        <v>658</v>
+        <v>490</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2733,16 +2778,16 @@
         <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G11" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2756,16 +2801,16 @@
         <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F12" t="s">
-        <v>660</v>
+        <v>492</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2779,16 +2824,16 @@
         <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2802,16 +2847,16 @@
         <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="F14" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="G14" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2825,16 +2870,16 @@
         <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E15" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="G15" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2851,13 +2896,13 @@
         <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="F16" t="s">
+        <v>671</v>
       </c>
       <c r="G16" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2871,16 +2916,16 @@
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>485</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="F17" t="s">
+        <v>676</v>
       </c>
       <c r="G17" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2894,16 +2939,16 @@
         <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2914,19 +2959,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2937,19 +2982,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>663</v>
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2960,19 +3005,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E21" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F21" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="G21" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2986,16 +3031,16 @@
         <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E22" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F22" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="G22" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3009,16 +3054,16 @@
         <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" t="s">
-        <v>665</v>
+        <v>503</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3032,16 +3077,16 @@
         <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E24" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F24" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="G24" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3055,16 +3100,16 @@
         <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="F25" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="G25" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3075,19 +3120,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E26" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F26" t="s">
-        <v>666</v>
+        <v>483</v>
       </c>
       <c r="G26" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3098,19 +3143,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="F27" t="s">
-        <v>658</v>
+        <v>483</v>
       </c>
       <c r="G27" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3121,19 +3166,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" t="s">
-        <v>496</v>
-      </c>
-      <c r="F28" t="s">
-        <v>667</v>
+        <v>508</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3144,19 +3189,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
         <v>340</v>
       </c>
       <c r="E29" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="F29" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G29" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3167,19 +3212,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="F30" t="s">
+        <v>681</v>
       </c>
       <c r="G30" t="s">
-        <v>704</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3187,22 +3232,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E31" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F31" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="G31" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3210,22 +3255,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E32" t="s">
-        <v>500</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="F32" t="s">
+        <v>673</v>
       </c>
       <c r="G32" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3233,22 +3278,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E33" t="s">
-        <v>501</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="F33" t="s">
+        <v>483</v>
       </c>
       <c r="G33" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3256,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>225</v>
@@ -3265,13 +3310,13 @@
         <v>344</v>
       </c>
       <c r="E34" t="s">
-        <v>502</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="F34" t="s">
+        <v>680</v>
       </c>
       <c r="G34" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3279,22 +3324,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E35" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F35" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="G35" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3302,22 +3347,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F36" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="G36" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3325,22 +3370,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" t="s">
-        <v>505</v>
-      </c>
-      <c r="F37" t="s">
-        <v>657</v>
+        <v>517</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>705</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3348,22 +3393,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E38" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="F38" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="G38" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3371,22 +3416,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>507</v>
-      </c>
-      <c r="F39" t="s">
-        <v>670</v>
+        <v>519</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3394,22 +3439,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E40" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F40" t="s">
         <v>671</v>
       </c>
       <c r="G40" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3417,22 +3462,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E41" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="F41" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="G41" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3440,22 +3485,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E42" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F42" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="G42" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3463,22 +3508,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>511</v>
-      </c>
-      <c r="F43" t="s">
-        <v>656</v>
+        <v>523</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3486,22 +3531,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E44" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F44" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G44" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3509,22 +3554,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E45" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F45" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="G45" t="s">
-        <v>655</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3532,22 +3577,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="F46" t="s">
-        <v>673</v>
+        <v>483</v>
       </c>
       <c r="G46" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3555,22 +3600,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E47" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3578,22 +3623,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E48" t="s">
-        <v>516</v>
-      </c>
-      <c r="F48" t="s">
-        <v>674</v>
+        <v>528</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>684</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3601,22 +3646,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
         <v>357</v>
       </c>
       <c r="E49" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3624,22 +3669,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
         <v>358</v>
       </c>
       <c r="E50" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="F50" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G50" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3647,22 +3692,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E51" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="F51" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G51" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3670,22 +3715,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E52" t="s">
-        <v>520</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="F52" t="s">
+        <v>687</v>
       </c>
       <c r="G52" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3693,22 +3738,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E53" t="s">
-        <v>521</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="F53" t="s">
+        <v>574</v>
       </c>
       <c r="G53" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3716,22 +3761,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E54" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="F54" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="G54" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3739,22 +3784,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>523</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="F55" t="s">
+        <v>483</v>
       </c>
       <c r="G55" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3762,22 +3807,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="F56" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="G56" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3785,22 +3830,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E57" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="F57" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="G57" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3808,22 +3853,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E58" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="F58" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="G58" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3831,22 +3876,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>527</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
       </c>
       <c r="G59" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3854,22 +3899,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>244</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E60" t="s">
-        <v>528</v>
-      </c>
-      <c r="F60" t="s">
-        <v>677</v>
+        <v>540</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3877,22 +3922,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E61" t="s">
-        <v>529</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="F61" t="s">
+        <v>671</v>
       </c>
       <c r="G61" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3906,16 +3951,16 @@
         <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>530</v>
-      </c>
-      <c r="F62" t="s">
-        <v>678</v>
+        <v>542</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3929,16 +3974,16 @@
         <v>247</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
-        <v>531</v>
-      </c>
-      <c r="F63" t="s">
-        <v>679</v>
+        <v>543</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>661</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3949,19 +3994,19 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E64" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="F64" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="G64" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3972,19 +4017,19 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E65" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="F65" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="G65" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3995,19 +4040,19 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E66" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F66" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="G66" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4018,19 +4063,19 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F67" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="G67" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4041,19 +4086,19 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E68" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="F68" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="G68" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4064,19 +4109,19 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="F69" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G69" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4087,19 +4132,19 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>538</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="F70" t="s">
+        <v>694</v>
       </c>
       <c r="G70" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4110,19 +4155,19 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E71" t="s">
-        <v>539</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="F71" t="s">
+        <v>676</v>
       </c>
       <c r="G71" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4133,19 +4178,19 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E72" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F72" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="G72" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4156,19 +4201,19 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E73" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F73" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G73" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4179,19 +4224,19 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E74" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F74" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="G74" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4202,19 +4247,19 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E75" t="s">
-        <v>543</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="F75" t="s">
+        <v>695</v>
       </c>
       <c r="G75" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4225,19 +4270,19 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E76" t="s">
-        <v>544</v>
-      </c>
-      <c r="F76" t="s">
-        <v>658</v>
+        <v>556</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4251,16 +4296,16 @@
         <v>256</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E77" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="F77" t="s">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="G77" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4277,13 +4322,13 @@
         <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>546</v>
-      </c>
-      <c r="F78" t="s">
-        <v>683</v>
+        <v>558</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>663</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4294,19 +4339,19 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>383</v>
       </c>
       <c r="E79" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="F79" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="G79" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4317,19 +4362,19 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F80" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="G80" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4340,19 +4385,19 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
         <v>384</v>
       </c>
       <c r="E81" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="F81" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="G81" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4363,19 +4408,19 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
         <v>385</v>
       </c>
       <c r="E82" t="s">
-        <v>550</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
+        <v>562</v>
+      </c>
+      <c r="F82" t="s">
+        <v>483</v>
       </c>
       <c r="G82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4386,19 +4431,19 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D83" t="s">
         <v>386</v>
       </c>
       <c r="E83" t="s">
-        <v>551</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="F83" t="s">
+        <v>483</v>
       </c>
       <c r="G83" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4409,19 +4454,19 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E84" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F84" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G84" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4432,19 +4477,19 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E85" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="G85" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4455,19 +4500,19 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="F86" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="G86" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4478,19 +4523,19 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E87" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="F87" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G87" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4501,19 +4546,19 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
-        <v>556</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
+        <v>568</v>
+      </c>
+      <c r="F88" t="s">
+        <v>673</v>
       </c>
       <c r="G88" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4524,19 +4569,19 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D89" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="F89" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="G89" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4547,19 +4592,19 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
         <v>392</v>
       </c>
       <c r="E90" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F90" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="G90" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4570,19 +4615,19 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D91" t="s">
         <v>393</v>
       </c>
       <c r="E91" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F91" t="s">
-        <v>687</v>
+        <v>483</v>
       </c>
       <c r="G91" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4593,19 +4638,19 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="D92" t="s">
         <v>394</v>
       </c>
       <c r="E92" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="F92" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G92" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4616,19 +4661,19 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E93" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="F93" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G93" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4639,19 +4684,19 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="D94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>562</v>
-      </c>
-      <c r="F94" t="s">
-        <v>656</v>
+        <v>574</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4662,19 +4707,19 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
-        <v>563</v>
-      </c>
-      <c r="F95" t="s">
-        <v>655</v>
+        <v>575</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4685,19 +4730,19 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E96" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F96" t="s">
-        <v>538</v>
+        <v>671</v>
       </c>
       <c r="G96" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4708,19 +4753,19 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="D97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F97" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="G97" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4731,19 +4776,19 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E98" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F98" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G98" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4754,19 +4799,19 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E99" t="s">
-        <v>567</v>
-      </c>
-      <c r="F99" t="s">
-        <v>623</v>
+        <v>579</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4777,19 +4822,19 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E100" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F100" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="G100" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4800,19 +4845,19 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="D101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E101" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F101" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G101" t="s">
-        <v>681</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4823,19 +4868,19 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E102" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F102" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="G102" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4846,19 +4891,19 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E103" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="F103" t="s">
         <v>673</v>
       </c>
       <c r="G103" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4869,19 +4914,19 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E104" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="F104" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
       <c r="G104" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4895,16 +4940,16 @@
         <v>274</v>
       </c>
       <c r="D105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E105" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="F105" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="G105" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4918,16 +4963,16 @@
         <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E106" t="s">
-        <v>573</v>
-      </c>
-      <c r="F106" t="s">
-        <v>667</v>
+        <v>586</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4938,19 +4983,19 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E107" t="s">
-        <v>574</v>
-      </c>
-      <c r="F107" t="s">
-        <v>667</v>
+        <v>587</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>658</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4961,19 +5006,19 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E108" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F108" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="G108" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4984,19 +5029,19 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E109" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="F109" t="s">
-        <v>691</v>
+        <v>483</v>
       </c>
       <c r="G109" t="s">
-        <v>538</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5007,19 +5052,19 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E110" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F110" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="G110" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5030,19 +5075,19 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E111" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F111" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="G111" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5053,19 +5098,19 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E112" t="s">
-        <v>579</v>
-      </c>
-      <c r="F112" t="s">
-        <v>655</v>
+        <v>592</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5076,19 +5121,19 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="D113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F113" t="s">
-        <v>678</v>
+        <v>483</v>
       </c>
       <c r="G113" t="s">
-        <v>672</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5099,19 +5144,19 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="D114" t="s">
         <v>413</v>
       </c>
       <c r="E114" t="s">
-        <v>581</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
+        <v>594</v>
+      </c>
+      <c r="F114" t="s">
+        <v>673</v>
       </c>
       <c r="G114" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5122,19 +5167,19 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D115" t="s">
         <v>414</v>
       </c>
       <c r="E115" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F115" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="G115" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5145,19 +5190,19 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
         <v>415</v>
       </c>
       <c r="E116" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F116" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="G116" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5168,19 +5213,19 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="D117" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E117" t="s">
-        <v>584</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="F117" t="s">
+        <v>708</v>
       </c>
       <c r="G117" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5191,19 +5236,19 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="D118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E118" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="F118" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="G118" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5214,19 +5259,19 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E119" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F119" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G119" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5237,19 +5282,19 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E120" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="F120" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="G120" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5260,19 +5305,19 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E121" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F121" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="G121" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5283,19 +5328,19 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E122" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F122" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="G122" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5306,19 +5351,19 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E123" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="F123" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="G123" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5329,19 +5374,19 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="D124" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E124" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="F124" t="s">
-        <v>672</v>
+        <v>483</v>
       </c>
       <c r="G124" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5352,19 +5397,19 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="D125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E125" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F125" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="G125" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5375,19 +5420,19 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="D126" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E126" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="F126" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="G126" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5398,19 +5443,19 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E127" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F127" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G127" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5421,19 +5466,19 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E128" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F128" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="G128" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5444,19 +5489,19 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D129" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E129" t="s">
-        <v>596</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
+        <v>608</v>
+      </c>
+      <c r="F129" t="s">
+        <v>483</v>
       </c>
       <c r="G129" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5467,19 +5512,19 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E130" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F130" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="G130" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5490,19 +5535,19 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E131" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F131" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="G131" t="s">
-        <v>538</v>
+        <v>671</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5513,16 +5558,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E132" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F132" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="G132" t="s">
         <v>704</v>
@@ -5536,19 +5581,19 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E133" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="F133" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="G133" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5562,16 +5607,16 @@
         <v>289</v>
       </c>
       <c r="D134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E134" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F134" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="G134" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5582,19 +5627,19 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D135" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E135" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="F135" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="G135" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5605,19 +5650,19 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E136" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="F136" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G136" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5628,19 +5673,19 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="D137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E137" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F137" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G137" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5651,19 +5696,19 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D138" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E138" t="s">
-        <v>605</v>
-      </c>
-      <c r="F138" t="s">
-        <v>655</v>
+        <v>617</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5674,19 +5719,19 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="D139" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E139" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F139" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="G139" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5697,19 +5742,19 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E140" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F140" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G140" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5720,19 +5765,19 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D141" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E141" t="s">
-        <v>608</v>
-      </c>
-      <c r="F141" t="s">
-        <v>655</v>
+        <v>620</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5743,19 +5788,19 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D142" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E142" t="s">
-        <v>471</v>
+        <v>621</v>
       </c>
       <c r="F142" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G142" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5766,19 +5811,19 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="D143" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E143" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="F143" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
       <c r="G143" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5789,19 +5834,19 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D144" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E144" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F144" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G144" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5812,19 +5857,19 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D145" t="s">
         <v>441</v>
       </c>
       <c r="E145" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="F145" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G145" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5835,19 +5880,19 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="D146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E146" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="F146" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G146" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5858,19 +5903,19 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E147" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F147" t="s">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="G147" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5881,19 +5926,19 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E148" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="F148" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="G148" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5904,19 +5949,19 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E149" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="F149" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="G149" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5927,19 +5972,19 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E150" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="F150" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G150" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5950,19 +5995,19 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F151" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="G151" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5976,16 +6021,16 @@
         <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E152" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="F152" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G152" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5999,16 +6044,16 @@
         <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E153" t="s">
-        <v>617</v>
-      </c>
-      <c r="F153" t="s">
-        <v>658</v>
+        <v>632</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6019,19 +6064,19 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D154" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E154" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="F154" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="G154" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6045,16 +6090,16 @@
         <v>300</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E155" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="F155" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="G155" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6065,19 +6110,19 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="D156" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E156" t="s">
-        <v>620</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
+        <v>635</v>
+      </c>
+      <c r="F156" t="s">
+        <v>673</v>
       </c>
       <c r="G156" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6088,19 +6133,19 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D157" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E157" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="F157" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="G157" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6111,19 +6156,19 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D158" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E158" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="F158" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="G158" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6134,19 +6179,19 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E159" t="s">
-        <v>623</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
+        <v>638</v>
+      </c>
+      <c r="F159" t="s">
+        <v>712</v>
       </c>
       <c r="G159" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6157,19 +6202,19 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D160" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E160" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="F160" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G160" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6180,19 +6225,19 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="D161" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E161" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F161" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G161" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6203,19 +6248,19 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="D162" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E162" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="F162" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
       <c r="G162" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6226,19 +6271,19 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="D163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E163" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F163" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="G163" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6249,19 +6294,19 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="D164" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E164" t="s">
-        <v>628</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="F164" t="s">
+        <v>717</v>
       </c>
       <c r="G164" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6272,19 +6317,19 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="D165" t="s">
         <v>459</v>
       </c>
       <c r="E165" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="F165" t="s">
-        <v>696</v>
+        <v>483</v>
       </c>
       <c r="G165" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6295,19 +6340,19 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D166" t="s">
         <v>460</v>
       </c>
       <c r="E166" t="s">
-        <v>630</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
+        <v>645</v>
+      </c>
+      <c r="F166" t="s">
+        <v>483</v>
       </c>
       <c r="G166" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6318,19 +6363,19 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D167" t="s">
         <v>461</v>
       </c>
       <c r="E167" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="F167" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="G167" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6341,19 +6386,19 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D168" t="s">
         <v>462</v>
       </c>
       <c r="E168" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="F168" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
       <c r="G168" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6364,19 +6409,19 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D169" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E169" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="F169" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="G169" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6387,19 +6432,19 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="D170" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E170" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="F170" t="s">
-        <v>699</v>
+        <v>483</v>
       </c>
       <c r="G170" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6413,16 +6458,16 @@
         <v>308</v>
       </c>
       <c r="D171" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E171" t="s">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="F171" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="G171" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6436,16 +6481,16 @@
         <v>309</v>
       </c>
       <c r="D172" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E172" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="F172" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G172" t="s">
-        <v>656</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6456,19 +6501,19 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="D173" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E173" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F173" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="G173" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6479,19 +6524,19 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="D174" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E174" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="F174" t="s">
-        <v>697</v>
+        <v>483</v>
       </c>
       <c r="G174" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6502,19 +6547,19 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="D175" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E175" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="F175" t="s">
-        <v>658</v>
+        <v>483</v>
       </c>
       <c r="G175" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6525,19 +6570,19 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
         <v>469</v>
       </c>
       <c r="E176" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="F176" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G176" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6551,16 +6596,16 @@
         <v>311</v>
       </c>
       <c r="D177" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E177" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="F177" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="G177" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6571,19 +6616,19 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D178" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E178" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="F178" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="G178" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6594,19 +6639,19 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="D179" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E179" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="F179" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="G179" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6617,19 +6662,19 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="D180" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E180" t="s">
-        <v>643</v>
-      </c>
-      <c r="F180" t="s">
-        <v>702</v>
+        <v>659</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>681</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6640,19 +6685,19 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="D181" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E181" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="F181" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G181" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6663,19 +6708,19 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D182" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E182" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F182" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G182" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6686,19 +6731,19 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D183" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E183" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6709,19 +6754,19 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D184" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>647</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
+        <v>663</v>
+      </c>
+      <c r="F184" t="s">
+        <v>483</v>
       </c>
       <c r="G184" t="s">
-        <v>658</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6732,19 +6777,19 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="D185" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="F185" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="G185" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6755,19 +6800,19 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D186" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="E186" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F186" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="G186" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6781,16 +6826,16 @@
         <v>316</v>
       </c>
       <c r="D187" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F187" t="s">
-        <v>694</v>
+        <v>483</v>
       </c>
       <c r="G187" t="s">
-        <v>659</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6801,19 +6846,19 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="D188" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="E188" t="s">
-        <v>651</v>
-      </c>
-      <c r="F188" t="s">
-        <v>656</v>
+        <v>667</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6824,19 +6869,19 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D189" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="E189" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="F189" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G189" t="s">
-        <v>667</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6847,19 +6892,19 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="D190" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E190" t="s">
-        <v>653</v>
-      </c>
-      <c r="F190" t="s">
-        <v>655</v>
+        <v>669</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6870,19 +6915,19 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="D191" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E191" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="F191" t="s">
-        <v>655</v>
+        <v>499</v>
       </c>
       <c r="G191" t="s">
-        <v>704</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
